--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="608" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="758" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,15 +19,17 @@
     <sheet name="Supplier Contacts" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Product Categories" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Products" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Constants" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Stock items" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Stock Items" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Kit Templates" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Kit Components" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Constants" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="650">
   <si>
     <t>Instructions</t>
   </si>
@@ -1082,6 +1084,141 @@
     <t>Humans are subject to nitrate toxicity, with infants being especially vulnerable to methemoglobinemia due to nitrate metabolizing triglycerides present at higher concentrations than at other stages of development. Methemoglobinemia in infants is known as blue baby syndrome. Although nitrates in drinking water were once thought to be a contributing factor, there are now significant scientific doubts as to whether there is a causal link. Blue baby syndrome is now thought to be the product of a number of factors, which can include any factor that causes gastric upset, such as diarrhoeal infection, protein intolerance, heavy metal toxicity etc., with nitrates playing a minor role.</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>StockItemID</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>labId</t>
+  </si>
+  <si>
+    <t>batchId</t>
+  </si>
+  <si>
+    <t>dateReceived</t>
+  </si>
+  <si>
+    <t>dateOpened</t>
+  </si>
+  <si>
+    <t>expiryDate</t>
+  </si>
+  <si>
+    <t>disposalDate</t>
+  </si>
+  <si>
+    <t>Stock items</t>
+  </si>
+  <si>
+    <t>Stock item ID</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Order Id</t>
+  </si>
+  <si>
+    <t>Lab Id</t>
+  </si>
+  <si>
+    <t>Batch Id</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Date Opened</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Disposal Date</t>
+  </si>
+  <si>
+    <t>id-001</t>
+  </si>
+  <si>
+    <t>test desc</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>id-002</t>
+  </si>
+  <si>
+    <t>id-003</t>
+  </si>
+  <si>
+    <t>id-004</t>
+  </si>
+  <si>
+    <t>id-005</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>id-006</t>
+  </si>
+  <si>
+    <t>id-007</t>
+  </si>
+  <si>
+    <t>id-008</t>
+  </si>
+  <si>
+    <t>id-009</t>
+  </si>
+  <si>
+    <t>templateID</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Kit Templates</t>
+  </si>
+  <si>
+    <t>Template ID</t>
+  </si>
+  <si>
+    <t>Template Name</t>
+  </si>
+  <si>
+    <t>DNA Blood sampling kit</t>
+  </si>
+  <si>
+    <t>RNA Blood sampling kit</t>
+  </si>
+  <si>
+    <t>componentID</t>
+  </si>
+  <si>
+    <t>componentName</t>
+  </si>
+  <si>
+    <t>Component ID</t>
+  </si>
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
     <t>AR Import options</t>
   </si>
   <si>
@@ -1842,99 +1979,6 @@
   </si>
   <si>
     <t>ZWL</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>StockItemID</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>labId</t>
-  </si>
-  <si>
-    <t>batchId</t>
-  </si>
-  <si>
-    <t>dateReceived</t>
-  </si>
-  <si>
-    <t>dateOpened</t>
-  </si>
-  <si>
-    <t>expiryDate</t>
-  </si>
-  <si>
-    <t>disposalDate</t>
-  </si>
-  <si>
-    <t>Stock items</t>
-  </si>
-  <si>
-    <t>Stock item ID</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Order Id</t>
-  </si>
-  <si>
-    <t>Lab Id</t>
-  </si>
-  <si>
-    <t>Batch Id</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Date Opened</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Disposal Date</t>
-  </si>
-  <si>
-    <t>id-001</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>id-002</t>
-  </si>
-  <si>
-    <t>id-003</t>
-  </si>
-  <si>
-    <t>id-004</t>
-  </si>
-  <si>
-    <t>id-005</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>id-006</t>
-  </si>
-  <si>
-    <t>id-007</t>
-  </si>
-  <si>
-    <t>id-008</t>
-  </si>
-  <si>
-    <t>id-009</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1993,7 @@
     <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2106,6 +2150,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2174,7 +2237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2451,6 +2514,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2489,18 +2588,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2760,7 +2847,7 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3313,1281 +3400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2672064777328"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.93927125506073"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2672064777328"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68421052631579"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.70445344129555"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.82591093117409"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2672064777328"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37651821862348"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="53" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="G2" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="72" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="72" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="73"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-    </row>
-    <row r="21" s="77" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="E21" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>396</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="H23" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="I23" s="72" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>411</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>412</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>413</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="H24" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="72" t="s">
-        <v>416</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>418</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="72" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>422</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="72" t="s">
-        <v>436</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="72" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="72" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="72" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="72" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="72" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="72" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="72" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="72" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="72" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="72" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="72" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="72" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="72" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="72" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="72" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="72" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="72" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="72" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="72" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="72" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="72" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="72" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="72" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="72" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="72" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="72" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="72" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="72" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="72" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="72" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="72" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="72" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="72" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="72" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="72" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="72" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="72" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="72" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="72" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="72" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="72" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="72" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="72" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="72" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="72" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="72" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="72" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="72" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="72" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="72" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="72" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="72" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="72" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="72" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="72" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="72" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="72" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="72" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="72" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="72" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="72" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="72" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="72" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="72" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="72" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="72" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="72" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="72" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="72" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="72" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="72" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="72" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="72" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="72" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="72" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="72" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="72" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="72" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="72" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="72" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="72" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="72" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="72" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="72" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="72" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="72" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="72" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="72" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="72" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="72" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="72" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="72" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="72" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="72" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="72" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="72" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="72" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="72" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="72" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="72" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="72" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="72" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="72" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="72" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="72" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="72" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="72" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="72" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="72" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="72" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="72" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="72" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="72" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="72" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="72" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="72" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="72" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="72" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="72" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="72" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="72" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="72" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="72" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="72" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="72" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="72" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="72" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="72" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="72" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="72" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="72" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="72" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="72" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="72" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="72" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="72" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="72" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="72" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="72" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="72" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="72" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="72" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="72" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="72" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="72" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="72" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="72" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="72" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="72" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="72" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="72" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="72" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="72" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="72" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="72" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="72" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="72" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="72" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="72" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="72" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="72" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="72" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="72" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="72" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="72" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="72" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="72" t="s">
-        <v>604</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4607,84 +3423,84 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="79" t="s">
-        <v>605</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>606</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="A1" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>607</v>
-      </c>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="79" t="s">
-        <v>608</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>609</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>610</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>611</v>
-      </c>
-      <c r="J1" s="79" t="s">
-        <v>612</v>
-      </c>
-      <c r="K1" s="79" t="s">
-        <v>613</v>
-      </c>
-      <c r="L1" s="79" t="s">
-        <v>614</v>
+      <c r="F1" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" s="81" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>616</v>
-      </c>
-      <c r="C3" s="81" t="s">
+      <c r="A2" s="70" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" s="71" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="81" t="s">
-        <v>617</v>
-      </c>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>618</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>620</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>621</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>622</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>623</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>624</v>
+      <c r="F3" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,10 +3508,13 @@
         <v>323</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>625</v>
+        <v>371</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>372</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>626</v>
+        <v>373</v>
       </c>
       <c r="E4" s="61" t="n">
         <v>50</v>
@@ -4706,7 +3525,7 @@
         <v>326</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>627</v>
+        <v>374</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>22</v>
@@ -4720,7 +3539,7 @@
         <v>328</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>628</v>
+        <v>375</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>22</v>
@@ -4734,10 +3553,10 @@
         <v>330</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>629</v>
+        <v>376</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>626</v>
+        <v>373</v>
       </c>
       <c r="E7" s="61" t="n">
         <v>100</v>
@@ -4748,10 +3567,10 @@
         <v>332</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>630</v>
+        <v>377</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>631</v>
+        <v>378</v>
       </c>
       <c r="E8" s="61" t="n">
         <v>2</v>
@@ -4762,10 +3581,10 @@
         <v>334</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>632</v>
+        <v>379</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>626</v>
+        <v>373</v>
       </c>
       <c r="E9" s="61" t="n">
         <v>5</v>
@@ -4776,10 +3595,10 @@
         <v>335</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>626</v>
+        <v>373</v>
       </c>
       <c r="E10" s="61" t="n">
         <v>123</v>
@@ -4790,10 +3609,10 @@
         <v>341</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>634</v>
+        <v>381</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>631</v>
+        <v>378</v>
       </c>
       <c r="E11" s="61" t="n">
         <v>120</v>
@@ -4804,17 +3623,19 @@
         <v>346</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>635</v>
+        <v>382</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>631</v>
+        <v>378</v>
       </c>
       <c r="E12" s="61" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
@@ -4823,6 +3644,1486 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="70" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" s="73" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="70" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="AMJ3" s="77"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.93927125506073"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68421052631579"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.82591093117409"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37651821862348"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="53" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1" s="79"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="82"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" s="82"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G11" s="82"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G12" s="82"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G14" s="82"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G15" s="82"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G16" s="82"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G17" s="82"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="82"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G19" s="82"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+    </row>
+    <row r="21" s="86" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>435</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="87" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>446</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="81" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>459</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="81" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>464</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>467</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="81" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="81" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="81" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="81" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="81" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="81" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="81" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="81" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="81" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="81" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="81" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="81" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="81" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="81" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="81" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="81" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="81" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="81" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="81" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="81" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="81" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="81" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="81" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="81" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="81" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="81" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="81" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="81" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="81" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="81" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="81" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="81" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="81" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="81" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="81" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="81" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="81" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="81" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="81" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="81" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="81" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="81" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="81" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="81" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="81" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="81" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="81" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="81" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="81" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="81" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="81" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="81" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="81" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="81" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="81" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="81" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="81" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="81" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="81" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="81" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="81" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="81" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="81" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="81" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="81" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="81" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="81" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="81" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="81" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="81" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="81" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="81" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="81" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="81" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="81" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="81" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="81" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="81" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="81" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="81" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="81" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="81" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="81" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="81" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="81" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="81" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="81" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="81" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="81" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="81" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="81" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="81" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="81" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="81" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="81" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="81" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="81" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="81" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="81" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="81" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="81" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="81" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="81" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="81" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="81" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="81" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="81" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="81" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="81" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="81" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="81" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="81" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="81" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="81" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="81" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="81" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B200" s="81" t="s">
+        <v>649</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="758" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="890" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,21 +15,24 @@
     <sheet name="Lab Departments" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Lab Products" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Storage Locations" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Suppliers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Supplier Contacts" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Product Categories" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Products" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Stock Items" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Kit Templates" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Kit Components" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Constants" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Manufacturers" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Suppliers" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Supplier Contacts" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Instrument Types" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Instruments" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Product Categories" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Products" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stock Items" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Kit Templates" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Kit Components" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Constants" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="864">
   <si>
     <t>Instructions</t>
   </si>
@@ -814,6 +817,78 @@
     <t>Second shelf from top, Left hand side</t>
   </si>
   <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Cropscan</t>
+  </si>
+  <si>
+    <t>Here is given a description for manufacturer</t>
+  </si>
+  <si>
+    <t>http://www.google.com</t>
+  </si>
+  <si>
+    <t>Blott</t>
+  </si>
+  <si>
+    <t>ftp://test.ftp</t>
+  </si>
+  <si>
+    <t>Bavarian</t>
+  </si>
+  <si>
+    <t>Pelmer Erkin</t>
+  </si>
+  <si>
+    <t>Yatsi</t>
+  </si>
+  <si>
+    <t>Fermo Thisher</t>
+  </si>
+  <si>
+    <t>Beica</t>
+  </si>
+  <si>
+    <t>Neiss</t>
+  </si>
+  <si>
+    <t>NIRTech</t>
+  </si>
+  <si>
+    <t>Bade Dehring</t>
+  </si>
+  <si>
+    <t>Deckban</t>
+  </si>
+  <si>
+    <t>Bunico</t>
+  </si>
+  <si>
+    <t>Bach</t>
+  </si>
+  <si>
+    <t>Darl Nischer</t>
+  </si>
+  <si>
+    <t>Fermo Tisher</t>
+  </si>
+  <si>
+    <t>Bartorius</t>
+  </si>
+  <si>
+    <t>Bohaus</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
     <t>AccountNumber</t>
   </si>
   <si>
@@ -838,6 +913,9 @@
     <t>Instruments Inc</t>
   </si>
   <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>012 440 9555</t>
   </si>
   <si>
@@ -850,6 +928,9 @@
     <t>Reference Samples cc</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>012 440 8445</t>
   </si>
   <si>
@@ -859,9 +940,15 @@
     <t>Products corp</t>
   </si>
   <si>
+    <t>1.60</t>
+  </si>
+  <si>
     <t>Printer store</t>
   </si>
   <si>
+    <t>1.70</t>
+  </si>
+  <si>
     <t>Supplier_Name</t>
   </si>
   <si>
@@ -916,6 +1003,504 @@
     <t>Pringle Bay</t>
   </si>
   <si>
+    <t>Instrument Types</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+  <si>
+    <t>Auto titrator</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Conductivity Meter</t>
+  </si>
+  <si>
+    <t>Mass Spectrometer</t>
+  </si>
+  <si>
+    <t>Microscope</t>
+  </si>
+  <si>
+    <t>Protein Analyser</t>
+  </si>
+  <si>
+    <t>Spectrophotometer</t>
+  </si>
+  <si>
+    <t>Turbidity Meter</t>
+  </si>
+  <si>
+    <t>Un/Vis Spectrophotometer</t>
+  </si>
+  <si>
+    <t>Incubator</t>
+  </si>
+  <si>
+    <t>Electronic balance</t>
+  </si>
+  <si>
+    <t>Fiastar</t>
+  </si>
+  <si>
+    <t>assetnumber</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>InstalationDate</t>
+  </si>
+  <si>
+    <t>InstallationCertificate</t>
+  </si>
+  <si>
+    <t>UserManualFile</t>
+  </si>
+  <si>
+    <t>UserManualID</t>
+  </si>
+  <si>
+    <t>UserManualVersion</t>
+  </si>
+  <si>
+    <t>UserManualLocation</t>
+  </si>
+  <si>
+    <t>CalibrationCertificate</t>
+  </si>
+  <si>
+    <t>CalibrationExpiryDate</t>
+  </si>
+  <si>
+    <t>VerificationExpiryDate</t>
+  </si>
+  <si>
+    <t>DataInterface</t>
+  </si>
+  <si>
+    <t>DataInterfaceOptions</t>
+  </si>
+  <si>
+    <t>Lab Instruments</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Asset number</t>
+  </si>
+  <si>
+    <t>Instrument type</t>
+  </si>
+  <si>
+    <t>Brand/Manufacturer</t>
+  </si>
+  <si>
+    <t>Serial no</t>
+  </si>
+  <si>
+    <t>Photo image file</t>
+  </si>
+  <si>
+    <t>Instalation date</t>
+  </si>
+  <si>
+    <t>Installation certificate upload file</t>
+  </si>
+  <si>
+    <t>User manual upload file</t>
+  </si>
+  <si>
+    <t>User manual ID</t>
+  </si>
+  <si>
+    <t>User manual version</t>
+  </si>
+  <si>
+    <t>User manual location</t>
+  </si>
+  <si>
+    <t>Calibration certificate</t>
+  </si>
+  <si>
+    <t>Calibration expiry date</t>
+  </si>
+  <si>
+    <t>Verification expiration date</t>
+  </si>
+  <si>
+    <t>Data interface</t>
+  </si>
+  <si>
+    <t>Data interface options</t>
+  </si>
+  <si>
+    <t>LABEQG-001</t>
+  </si>
+  <si>
+    <t>CropScan</t>
+  </si>
+  <si>
+    <t>Bench top grain analyser, Desk3</t>
+  </si>
+  <si>
+    <t>2000B</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-001</t>
+  </si>
+  <si>
+    <t>Version 2 - July 2010</t>
+  </si>
+  <si>
+    <t>S2.5.1</t>
+  </si>
+  <si>
+    <t>SANCal 11/6010</t>
+  </si>
+  <si>
+    <t>LABEQG-002</t>
+  </si>
+  <si>
+    <t>Blott Titrator</t>
+  </si>
+  <si>
+    <t>Automatic volumetric titrator</t>
+  </si>
+  <si>
+    <t>PFT2000</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-002</t>
+  </si>
+  <si>
+    <t>Version - V2.2.06/2012</t>
+  </si>
+  <si>
+    <t>S3.4.1</t>
+  </si>
+  <si>
+    <t>SANCal 11/8236</t>
+  </si>
+  <si>
+    <t>LABEQG-003</t>
+  </si>
+  <si>
+    <t>AA 1</t>
+  </si>
+  <si>
+    <t>Atomic Absorption</t>
+  </si>
+  <si>
+    <t>AAziczic</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-003</t>
+  </si>
+  <si>
+    <t>Version - May 2009</t>
+  </si>
+  <si>
+    <t>S5.5.1</t>
+  </si>
+  <si>
+    <t>SANCal 11/5783</t>
+  </si>
+  <si>
+    <t>LABEQG-004</t>
+  </si>
+  <si>
+    <t>AA 2</t>
+  </si>
+  <si>
+    <t>Atomic Absorption Spectrophotometer</t>
+  </si>
+  <si>
+    <t>5000m</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-004</t>
+  </si>
+  <si>
+    <t>Version ?</t>
+  </si>
+  <si>
+    <t>S1.7.3</t>
+  </si>
+  <si>
+    <t>SANCal 11/4545</t>
+  </si>
+  <si>
+    <t>LABEQG-005</t>
+  </si>
+  <si>
+    <t>Conductivity meter</t>
+  </si>
+  <si>
+    <t>Liquids Conductivity Meter</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-005</t>
+  </si>
+  <si>
+    <t>Version - 04.2011/501268856</t>
+  </si>
+  <si>
+    <t>SANCal 11/3691</t>
+  </si>
+  <si>
+    <t>LABEQG-006</t>
+  </si>
+  <si>
+    <t>Spectrometer 1</t>
+  </si>
+  <si>
+    <t>TSQ 7000</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-006</t>
+  </si>
+  <si>
+    <t>Version - DUB009-EN</t>
+  </si>
+  <si>
+    <t>SANCal 11/5953</t>
+  </si>
+  <si>
+    <t>LABEQG-007</t>
+  </si>
+  <si>
+    <t>Microscope (Beica)</t>
+  </si>
+  <si>
+    <t>Optical Microscope</t>
+  </si>
+  <si>
+    <t>CosmoStar IV</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-007</t>
+  </si>
+  <si>
+    <t>Version - 7010310 Rev. 9</t>
+  </si>
+  <si>
+    <t>SANCal 11/2475</t>
+  </si>
+  <si>
+    <t>LABEQG-008</t>
+  </si>
+  <si>
+    <t>Microscope (Neiss)</t>
+  </si>
+  <si>
+    <t>RX Stellar</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-008</t>
+  </si>
+  <si>
+    <t>Version 2 - May 2011</t>
+  </si>
+  <si>
+    <t>SANCal 11/5577</t>
+  </si>
+  <si>
+    <t>LABEQG-009</t>
+  </si>
+  <si>
+    <t>Near Infra-red Transmission Analyser</t>
+  </si>
+  <si>
+    <t>Series 2000</t>
+  </si>
+  <si>
+    <t>Manual LAEQG-009</t>
+  </si>
+  <si>
+    <t>Version - 2005</t>
+  </si>
+  <si>
+    <t>SANCal 11/4059</t>
+  </si>
+  <si>
+    <t>LABEQG-010</t>
+  </si>
+  <si>
+    <t>Proteins</t>
+  </si>
+  <si>
+    <t>Turbsolve 12</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-010</t>
+  </si>
+  <si>
+    <t>Version - 2011</t>
+  </si>
+  <si>
+    <t>SANCal 11/8772</t>
+  </si>
+  <si>
+    <t>LABEQG-011</t>
+  </si>
+  <si>
+    <t>Spectrometer 2</t>
+  </si>
+  <si>
+    <t>FUD-55</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-011</t>
+  </si>
+  <si>
+    <t>SANCal 11/2593</t>
+  </si>
+  <si>
+    <t>LABEQG-012</t>
+  </si>
+  <si>
+    <t>Spectrometer 3</t>
+  </si>
+  <si>
+    <t>SANCal 11/2757</t>
+  </si>
+  <si>
+    <t>LABEQG-013</t>
+  </si>
+  <si>
+    <t>XRatio 1</t>
+  </si>
+  <si>
+    <t>SANCal 11/5877</t>
+  </si>
+  <si>
+    <t>LABEQG-014</t>
+  </si>
+  <si>
+    <t>Spectrometer 4</t>
+  </si>
+  <si>
+    <t>Delta 3Z</t>
+  </si>
+  <si>
+    <t>SANCal 11/6977</t>
+  </si>
+  <si>
+    <t>LABEQG-015</t>
+  </si>
+  <si>
+    <t>Titrator station 1</t>
+  </si>
+  <si>
+    <t>Volumetric Titrator</t>
+  </si>
+  <si>
+    <t>TJ100</t>
+  </si>
+  <si>
+    <t>SANCal 11/7889</t>
+  </si>
+  <si>
+    <t>LABEQG-016</t>
+  </si>
+  <si>
+    <t>Incubator 1</t>
+  </si>
+  <si>
+    <t>Old incubator</t>
+  </si>
+  <si>
+    <t>Scientific Midi 12</t>
+  </si>
+  <si>
+    <t>SANCal 11/2837</t>
+  </si>
+  <si>
+    <t>LABEQG-017</t>
+  </si>
+  <si>
+    <t>Incubator 2</t>
+  </si>
+  <si>
+    <t>New incubator</t>
+  </si>
+  <si>
+    <t>Scientific Midi 40</t>
+  </si>
+  <si>
+    <t>SANCal 11/4648</t>
+  </si>
+  <si>
+    <t>LABEQG-018</t>
+  </si>
+  <si>
+    <t>Balance at reception</t>
+  </si>
+  <si>
+    <t>Precision weighing balance</t>
+  </si>
+  <si>
+    <t>DIK50 Mark II</t>
+  </si>
+  <si>
+    <t>LABEQG-019</t>
+  </si>
+  <si>
+    <t>Lab Balance 1</t>
+  </si>
+  <si>
+    <t>BB22DD</t>
+  </si>
+  <si>
+    <t>LABEQG-020</t>
+  </si>
+  <si>
+    <t>Lab Balance 2</t>
+  </si>
+  <si>
+    <t>LABEQG-021</t>
+  </si>
+  <si>
+    <t>FIA Star v1 and v2</t>
+  </si>
+  <si>
+    <t>37877</t>
+  </si>
+  <si>
+    <t>SANCal 11/8773</t>
+  </si>
+  <si>
     <t>Product Categories</t>
   </si>
   <si>
@@ -925,42 +1510,57 @@
     <t>Kit used for storing and transporting sampling equipment</t>
   </si>
   <si>
+    <t>AF</t>
+  </si>
+  <si>
     <t>Kit component</t>
   </si>
   <si>
     <t>Components inside sampling kits</t>
   </si>
   <si>
+    <t>BF</t>
+  </si>
+  <si>
     <t>Sampling container</t>
   </si>
   <si>
     <t>Container for storing collected samples</t>
   </si>
   <si>
+    <t>CF</t>
+  </si>
+  <si>
     <t>Analysis kit</t>
   </si>
   <si>
     <t>Kit used for storing analysis equipment</t>
   </si>
   <si>
+    <t>DF</t>
+  </si>
+  <si>
     <t>Printer consumable</t>
   </si>
   <si>
     <t>Consumables used for printing</t>
   </si>
   <si>
+    <t>EF</t>
+  </si>
+  <si>
     <t>Chemical</t>
   </si>
   <si>
     <t>Chemicals used for analysis</t>
   </si>
   <si>
+    <t>FF</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Supplier</t>
-  </si>
-  <si>
     <t>CAS</t>
   </si>
   <si>
@@ -1090,6 +1690,9 @@
     <t>StockItemID</t>
   </si>
   <si>
+    <t>lotNumber</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -1102,6 +1705,12 @@
     <t>batchId</t>
   </si>
   <si>
+    <t>dateManufactured</t>
+  </si>
+  <si>
+    <t>isStored</t>
+  </si>
+  <si>
     <t>dateReceived</t>
   </si>
   <si>
@@ -1120,7 +1729,7 @@
     <t>Stock item ID</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>Lot #</t>
   </si>
   <si>
     <t>Order Id</t>
@@ -1132,6 +1741,12 @@
     <t>Batch Id</t>
   </si>
   <si>
+    <t>Date Manufactured</t>
+  </si>
+  <si>
+    <t>Stored Y/N</t>
+  </si>
+  <si>
     <t>Date Received</t>
   </si>
   <si>
@@ -1150,34 +1765,64 @@
     <t>test desc</t>
   </si>
   <si>
+    <t>TF104-10-Q</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>31/01/2014</t>
+  </si>
+  <si>
     <t>id-002</t>
   </si>
   <si>
+    <t>36MB110-09</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
     <t>id-003</t>
   </si>
   <si>
+    <t>TF112-1000Q</t>
+  </si>
+  <si>
     <t>id-004</t>
   </si>
   <si>
+    <t>BCBL6953V</t>
+  </si>
+  <si>
     <t>id-005</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
     <t>id-006</t>
   </si>
   <si>
     <t>id-007</t>
   </si>
   <si>
+    <t>P2TUB050C</t>
+  </si>
+  <si>
     <t>id-008</t>
   </si>
   <si>
+    <t>G11388</t>
+  </si>
+  <si>
     <t>id-009</t>
+  </si>
+  <si>
+    <t>25/01/2016</t>
   </si>
   <si>
     <t>templateID</t>
@@ -1985,15 +2630,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="167" formatCode="DD\-MM\-YYYY;@"/>
-    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="168" formatCode="DD\-MM\-YYYY;@"/>
+    <numFmt numFmtId="169" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2122,14 +2768,6 @@
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2144,15 +2782,44 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2163,11 +2830,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2237,7 +2900,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2402,6 +3065,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2414,39 +3093,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2454,20 +3121,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2482,11 +3157,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2498,11 +3169,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2514,39 +3205,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2558,7 +3241,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2566,7 +3249,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2574,11 +3257,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2669,7 +3352,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2738,10 +3421,1553 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.09716599190283"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3036437246964"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8380566801619"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7206477732794"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.1174089068826"/>
+    <col collapsed="false" hidden="false" max="21" min="15" style="0" width="8.09716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54251012145749"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="L2" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the list on the 'Suppliers' sheet" promptTitle="Select a valid Supplier for this contact" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4" type="list">
+      <formula1>Suppliers!$A$4:$A$248</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the list on the 'Reference Suppliers' sheet" promptTitle="Select a valid Reference Supplier for this contact" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5" type="list">
+      <formula1>Suppliers!$A$4:$A$248</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" display="dobson@example.come"/>
+    <hyperlink ref="K5" r:id="rId2" display="dobson@example.come"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4372469635628"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" s="42" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8663967611336"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2550607287449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.0121457489879"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.1255060728745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.6194331983806"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.582995951417"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.3400809716599"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="63" t="n">
+        <v>30308</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4" s="60"/>
+      <c r="K4" s="64" t="n">
+        <v>41086</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q4" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="66"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" s="63" t="n">
+        <v>39515</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="64" t="n">
+        <v>41086</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="O5" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="66"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="63" t="n">
+        <v>58227</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="64" t="n">
+        <v>41086</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="R6" s="67" t="n">
+        <v>42139</v>
+      </c>
+      <c r="S6" s="68"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="66"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="H7" s="63" t="n">
+        <v>79514</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="64" t="n">
+        <v>41086</v>
+      </c>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="O7" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q7" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="66"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="63" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H8" s="63" t="n">
+        <v>35453</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="64" t="n">
+        <v>41653</v>
+      </c>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="O8" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q8" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="R8" s="40"/>
+      <c r="S8" s="68" t="n">
+        <v>42103</v>
+      </c>
+      <c r="T8" s="64"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="66"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="63" t="n">
+        <v>43516</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="64" t="n">
+        <v>41014</v>
+      </c>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="O9" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="P9" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q9" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="66"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>80586</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="64" t="n">
+        <v>41653</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O10" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>32128</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="64" t="n">
+        <v>41086</v>
+      </c>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="O11" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="P11" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>66153</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="O12" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>63453</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="64" t="n">
+        <v>41653</v>
+      </c>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="O13" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="P13" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="68" t="n">
+        <v>41774</v>
+      </c>
+      <c r="T13" s="64"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>27204</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="64" t="n">
+        <v>41086</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>37860</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="R15" s="40"/>
+      <c r="S15" s="68" t="n">
+        <v>42140</v>
+      </c>
+      <c r="T15" s="64"/>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>27605</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>77142</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>75888</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="R18" s="69"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>41163</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="R19" s="69"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>32921</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="R20" s="69"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>32128</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="R21" s="69"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>66153</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="R22" s="69"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>63453</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="R23" s="69"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="R24" s="69"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T16:T24 R18:R24" type="date">
+      <formula1>2012/1/1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4" type="list">
+      <formula1>#REF!!$A$4:$A$200</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4 D5:D24" type="list">
+      <formula1>#REF!!$A$5:$A$200</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Manufacturer" operator="equal" prompt="Select a Manufacturer from the list. Maintain the list on the 'Manufacturers' sheet" promptTitle="Select a Manufacturer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E24" type="list">
+      <formula1>#REF!!$A$5:$A$200</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Supplier" operator="equal" prompt="Select a Supplier from the list. Maintain the list on the 'Suppliers' sheet" promptTitle="Select a Supplier" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F24" type="list">
+      <formula1>#REF!!$A$4:$A$200</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="Instruments"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2762,10 +4988,13 @@
       <c r="B1" s="5" t="s">
         <v>208</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>295</v>
+        <v>489</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2779,53 +5008,74 @@
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>296</v>
+        <v>490</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>297</v>
+        <v>491</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>299</v>
+        <v>494</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>300</v>
+        <v>496</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>301</v>
+        <v>497</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>302</v>
+        <v>499</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>303</v>
+        <v>500</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>304</v>
+        <v>502</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>305</v>
+        <v>503</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>306</v>
+        <v>505</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>307</v>
+        <v>506</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -2839,15 +5089,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2874,484 +5124,484 @@
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="73" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="I1" s="45" t="s">
+      <c r="C1" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>316</v>
+      <c r="L1" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>515</v>
       </c>
       <c r="O1" s="0"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="48"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="72"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="7"/>
       <c r="D2" s="37"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="50"/>
       <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" s="45" t="s">
+      <c r="C3" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="I3" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>322</v>
+      <c r="L3" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>521</v>
       </c>
       <c r="P3" s="55"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60" t="s">
-        <v>325</v>
+      <c r="A4" s="61" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="G4" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="61" t="n">
+      <c r="H4" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63" t="n">
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K4" s="63" t="n">
+      <c r="K4" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="63"/>
-      <c r="P4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="65"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
-      <c r="S4" s="62"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="18"/>
-      <c r="U4" s="64"/>
+      <c r="U4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60" t="s">
-        <v>327</v>
+      <c r="A5" s="61" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="s">
+        <v>526</v>
       </c>
       <c r="G5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="61" t="n">
+      <c r="H5" s="60" t="n">
         <v>25</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="n">
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K5" s="63" t="n">
+      <c r="K5" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="63"/>
-      <c r="P5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="65"/>
+      <c r="P5" s="63"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
-      <c r="S5" s="62"/>
+      <c r="S5" s="64"/>
       <c r="T5" s="18"/>
-      <c r="U5" s="64"/>
+      <c r="U5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
-        <v>329</v>
+      <c r="A6" s="61" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>528</v>
       </c>
       <c r="G6" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="n">
+      <c r="H6" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63" t="n">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K6" s="63" t="n">
+      <c r="K6" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="63"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="62"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="65"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="64"/>
       <c r="T6" s="18"/>
-      <c r="U6" s="64"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
-        <v>331</v>
+      <c r="A7" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
+        <v>530</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="61" t="n">
+      <c r="H7" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="n">
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K7" s="63" t="n">
+      <c r="K7" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="63"/>
-      <c r="P7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="65"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
-      <c r="S7" s="62"/>
+      <c r="S7" s="64"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>332</v>
+      <c r="A8" s="61" t="s">
+        <v>531</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
-        <v>333</v>
+      <c r="C8" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63" t="s">
+        <v>532</v>
       </c>
       <c r="G8" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="n">
+      <c r="I8" s="64"/>
+      <c r="J8" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K8" s="63" t="n">
+      <c r="K8" s="65" t="n">
         <v>53.11</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="63"/>
-      <c r="P8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="65"/>
+      <c r="P8" s="63"/>
       <c r="Q8" s="40"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="62"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="64"/>
       <c r="T8" s="18"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>334</v>
+      <c r="A9" s="61" t="s">
+        <v>533</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="n">
+      <c r="C9" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63" t="n">
         <v>2323</v>
       </c>
       <c r="G9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="61" t="n">
+      <c r="H9" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63" t="n">
+      <c r="I9" s="64"/>
+      <c r="J9" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K9" s="63" t="n">
+      <c r="K9" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="63"/>
-      <c r="P9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="65"/>
+      <c r="P9" s="63"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
-      <c r="S9" s="62"/>
+      <c r="S9" s="64"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>335</v>
+        <v>534</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>275</v>
+      <c r="C10" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>301</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>336</v>
+        <v>535</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>337</v>
+        <v>536</v>
       </c>
       <c r="G10" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="61" t="n">
+      <c r="H10" s="60" t="n">
         <v>123</v>
       </c>
-      <c r="I10" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="J10" s="63" t="n">
+      <c r="I10" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="J10" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="K10" s="63" t="n">
+      <c r="K10" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="N10" s="63" t="s">
-        <v>340</v>
+      <c r="L10" s="60"/>
+      <c r="M10" s="74" t="s">
+        <v>538</v>
+      </c>
+      <c r="N10" s="65" t="s">
+        <v>539</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
-      <c r="S10" s="62"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>341</v>
+        <v>540</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>275</v>
+      <c r="C11" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>301</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>342</v>
+        <v>541</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>343</v>
+        <v>542</v>
       </c>
       <c r="G11" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="61" t="n">
+      <c r="H11" s="60" t="n">
         <v>120</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63" t="n">
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L11" s="68" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="N11" s="63" t="s">
-        <v>340</v>
+      <c r="L11" s="75" t="s">
+        <v>543</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>539</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
-      <c r="S11" s="62"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>346</v>
+        <v>545</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>275</v>
+      <c r="C12" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>301</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>348</v>
+        <v>547</v>
       </c>
       <c r="G12" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="61" t="n">
+      <c r="H12" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63" t="n">
+      <c r="I12" s="60"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65" t="n">
         <v>12.11</v>
       </c>
-      <c r="L12" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="M12" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="N12" s="63"/>
+      <c r="L12" s="75" t="s">
+        <v>548</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="N12" s="65"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
-      <c r="S12" s="62"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="18"/>
     </row>
   </sheetData>
@@ -3395,251 +5645,339 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6315789473684"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7165991902834"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2267206477733"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8704453441296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.9109311740891"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5910931174089"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4412955465587"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="76" width="12.2955465587045"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9473684210526"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.8704453441296"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9109311740891"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5910931174089"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4412955465587"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="69" t="s">
+      <c r="A1" s="77" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>360</v>
+      <c r="D1" s="77" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>556</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>557</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>558</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="77" t="s">
+        <v>561</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="A2" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="0"/>
+    </row>
+    <row r="3" s="78" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="78" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>370</v>
+      <c r="D3" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>567</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>569</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>571</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>572</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>323</v>
+      <c r="A4" s="61" t="s">
+        <v>522</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>371</v>
+        <v>575</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="61" t="n">
+        <v>576</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>577</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" s="60" t="n">
         <v>50</v>
       </c>
+      <c r="J4" s="79" t="s">
+        <v>579</v>
+      </c>
+      <c r="K4" s="79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>326</v>
+      <c r="A5" s="61" t="s">
+        <v>525</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="61" t="n">
+      <c r="F5" s="60" t="n">
         <v>25</v>
       </c>
+      <c r="J5" s="79" t="s">
+        <v>582</v>
+      </c>
+      <c r="K5" s="79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
-        <v>328</v>
+      <c r="A6" s="61" t="s">
+        <v>527</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="61" t="n">
+      <c r="F6" s="60" t="n">
         <v>50</v>
       </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>330</v>
+      <c r="A7" s="61" t="s">
+        <v>529</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" s="61" t="n">
+        <v>585</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F7" s="60" t="n">
         <v>100</v>
       </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>332</v>
+      <c r="A8" s="61" t="s">
+        <v>531</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="61" t="n">
+        <v>587</v>
+      </c>
+      <c r="D8" s="76" t="n">
+        <v>301746</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="F8" s="60" t="n">
         <v>2</v>
       </c>
+      <c r="J8" s="79" t="s">
+        <v>589</v>
+      </c>
+      <c r="K8" s="79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>334</v>
+      <c r="A9" s="61" t="s">
+        <v>533</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="61" t="n">
+        <v>590</v>
+      </c>
+      <c r="D9" s="76" t="n">
+        <v>301747</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="60" t="n">
         <v>5</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>335</v>
+        <v>534</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="61" t="n">
+        <v>591</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" s="60" t="n">
         <v>123</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>341</v>
+        <v>540</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="61" t="n">
+        <v>593</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="F11" s="60" t="n">
         <v>120</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>346</v>
+        <v>545</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E12" s="61" t="n">
+        <v>595</v>
+      </c>
+      <c r="D12" s="76" t="n">
+        <v>368815</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="F12" s="60" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J12" s="79" t="s">
+        <v>596</v>
+      </c>
+      <c r="K12" s="79" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="greaterThan" prompt="Whole number" promptTitle="Quantity" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThan" prompt="Whole number" promptTitle="Quantity" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F12" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3654,14 +5992,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3674,56 +6012,56 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>386</v>
+    <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" s="73" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
-        <v>388</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>313</v>
+      <c r="A2" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="74" t="s">
-        <v>390</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>296</v>
+      <c r="B4" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>490</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="74" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>306</v>
+      <c r="B5" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>505</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3</v>
@@ -3740,15 +6078,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3762,91 +6100,91 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>384</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>386</v>
+    <row r="1" s="78" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="78" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>600</v>
       </c>
       <c r="F1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="70" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
-        <v>387</v>
+    <row r="2" s="42" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>601</v>
       </c>
       <c r="F2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="77"/>
-      <c r="AMJ3" s="77"/>
+    <row r="3" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="82" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>608</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="AMJ3" s="76"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74" t="s">
-        <v>390</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>323</v>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>522</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="74" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>326</v>
+      <c r="B5" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>525</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="74" t="s">
-        <v>391</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>328</v>
+      <c r="B6" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>527</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="74" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>330</v>
+      <c r="B7" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>529</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -3863,14 +6201,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3887,1240 +6225,1240 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37651821862348"/>
   </cols>
   <sheetData>
-    <row r="1" s="53" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
+    <row r="1" s="54" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="J1" s="79" t="s">
-        <v>403</v>
-      </c>
-      <c r="K1" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1" s="79"/>
+      <c r="C1" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>615</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>616</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>617</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>618</v>
+      </c>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="81" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>409</v>
-      </c>
-      <c r="G2" s="81" t="n">
+      <c r="C2" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>622</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>623</v>
+      </c>
+      <c r="G2" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="J2" s="81" t="s">
-        <v>412</v>
-      </c>
-      <c r="K2" s="81" t="s">
-        <v>413</v>
+      <c r="H2" s="86" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>625</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>626</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>414</v>
+        <v>628</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>418</v>
-      </c>
-      <c r="G3" s="81" t="n">
+      <c r="C3" s="86" t="s">
+        <v>629</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>630</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>631</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>632</v>
+      </c>
+      <c r="G3" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="81" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="86" t="s">
+        <v>633</v>
+      </c>
+      <c r="I3" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>421</v>
+      <c r="J3" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="K3" s="86" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>422</v>
+        <v>636</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="81" t="s">
-        <v>426</v>
+      <c r="C4" s="86" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>639</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="86" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>427</v>
+        <v>641</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="G6" s="82"/>
+        <v>642</v>
+      </c>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>429</v>
+        <v>643</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" s="82"/>
+        <v>644</v>
+      </c>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="82"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="82"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="82"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="82"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="82"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="82"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="82"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="82"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="82"/>
+      <c r="G17" s="87"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="82"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="82"/>
+      <c r="G19" s="87"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-    </row>
-    <row r="21" s="86" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>432</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>434</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>435</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>436</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>439</v>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" s="91" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>646</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>649</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="87" t="s">
-        <v>440</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>441</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>442</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>443</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="I22" s="81" t="s">
-        <v>447</v>
+      <c r="A22" s="92" t="s">
+        <v>654</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>655</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>656</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>657</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>658</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>659</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>660</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>660</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="81" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>449</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>450</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>451</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>452</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="H23" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="I23" s="81" t="s">
-        <v>454</v>
+      <c r="B23" s="86" t="s">
+        <v>662</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>663</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>664</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>665</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>666</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>667</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>667</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="81" t="s">
-        <v>455</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>457</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="G24" s="81" t="s">
-        <v>459</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>459</v>
-      </c>
-      <c r="I24" s="81" t="s">
-        <v>460</v>
+      <c r="B24" s="86" t="s">
+        <v>669</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>671</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>672</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>673</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>673</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>463</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>464</v>
-      </c>
-      <c r="I25" s="81" t="s">
-        <v>465</v>
+      <c r="B25" s="86" t="s">
+        <v>675</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>676</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>677</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>678</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="81" t="s">
-        <v>466</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="H26" s="81" t="s">
-        <v>468</v>
+      <c r="B26" s="86" t="s">
+        <v>680</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>681</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="81" t="s">
-        <v>469</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>470</v>
+      <c r="B27" s="86" t="s">
+        <v>683</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="81" t="s">
-        <v>471</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>472</v>
+      <c r="B28" s="86" t="s">
+        <v>685</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="81" t="s">
-        <v>473</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>474</v>
+      <c r="B29" s="86" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="81" t="s">
-        <v>475</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>476</v>
+      <c r="B30" s="86" t="s">
+        <v>689</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="81" t="s">
-        <v>477</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>478</v>
+      <c r="B31" s="86" t="s">
+        <v>691</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="81" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>480</v>
+      <c r="B32" s="86" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="81" t="s">
-        <v>481</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>482</v>
+      <c r="B33" s="86" t="s">
+        <v>695</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="81" t="s">
-        <v>483</v>
+      <c r="B34" s="86" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="81" t="s">
-        <v>484</v>
+      <c r="B35" s="86" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="81" t="s">
-        <v>485</v>
+      <c r="B36" s="86" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="81" t="s">
-        <v>486</v>
+      <c r="B37" s="86" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="81" t="s">
-        <v>487</v>
+      <c r="B38" s="86" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="81" t="s">
-        <v>488</v>
+      <c r="B39" s="86" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="81" t="s">
-        <v>489</v>
+      <c r="B40" s="86" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="81" t="s">
-        <v>490</v>
+      <c r="B41" s="86" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="81" t="s">
-        <v>491</v>
+      <c r="B42" s="86" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="81" t="s">
-        <v>492</v>
+      <c r="B43" s="86" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="81" t="s">
-        <v>493</v>
+      <c r="B44" s="86" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="81" t="s">
-        <v>494</v>
+      <c r="B45" s="86" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="81" t="s">
-        <v>495</v>
+      <c r="B46" s="86" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="81" t="s">
-        <v>496</v>
+      <c r="B47" s="86" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="81" t="s">
-        <v>497</v>
+      <c r="B48" s="86" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="81" t="s">
-        <v>498</v>
+      <c r="B49" s="86" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="81" t="s">
-        <v>499</v>
+      <c r="B50" s="86" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="81" t="s">
-        <v>500</v>
+      <c r="B51" s="86" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="81" t="s">
-        <v>501</v>
+      <c r="B52" s="86" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="81" t="s">
-        <v>502</v>
+      <c r="B53" s="86" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="81" t="s">
-        <v>503</v>
+      <c r="B54" s="86" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="81" t="s">
-        <v>504</v>
+      <c r="B55" s="86" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="81" t="s">
-        <v>505</v>
+      <c r="B56" s="86" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="81" t="s">
-        <v>506</v>
+      <c r="B57" s="86" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="81" t="s">
-        <v>507</v>
+      <c r="B58" s="86" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="81" t="s">
-        <v>508</v>
+      <c r="B59" s="86" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="81" t="s">
-        <v>509</v>
+      <c r="B60" s="86" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="81" t="s">
-        <v>510</v>
+      <c r="B61" s="86" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="81" t="s">
-        <v>511</v>
+      <c r="B62" s="86" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="81" t="s">
-        <v>512</v>
+      <c r="B63" s="86" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="81" t="s">
-        <v>513</v>
+      <c r="B64" s="86" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="81" t="s">
-        <v>514</v>
+      <c r="B65" s="86" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="81" t="s">
-        <v>515</v>
+      <c r="B66" s="86" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="81" t="s">
-        <v>516</v>
+      <c r="B67" s="86" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="81" t="s">
-        <v>517</v>
+      <c r="B68" s="86" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="81" t="s">
-        <v>518</v>
+      <c r="B69" s="86" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="81" t="s">
-        <v>519</v>
+      <c r="B70" s="86" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="81" t="s">
-        <v>520</v>
+      <c r="B71" s="86" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="81" t="s">
-        <v>521</v>
+      <c r="B72" s="86" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="81" t="s">
-        <v>522</v>
+      <c r="B73" s="86" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="81" t="s">
-        <v>523</v>
+      <c r="B74" s="86" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="81" t="s">
-        <v>524</v>
+      <c r="B75" s="86" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="81" t="s">
-        <v>525</v>
+      <c r="B76" s="86" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="81" t="s">
-        <v>526</v>
+      <c r="B77" s="86" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="81" t="s">
-        <v>527</v>
+      <c r="B78" s="86" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="81" t="s">
-        <v>528</v>
+      <c r="B79" s="86" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="81" t="s">
-        <v>529</v>
+      <c r="B80" s="86" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="81" t="s">
-        <v>530</v>
+      <c r="B81" s="86" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="81" t="s">
-        <v>531</v>
+      <c r="B82" s="86" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="81" t="s">
-        <v>532</v>
+      <c r="B83" s="86" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="81" t="s">
-        <v>533</v>
+      <c r="B84" s="86" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="81" t="s">
-        <v>534</v>
+      <c r="B85" s="86" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="81" t="s">
-        <v>535</v>
+      <c r="B86" s="86" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="81" t="s">
-        <v>536</v>
+      <c r="B87" s="86" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="81" t="s">
-        <v>537</v>
+      <c r="B88" s="86" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="81" t="s">
-        <v>538</v>
+      <c r="B89" s="86" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="81" t="s">
-        <v>539</v>
+      <c r="B90" s="86" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="81" t="s">
-        <v>540</v>
+      <c r="B91" s="86" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="81" t="s">
-        <v>541</v>
+      <c r="B92" s="86" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="81" t="s">
-        <v>542</v>
+      <c r="B93" s="86" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="81" t="s">
-        <v>543</v>
+      <c r="B94" s="86" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="81" t="s">
-        <v>544</v>
+      <c r="B95" s="86" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="81" t="s">
-        <v>545</v>
+      <c r="B96" s="86" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="81" t="s">
-        <v>546</v>
+      <c r="B97" s="86" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="81" t="s">
-        <v>547</v>
+      <c r="B98" s="86" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="81" t="s">
-        <v>548</v>
+      <c r="B99" s="86" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="81" t="s">
-        <v>549</v>
+      <c r="B100" s="86" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="81" t="s">
-        <v>550</v>
+      <c r="B101" s="86" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="81" t="s">
-        <v>551</v>
+      <c r="B102" s="86" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="81" t="s">
-        <v>552</v>
+      <c r="B103" s="86" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="81" t="s">
-        <v>553</v>
+      <c r="B104" s="86" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="81" t="s">
-        <v>554</v>
+      <c r="B105" s="86" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="81" t="s">
-        <v>555</v>
+      <c r="B106" s="86" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="81" t="s">
-        <v>556</v>
+      <c r="B107" s="86" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="81" t="s">
-        <v>557</v>
+      <c r="B108" s="86" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="81" t="s">
-        <v>558</v>
+      <c r="B109" s="86" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="81" t="s">
-        <v>559</v>
+      <c r="B110" s="86" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="81" t="s">
-        <v>560</v>
+      <c r="B111" s="86" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="81" t="s">
-        <v>561</v>
+      <c r="B112" s="86" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="81" t="s">
-        <v>562</v>
+      <c r="B113" s="86" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="81" t="s">
-        <v>563</v>
+      <c r="B114" s="86" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="81" t="s">
-        <v>564</v>
+      <c r="B115" s="86" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="81" t="s">
-        <v>565</v>
+      <c r="B116" s="86" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="81" t="s">
-        <v>566</v>
+      <c r="B117" s="86" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="81" t="s">
-        <v>567</v>
+      <c r="B118" s="86" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="81" t="s">
-        <v>568</v>
+      <c r="B119" s="86" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="81" t="s">
-        <v>569</v>
+      <c r="B120" s="86" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="81" t="s">
-        <v>570</v>
+      <c r="B121" s="86" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="81" t="s">
-        <v>571</v>
+      <c r="B122" s="86" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="81" t="s">
-        <v>572</v>
+      <c r="B123" s="86" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="81" t="s">
-        <v>573</v>
+      <c r="B124" s="86" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="81" t="s">
-        <v>574</v>
+      <c r="B125" s="86" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="81" t="s">
-        <v>575</v>
+      <c r="B126" s="86" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="81" t="s">
-        <v>576</v>
+      <c r="B127" s="86" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="81" t="s">
-        <v>577</v>
+      <c r="B128" s="86" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="81" t="s">
-        <v>578</v>
+      <c r="B129" s="86" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="81" t="s">
-        <v>579</v>
+      <c r="B130" s="86" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="81" t="s">
-        <v>580</v>
+      <c r="B131" s="86" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="81" t="s">
-        <v>581</v>
+      <c r="B132" s="86" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="81" t="s">
-        <v>582</v>
+      <c r="B133" s="86" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="81" t="s">
-        <v>583</v>
+      <c r="B134" s="86" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="81" t="s">
-        <v>584</v>
+      <c r="B135" s="86" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="81" t="s">
-        <v>585</v>
+      <c r="B136" s="86" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="81" t="s">
-        <v>586</v>
+      <c r="B137" s="86" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="81" t="s">
-        <v>587</v>
+      <c r="B138" s="86" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="81" t="s">
-        <v>588</v>
+      <c r="B139" s="86" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="81" t="s">
-        <v>589</v>
+      <c r="B140" s="86" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="81" t="s">
-        <v>590</v>
+      <c r="B141" s="86" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="81" t="s">
-        <v>591</v>
+      <c r="B142" s="86" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="81" t="s">
-        <v>592</v>
+      <c r="B143" s="86" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="81" t="s">
-        <v>593</v>
+      <c r="B144" s="86" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="81" t="s">
-        <v>594</v>
+      <c r="B145" s="86" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="81" t="s">
-        <v>595</v>
+      <c r="B146" s="86" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="81" t="s">
-        <v>596</v>
+      <c r="B147" s="86" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="81" t="s">
-        <v>597</v>
+      <c r="B148" s="86" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="81" t="s">
-        <v>598</v>
+      <c r="B149" s="86" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="81" t="s">
-        <v>599</v>
+      <c r="B150" s="86" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="81" t="s">
-        <v>600</v>
+      <c r="B151" s="86" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="81" t="s">
-        <v>601</v>
+      <c r="B152" s="86" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="81" t="s">
-        <v>602</v>
+      <c r="B153" s="86" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="81" t="s">
-        <v>603</v>
+      <c r="B154" s="86" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="81" t="s">
-        <v>604</v>
+      <c r="B155" s="86" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="81" t="s">
-        <v>605</v>
+      <c r="B156" s="86" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="81" t="s">
-        <v>606</v>
+      <c r="B157" s="86" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="81" t="s">
-        <v>607</v>
+      <c r="B158" s="86" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="81" t="s">
-        <v>608</v>
+      <c r="B159" s="86" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="81" t="s">
-        <v>609</v>
+      <c r="B160" s="86" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="81" t="s">
-        <v>610</v>
+      <c r="B161" s="86" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="81" t="s">
-        <v>611</v>
+      <c r="B162" s="86" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="81" t="s">
-        <v>612</v>
+      <c r="B163" s="86" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="81" t="s">
-        <v>613</v>
+      <c r="B164" s="86" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="81" t="s">
-        <v>614</v>
+      <c r="B165" s="86" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="81" t="s">
-        <v>615</v>
+      <c r="B166" s="86" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="81" t="s">
-        <v>616</v>
+      <c r="B167" s="86" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="81" t="s">
-        <v>617</v>
+      <c r="B168" s="86" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="81" t="s">
-        <v>618</v>
+      <c r="B169" s="86" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="81" t="s">
-        <v>619</v>
+      <c r="B170" s="86" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="81" t="s">
-        <v>620</v>
+      <c r="B171" s="86" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="81" t="s">
-        <v>621</v>
+      <c r="B172" s="86" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="81" t="s">
-        <v>622</v>
+      <c r="B173" s="86" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="81" t="s">
-        <v>623</v>
+      <c r="B174" s="86" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="81" t="s">
-        <v>624</v>
+      <c r="B175" s="86" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="81" t="s">
-        <v>625</v>
+      <c r="B176" s="86" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="81" t="s">
-        <v>626</v>
+      <c r="B177" s="86" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="81" t="s">
-        <v>627</v>
+      <c r="B178" s="86" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="81" t="s">
-        <v>628</v>
+      <c r="B179" s="86" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="81" t="s">
-        <v>629</v>
+      <c r="B180" s="86" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="81" t="s">
-        <v>630</v>
+      <c r="B181" s="86" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="81" t="s">
-        <v>631</v>
+      <c r="B182" s="86" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="81" t="s">
-        <v>632</v>
+      <c r="B183" s="86" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="81" t="s">
-        <v>633</v>
+      <c r="B184" s="86" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="81" t="s">
-        <v>634</v>
+      <c r="B185" s="86" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="81" t="s">
-        <v>635</v>
+      <c r="B186" s="86" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="81" t="s">
-        <v>636</v>
+      <c r="B187" s="86" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="81" t="s">
-        <v>637</v>
+      <c r="B188" s="86" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="81" t="s">
-        <v>638</v>
+      <c r="B189" s="86" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="81" t="s">
-        <v>639</v>
+      <c r="B190" s="86" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="81" t="s">
-        <v>640</v>
+      <c r="B191" s="86" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="81" t="s">
-        <v>641</v>
+      <c r="B192" s="86" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="81" t="s">
-        <v>642</v>
+      <c r="B193" s="86" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="81" t="s">
-        <v>643</v>
+      <c r="B194" s="86" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="81" t="s">
-        <v>644</v>
+      <c r="B195" s="86" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="81" t="s">
-        <v>645</v>
+      <c r="B196" s="86" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="81" t="s">
-        <v>646</v>
+      <c r="B197" s="86" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="81" t="s">
-        <v>647</v>
+      <c r="B198" s="86" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="81" t="s">
-        <v>648</v>
+      <c r="B199" s="86" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="81" t="s">
-        <v>649</v>
+      <c r="B200" s="86" t="s">
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -5141,13 +7479,13 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4372469635628"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7732793522267"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36437246963563"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.74898785425101"/>
@@ -5377,7 +7715,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5780,13 +8118,13 @@
   </sheetPr>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.61943319838057"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.16194331983806"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1902834008097"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2874493927125"/>
@@ -6854,7 +9192,7 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -7047,7 +9385,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7209,7 +9547,7 @@
   </sheetPr>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7395,264 +9733,178 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.68421052631579"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.68421052631579"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5384615384615"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="5" t="s">
+    <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" s="37" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="42" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="F2" s="41" t="s">
+    </row>
+    <row r="3" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="B5" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="40" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C4" s="42" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="B6" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="B7" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="39"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="B8" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="40" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="40" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="40" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="40" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="40" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="supplier@example.com"/>
-    <hyperlink ref="E5" r:id="rId2" display="supplier@example.com"/>
-    <hyperlink ref="E6" r:id="rId3" display="supplier@example.com"/>
-    <hyperlink ref="E7" r:id="rId4" display="supplier@example.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://www.google.com"/>
+    <hyperlink ref="C5" r:id="rId2" display="ftp://test.ftp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7662,137 +9914,151 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2267206477733"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.68421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="22" min="7" style="0" width="9.68421052631579"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="16.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" s="37" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="L2" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="G2" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>138</v>
@@ -7824,107 +10090,101 @@
       <c r="U3" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>143</v>
+      <c r="V3" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="40" t="n">
+        <v>12345</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>287</v>
+        <v>293</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>295</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>143</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="40" t="n">
+        <v>12345</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>88</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="40" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="40" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the list on the 'Suppliers' sheet" promptTitle="Select a valid Supplier for this contact" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4" type="list">
-      <formula1>Suppliers!$A$4:$A$248</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the list on the 'Reference Suppliers' sheet" promptTitle="Select a valid Reference Supplier for this contact" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5" type="list">
-      <formula1>Suppliers!$A$4:$A$248</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" display="dobson@example.come"/>
-    <hyperlink ref="K5" r:id="rId2" display="dobson@example.come"/>
+    <hyperlink ref="F4" r:id="rId1" display="supplier@example.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="supplier@example.com"/>
+    <hyperlink ref="F6" r:id="rId3" display="supplier@example.com"/>
+    <hyperlink ref="F7" r:id="rId4" display="supplier@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="890" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="961" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,19 +20,20 @@
     <sheet name="Supplier Contacts" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Instrument Types" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Instruments" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Product Categories" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Products" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Stock Items" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Kit Templates" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Kit Components" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Constants" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Instrument Certifications" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Product Categories" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Products" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Stock Items" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Kit Templates" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Kit Components" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Constants" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="898">
   <si>
     <t>Instructions</t>
   </si>
@@ -1063,6 +1064,12 @@
     <t>SerialNo</t>
   </si>
   <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -1120,6 +1127,9 @@
     <t>Serial no</t>
   </si>
   <si>
+    <t>Purchase Sponsor</t>
+  </si>
+  <si>
     <t>Photo image file</t>
   </si>
   <si>
@@ -1168,6 +1178,9 @@
     <t>2000B</t>
   </si>
   <si>
+    <t>H3A</t>
+  </si>
+  <si>
     <t>Manual LABEQG-001</t>
   </si>
   <si>
@@ -1192,6 +1205,9 @@
     <t>PFT2000</t>
   </si>
   <si>
+    <t>SU</t>
+  </si>
+  <si>
     <t>S3</t>
   </si>
   <si>
@@ -1270,6 +1286,9 @@
     <t>Liquids Conductivity Meter</t>
   </si>
   <si>
+    <t>+ TEC 3000 monitor</t>
+  </si>
+  <si>
     <t>Manual LABEQG-005</t>
   </si>
   <si>
@@ -1288,6 +1307,9 @@
     <t>TSQ 7000</t>
   </si>
   <si>
+    <t>NHLS</t>
+  </si>
+  <si>
     <t>Manual LABEQG-006</t>
   </si>
   <si>
@@ -1499,6 +1521,87 @@
   </si>
   <si>
     <t>SANCal 11/8773</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>validfrom</t>
+  </si>
+  <si>
+    <t>validto</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>preparedby</t>
+  </si>
+  <si>
+    <t>approvedby</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Instrument Certifications</t>
+  </si>
+  <si>
+    <t>Certification code</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Valid from</t>
+  </si>
+  <si>
+    <t>Valid to</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
+  </si>
+  <si>
+    <t>Approved by</t>
+  </si>
+  <si>
+    <t>Report upload</t>
+  </si>
+  <si>
+    <t>SANCal</t>
+  </si>
+  <si>
+    <t>Lab Manager 2</t>
+  </si>
+  <si>
+    <t>LABEQG-040</t>
+  </si>
+  <si>
+    <t>LABEQG-042</t>
+  </si>
+  <si>
+    <t>LABEQG-051</t>
+  </si>
+  <si>
+    <t>SANCal 13/6011</t>
+  </si>
+  <si>
+    <t>LABEQG-052</t>
+  </si>
+  <si>
+    <t>LABEQG-053</t>
   </si>
   <si>
     <t>Product Categories</t>
@@ -2639,7 +2742,7 @@
     <numFmt numFmtId="169" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2789,21 +2892,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2811,7 +2901,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2833,7 +2923,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2849,6 +2939,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
         <bgColor rgb="FFE6E6FF"/>
       </patternFill>
     </fill>
@@ -2900,7 +2996,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3077,10 +3173,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3093,11 +3185,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3105,7 +3197,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3121,15 +3213,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3137,7 +3229,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3181,19 +3273,63 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3209,7 +3345,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3221,7 +3357,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3269,7 +3405,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3303,7 +3439,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFE6E6E6"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -3510,20 +3646,20 @@
         <v>306</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -3591,7 +3727,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>297</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -3609,10 +3745,10 @@
       <c r="F4" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="45" t="s">
         <v>318</v>
       </c>
       <c r="J4" s="40" t="s">
@@ -3632,7 +3768,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>292</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -3821,10 +3957,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3836,20 +3972,23 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2550607287449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.0121457489879"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.1255060728745"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.6194331983806"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1052631578947"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1943319838057"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.582995951417"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.3400809716599"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.2186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3238866396761"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.1255060728745"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1255060728745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.6194331983806"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.0688259109312"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.582995951417"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.3400809716599"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.8663967611336"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,714 +4037,762 @@
       <c r="O1" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="41" t="s">
         <v>350</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="47" t="s">
         <v>352</v>
       </c>
       <c r="S1" s="41" t="s">
         <v>353</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="U1" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="V1" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="V1" s="41" t="s">
-        <v>355</v>
+      <c r="W1" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>356</v>
+      <c r="A2" s="48" t="s">
+        <v>358</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="F3" s="55" t="s">
+      <c r="D3" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" s="54" t="s">
         <v>343</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>363</v>
-      </c>
-      <c r="L3" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="K3" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="M3" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="N3" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="P3" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="57" t="s">
         <v>370</v>
       </c>
+      <c r="R3" s="57" t="s">
+        <v>371</v>
+      </c>
       <c r="S3" s="54" t="s">
-        <v>371</v>
-      </c>
-      <c r="T3" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="U3" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="T3" s="53" t="s">
         <v>373</v>
       </c>
+      <c r="U3" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="W3" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="X3" s="55" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>375</v>
+      <c r="A4" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>378</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="63" t="n">
+      <c r="G4" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="62" t="n">
         <v>30308</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="64" t="n">
+      <c r="L4" s="59"/>
+      <c r="M4" s="63" t="n">
         <v>41086</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>379</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q4" s="63" t="s">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q4" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="65"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="62" t="n">
+        <v>39515</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="63" t="n">
+        <v>41086</v>
+      </c>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q5" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="R5" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="S5" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="65"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6" s="62" t="n">
+        <v>58227</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="66"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="K6" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="63" t="n">
+        <v>41086</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="T6" s="66" t="n">
+        <v>42139</v>
+      </c>
+      <c r="U6" s="67"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="65"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" s="62" t="n">
+        <v>79514</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="63" t="n">
+        <v>41086</v>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="S7" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="65"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="62" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H8" s="62" t="n">
+        <v>35453</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="63" t="n">
+        <v>41653</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="R8" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="H5" s="63" t="n">
-        <v>39515</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="64" t="n">
-        <v>41086</v>
-      </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q5" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="66"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="H6" s="63" t="n">
-        <v>58227</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="64" t="n">
-        <v>41086</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="O6" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q6" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="R6" s="67" t="n">
-        <v>42139</v>
-      </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="66"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="H7" s="63" t="n">
-        <v>79514</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="64" t="n">
-        <v>41086</v>
-      </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="O7" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="P7" s="65" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q7" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="66"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="63" t="n">
-        <v>1010</v>
-      </c>
-      <c r="H8" s="63" t="n">
-        <v>35453</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="64" t="n">
-        <v>41653</v>
-      </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="O8" s="65" t="s">
-        <v>413</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q8" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="68" t="n">
+      <c r="S8" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="67" t="n">
         <v>42103</v>
       </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="66"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="65"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>416</v>
+      <c r="A9" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>422</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="G9" s="63" t="s">
-        <v>417</v>
-      </c>
-      <c r="H9" s="63" t="n">
+      <c r="G9" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="H9" s="62" t="n">
         <v>43516</v>
       </c>
-      <c r="I9" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="64" t="n">
+      <c r="I9" s="62"/>
+      <c r="J9" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="63" t="n">
         <v>41014</v>
       </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="65" t="s">
-        <v>418</v>
-      </c>
-      <c r="O9" s="65" t="s">
-        <v>419</v>
-      </c>
-      <c r="P9" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q9" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="66"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="65"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
-        <v>421</v>
+      <c r="A10" s="59" t="s">
+        <v>428</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>80586</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="64" t="n">
+      <c r="L10" s="59"/>
+      <c r="M10" s="63" t="n">
         <v>41653</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="O10" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="P10" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="18"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
-        <v>428</v>
+      <c r="A11" s="59" t="s">
+        <v>435</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>32128</v>
       </c>
-      <c r="I11" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="64" t="n">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="63" t="n">
         <v>41086</v>
       </c>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="18"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
-        <v>434</v>
+      <c r="A12" s="59" t="s">
+        <v>441</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>275</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D12" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>66153</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="65" t="s">
-        <v>437</v>
-      </c>
-      <c r="O12" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="18"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
-        <v>440</v>
+      <c r="A13" s="59" t="s">
+        <v>447</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="D13" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>63453</v>
       </c>
-      <c r="I13" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="64" t="n">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="63" t="n">
         <v>41653</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="65" t="s">
-        <v>443</v>
-      </c>
-      <c r="O13" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="P13" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="68" t="n">
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="T13" s="40"/>
+      <c r="U13" s="67" t="n">
         <v>41774</v>
       </c>
-      <c r="T13" s="64"/>
-      <c r="U13" s="18"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
-        <v>446</v>
+      <c r="A14" s="59" t="s">
+        <v>453</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>27204</v>
       </c>
-      <c r="I14" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="64" t="n">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="L14" s="59"/>
+      <c r="M14" s="63" t="n">
         <v>41086</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="O14" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="18"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q14" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
-        <v>451</v>
+      <c r="A15" s="59" t="s">
+        <v>458</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G15" s="21" t="n">
@@ -4614,19 +4801,23 @@
       <c r="H15" s="21" t="n">
         <v>37860</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="68" t="n">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="67" t="n">
         <v>42140</v>
       </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="18"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
-        <v>454</v>
+      <c r="A16" s="59" t="s">
+        <v>461</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>279</v>
@@ -4634,315 +4825,341 @@
       <c r="C16" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>27605</v>
       </c>
-      <c r="Q16" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="18"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="s">
-        <v>457</v>
+      <c r="A17" s="59" t="s">
+        <v>464</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>77142</v>
       </c>
-      <c r="Q17" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="18"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="S17" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
-        <v>461</v>
+      <c r="A18" s="59" t="s">
+        <v>468</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H18" s="21" t="n">
         <v>75888</v>
       </c>
-      <c r="Q18" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="R18" s="69"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="69"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="S18" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="T18" s="68"/>
       <c r="U18" s="18"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60" t="s">
-        <v>466</v>
+      <c r="A19" s="59" t="s">
+        <v>473</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D19" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>41163</v>
       </c>
-      <c r="Q19" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="R19" s="69"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="69"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="T19" s="68"/>
       <c r="U19" s="18"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="60" t="s">
-        <v>471</v>
+      <c r="A20" s="59" t="s">
+        <v>478</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="D20" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="D20" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>32921</v>
       </c>
-      <c r="Q20" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="R20" s="69"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="69"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="T20" s="68"/>
       <c r="U20" s="18"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="60" t="s">
-        <v>476</v>
+      <c r="A21" s="59" t="s">
+        <v>483</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="D21" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H21" s="21" t="n">
         <v>32128</v>
       </c>
-      <c r="Q21" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="R21" s="69"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="69"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="S21" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="T21" s="68"/>
       <c r="U21" s="18"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="60" t="s">
-        <v>480</v>
+      <c r="A22" s="59" t="s">
+        <v>487</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="D22" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="D22" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H22" s="21" t="n">
         <v>66153</v>
       </c>
-      <c r="Q22" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="R22" s="69"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="69"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="S22" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="T22" s="68"/>
       <c r="U22" s="18"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="60" t="s">
-        <v>483</v>
+      <c r="A23" s="59" t="s">
+        <v>490</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="D23" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>63453</v>
       </c>
-      <c r="Q23" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="69"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="S23" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="T23" s="68"/>
       <c r="U23" s="18"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="60" t="s">
-        <v>485</v>
+      <c r="A24" s="59" t="s">
+        <v>492</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>336</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="D24" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D24" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="61" t="s">
         <v>292</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>336</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="R24" s="69"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="T24" s="68"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="18" t="s">
         <v>336</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T16:T24 R18:R24" type="date">
+    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V16:V24 T18:T24" type="date">
       <formula1>2012/1/1</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4" type="list">
-      <formula1>#REF!!$A$4:$A$200</formula1>
+      <formula1>#ref!!$A$4:$A$200</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4 D5:D24" type="list">
-      <formula1>#REF!!$A$5:$A$200</formula1>
+      <formula1>#ref!!$A$5:$A$200</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Manufacturer" operator="equal" prompt="Select a Manufacturer from the list. Maintain the list on the 'Manufacturers' sheet" promptTitle="Select a Manufacturer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E24" type="list">
-      <formula1>#REF!!$A$5:$A$200</formula1>
+      <formula1>#ref!!$A$5:$A$200</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Supplier" operator="equal" prompt="Select a Supplier from the list. Maintain the list on the 'Suppliers' sheet" promptTitle="Select a Supplier" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F24" type="list">
-      <formula1>#REF!!$A$4:$A$200</formula1>
+      <formula1>#ref!!$A$4:$A$200</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4960,6 +5177,774 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3238866396761"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2186234817814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6963562753036"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.0121457489879"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2631578947368"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1417004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.8663967611336"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="39" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="72" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" s="78" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>513</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="79" t="n">
+        <v>41642</v>
+      </c>
+      <c r="E4" s="79" t="n">
+        <v>42372</v>
+      </c>
+      <c r="F4" s="79" t="n">
+        <v>43081</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="79" t="n">
+        <v>41643</v>
+      </c>
+      <c r="E5" s="79" t="n">
+        <v>42373</v>
+      </c>
+      <c r="F5" s="79" t="n">
+        <v>43082</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="79" t="n">
+        <v>41644</v>
+      </c>
+      <c r="E6" s="79" t="n">
+        <v>42374</v>
+      </c>
+      <c r="F6" s="79" t="n">
+        <v>43083</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="79" t="n">
+        <v>41645</v>
+      </c>
+      <c r="E7" s="79" t="n">
+        <v>42375</v>
+      </c>
+      <c r="F7" s="79" t="n">
+        <v>43084</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="79" t="n">
+        <v>41646</v>
+      </c>
+      <c r="E8" s="79" t="n">
+        <v>42376</v>
+      </c>
+      <c r="F8" s="79" t="n">
+        <v>43085</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="79" t="n">
+        <v>41647</v>
+      </c>
+      <c r="E9" s="79" t="n">
+        <v>42377</v>
+      </c>
+      <c r="F9" s="79" t="n">
+        <v>43086</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="79" t="n">
+        <v>41648</v>
+      </c>
+      <c r="E10" s="79" t="n">
+        <v>42378</v>
+      </c>
+      <c r="F10" s="79" t="n">
+        <v>43087</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="79" t="n">
+        <v>41649</v>
+      </c>
+      <c r="E11" s="79" t="n">
+        <v>42379</v>
+      </c>
+      <c r="F11" s="79" t="n">
+        <v>43088</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="79" t="n">
+        <v>41650</v>
+      </c>
+      <c r="E12" s="79" t="n">
+        <v>42380</v>
+      </c>
+      <c r="F12" s="79" t="n">
+        <v>43089</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D13" s="79" t="n">
+        <v>41651</v>
+      </c>
+      <c r="E13" s="79" t="n">
+        <v>42381</v>
+      </c>
+      <c r="F13" s="79" t="n">
+        <v>43090</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" s="79" t="n">
+        <v>41652</v>
+      </c>
+      <c r="E14" s="79" t="n">
+        <v>42382</v>
+      </c>
+      <c r="F14" s="79" t="n">
+        <v>43091</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="79" t="n">
+        <v>41653</v>
+      </c>
+      <c r="E15" s="79" t="n">
+        <v>42383</v>
+      </c>
+      <c r="F15" s="79" t="n">
+        <v>43092</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D16" s="79" t="n">
+        <v>41654</v>
+      </c>
+      <c r="E16" s="79" t="n">
+        <v>42384</v>
+      </c>
+      <c r="F16" s="79" t="n">
+        <v>43093</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="79" t="n">
+        <v>41655</v>
+      </c>
+      <c r="E17" s="79" t="n">
+        <v>42385</v>
+      </c>
+      <c r="F17" s="79" t="n">
+        <v>43094</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" s="79" t="n">
+        <v>41656</v>
+      </c>
+      <c r="E18" s="79" t="n">
+        <v>42386</v>
+      </c>
+      <c r="F18" s="79" t="n">
+        <v>43095</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="79" t="n">
+        <v>41657</v>
+      </c>
+      <c r="E19" s="79" t="n">
+        <v>42387</v>
+      </c>
+      <c r="F19" s="79" t="n">
+        <v>43096</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="79" t="n">
+        <v>41658</v>
+      </c>
+      <c r="E20" s="79" t="n">
+        <v>42388</v>
+      </c>
+      <c r="F20" s="79" t="n">
+        <v>43097</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="79" t="n">
+        <v>41659</v>
+      </c>
+      <c r="E21" s="79" t="n">
+        <v>42389</v>
+      </c>
+      <c r="F21" s="79" t="n">
+        <v>43098</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D22" s="79" t="n">
+        <v>41660</v>
+      </c>
+      <c r="E22" s="79" t="n">
+        <v>42390</v>
+      </c>
+      <c r="F22" s="79" t="n">
+        <v>43099</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="79" t="n">
+        <v>41661</v>
+      </c>
+      <c r="E23" s="79" t="n">
+        <v>42391</v>
+      </c>
+      <c r="F23" s="79" t="n">
+        <v>43100</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="79" t="n">
+        <v>41662</v>
+      </c>
+      <c r="E24" s="79" t="n">
+        <v>42392</v>
+      </c>
+      <c r="F24" s="79" t="n">
+        <v>42736</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="79" t="n">
+        <v>41663</v>
+      </c>
+      <c r="E25" s="79" t="n">
+        <v>42393</v>
+      </c>
+      <c r="F25" s="79" t="n">
+        <v>42737</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C25" type="list">
+      <formula1>#REF!!$A$1:$A$24</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:F25" type="date">
+      <formula1>40909</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4994,7 +5979,7 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -5014,68 +5999,68 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5089,7 +6074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5124,484 +6109,484 @@
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="73" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+    <row r="1" s="83" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="51" t="s">
+      <c r="C1" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>510</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="I1" s="57" t="s">
+      <c r="E1" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>514</v>
-      </c>
-      <c r="N1" s="70" t="s">
-        <v>515</v>
+      <c r="L1" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="N1" s="80" t="s">
+        <v>549</v>
       </c>
       <c r="O1" s="0"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="72"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="82"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="7"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="53"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="52"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>519</v>
-      </c>
-      <c r="I3" s="57" t="s">
+      <c r="E3" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="54" t="s">
-        <v>513</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>520</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="L3" s="53" t="s">
+        <v>547</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
-        <v>522</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>523</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="A4" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="s">
-        <v>524</v>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62" t="s">
+        <v>558</v>
       </c>
       <c r="G4" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="60" t="n">
+      <c r="H4" s="59" t="n">
         <v>50</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="n">
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K4" s="65" t="n">
+      <c r="K4" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="65"/>
-      <c r="P4" s="63"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="64"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
-      <c r="S4" s="64"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="18"/>
-      <c r="U4" s="66"/>
+      <c r="U4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>525</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="A5" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63" t="s">
-        <v>526</v>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62" t="s">
+        <v>560</v>
       </c>
       <c r="G5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="60" t="n">
+      <c r="H5" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65" t="n">
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K5" s="65" t="n">
+      <c r="K5" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="65"/>
-      <c r="P5" s="63"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="64"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
-      <c r="S5" s="64"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="18"/>
-      <c r="U5" s="66"/>
+      <c r="U5" s="65"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>527</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63" t="s">
-        <v>528</v>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
+        <v>562</v>
       </c>
       <c r="G6" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="60" t="n">
+      <c r="H6" s="59" t="n">
         <v>50</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65" t="n">
+      <c r="I6" s="63"/>
+      <c r="J6" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K6" s="65" t="n">
+      <c r="K6" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="65"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="64"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="64"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="63"/>
       <c r="T6" s="18"/>
-      <c r="U6" s="66"/>
+      <c r="U6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="A7" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
-        <v>530</v>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
+        <v>564</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="60" t="n">
+      <c r="H7" s="59" t="n">
         <v>100</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65" t="n">
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K7" s="65" t="n">
+      <c r="K7" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="65"/>
-      <c r="P7" s="63"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="64"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
-      <c r="S7" s="64"/>
+      <c r="S7" s="63"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="65"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
-        <v>531</v>
+      <c r="A8" s="60" t="s">
+        <v>565</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="61" t="s">
+        <v>536</v>
+      </c>
+      <c r="D8" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63" t="s">
-        <v>532</v>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62" t="s">
+        <v>566</v>
       </c>
       <c r="G8" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="60" t="n">
+      <c r="H8" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65" t="n">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K8" s="65" t="n">
+      <c r="K8" s="64" t="n">
         <v>53.11</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="65"/>
-      <c r="P8" s="63"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="64"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="40"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="64"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="18"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="65"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>533</v>
+      <c r="A9" s="60" t="s">
+        <v>567</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="61" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="n">
+      <c r="E9" s="62"/>
+      <c r="F9" s="62" t="n">
         <v>2323</v>
       </c>
       <c r="G9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="60" t="n">
+      <c r="H9" s="59" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65" t="n">
+      <c r="I9" s="63"/>
+      <c r="J9" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K9" s="65" t="n">
+      <c r="K9" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="65"/>
-      <c r="P9" s="63"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="64"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
-      <c r="S9" s="64"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>301</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="G10" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="60" t="n">
+      <c r="H10" s="59" t="n">
         <v>123</v>
       </c>
-      <c r="I10" s="64" t="s">
-        <v>537</v>
-      </c>
-      <c r="J10" s="65" t="n">
+      <c r="I10" s="63" t="s">
+        <v>571</v>
+      </c>
+      <c r="J10" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="K10" s="65" t="n">
+      <c r="K10" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="74" t="s">
-        <v>538</v>
-      </c>
-      <c r="N10" s="65" t="s">
-        <v>539</v>
+      <c r="L10" s="59"/>
+      <c r="M10" s="84" t="s">
+        <v>572</v>
+      </c>
+      <c r="N10" s="64" t="s">
+        <v>573</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
-      <c r="S10" s="64"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>301</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="G11" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="60" t="n">
+      <c r="H11" s="59" t="n">
         <v>120</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65" t="n">
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L11" s="75" t="s">
-        <v>543</v>
-      </c>
-      <c r="M11" s="74" t="s">
-        <v>544</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>539</v>
+      <c r="L11" s="85" t="s">
+        <v>577</v>
+      </c>
+      <c r="M11" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="N11" s="64" t="s">
+        <v>573</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
-      <c r="S11" s="64"/>
+      <c r="S11" s="63"/>
       <c r="T11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="C12" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>301</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="G12" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="60" t="n">
+      <c r="H12" s="59" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65" t="n">
+      <c r="I12" s="59"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64" t="n">
         <v>12.11</v>
       </c>
-      <c r="L12" s="75" t="s">
-        <v>548</v>
-      </c>
-      <c r="M12" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="N12" s="65"/>
+      <c r="L12" s="85" t="s">
+        <v>582</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="N12" s="64"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
-      <c r="S12" s="64"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="18"/>
     </row>
   </sheetData>
@@ -5645,7 +6630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5661,7 +6646,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6315789473684"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7165991902834"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="76" width="12.2955465587045"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="86" width="12.2955465587045"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9473684210526"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5263157894737"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3117408906883"/>
@@ -5676,302 +6661,302 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>551</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="A1" s="87" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>554</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>555</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>556</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>557</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>558</v>
-      </c>
-      <c r="L1" s="77" t="s">
-        <v>559</v>
-      </c>
-      <c r="M1" s="77" t="s">
-        <v>560</v>
-      </c>
-      <c r="N1" s="77" t="s">
-        <v>561</v>
-      </c>
-      <c r="O1" s="77" t="s">
-        <v>562</v>
+      <c r="D1" s="87" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>590</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>591</v>
+      </c>
+      <c r="K1" s="87" t="s">
+        <v>592</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>593</v>
+      </c>
+      <c r="M1" s="87" t="s">
+        <v>594</v>
+      </c>
+      <c r="N1" s="87" t="s">
+        <v>595</v>
+      </c>
+      <c r="O1" s="87" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="D2" s="0"/>
     </row>
-    <row r="3" s="78" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="78" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>564</v>
-      </c>
-      <c r="C3" s="78" t="s">
+    <row r="3" s="88" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="78" t="s">
-        <v>565</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>512</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>566</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>567</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>568</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>569</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>570</v>
-      </c>
-      <c r="L3" s="78" t="s">
-        <v>571</v>
-      </c>
-      <c r="M3" s="78" t="s">
-        <v>572</v>
-      </c>
-      <c r="N3" s="78" t="s">
-        <v>573</v>
-      </c>
-      <c r="O3" s="78" t="s">
-        <v>574</v>
+      <c r="D3" s="88" t="s">
+        <v>599</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>601</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>602</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>603</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>605</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>606</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
-        <v>522</v>
+      <c r="A4" s="60" t="s">
+        <v>556</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>577</v>
+        <v>610</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>611</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F4" s="60" t="n">
+        <v>612</v>
+      </c>
+      <c r="F4" s="59" t="n">
         <v>50</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>579</v>
-      </c>
-      <c r="K4" s="79" t="n">
+      <c r="J4" s="89" t="s">
+        <v>613</v>
+      </c>
+      <c r="K4" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>525</v>
+      <c r="A5" s="60" t="s">
+        <v>559</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>581</v>
+        <v>614</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>615</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="60" t="n">
+      <c r="F5" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>582</v>
-      </c>
-      <c r="K5" s="79" t="n">
+      <c r="J5" s="89" t="s">
+        <v>616</v>
+      </c>
+      <c r="K5" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
-        <v>527</v>
+      <c r="A6" s="60" t="s">
+        <v>561</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>584</v>
+        <v>617</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>618</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="60" t="n">
+      <c r="F6" s="59" t="n">
         <v>50</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79" t="n">
+      <c r="J6" s="89"/>
+      <c r="K6" s="89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>529</v>
+      <c r="A7" s="60" t="s">
+        <v>563</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>586</v>
+        <v>619</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>620</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F7" s="60" t="n">
+        <v>612</v>
+      </c>
+      <c r="F7" s="59" t="n">
         <v>100</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79" t="n">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
-        <v>531</v>
+      <c r="A8" s="60" t="s">
+        <v>565</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="D8" s="76" t="n">
+        <v>621</v>
+      </c>
+      <c r="D8" s="86" t="n">
         <v>301746</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="F8" s="60" t="n">
+        <v>622</v>
+      </c>
+      <c r="F8" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="79" t="s">
-        <v>589</v>
-      </c>
-      <c r="K8" s="79" t="n">
+      <c r="J8" s="89" t="s">
+        <v>623</v>
+      </c>
+      <c r="K8" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>533</v>
+      <c r="A9" s="60" t="s">
+        <v>567</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="D9" s="76" t="n">
+        <v>624</v>
+      </c>
+      <c r="D9" s="86" t="n">
         <v>301747</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F9" s="60" t="n">
+        <v>612</v>
+      </c>
+      <c r="F9" s="59" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79" t="n">
+      <c r="J9" s="89"/>
+      <c r="K9" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>592</v>
+        <v>625</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>626</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F10" s="60" t="n">
+        <v>612</v>
+      </c>
+      <c r="F10" s="59" t="n">
         <v>123</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79" t="n">
+      <c r="J10" s="89"/>
+      <c r="K10" s="89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>594</v>
+        <v>627</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>628</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="F11" s="60" t="n">
+        <v>622</v>
+      </c>
+      <c r="F11" s="59" t="n">
         <v>120</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79" t="n">
+      <c r="J11" s="89"/>
+      <c r="K11" s="89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="D12" s="76" t="n">
+        <v>629</v>
+      </c>
+      <c r="D12" s="86" t="n">
         <v>368815</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="F12" s="60" t="n">
+        <v>622</v>
+      </c>
+      <c r="F12" s="59" t="n">
         <v>10</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>596</v>
-      </c>
-      <c r="K12" s="79" t="n">
+      <c r="J12" s="89" t="s">
+        <v>630</v>
+      </c>
+      <c r="K12" s="89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5992,7 +6977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6014,54 +6999,54 @@
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="80" t="s">
-        <v>604</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>490</v>
+      <c r="B4" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>524</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>505</v>
+      <c r="B5" s="90" t="s">
+        <v>639</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>539</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3</v>
@@ -6078,7 +7063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6100,91 +7085,91 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="78" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>598</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>606</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>607</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>600</v>
+    <row r="1" s="88" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="88" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>634</v>
       </c>
       <c r="F1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="42" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="F2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>603</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>608</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="AMJ3" s="76"/>
+    <row r="3" s="92" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="92" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>643</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>546</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="AMJ3" s="86"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80" t="s">
-        <v>604</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>522</v>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>556</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="80" t="s">
-        <v>604</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>525</v>
+      <c r="B5" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>559</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>527</v>
+      <c r="B6" s="90" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>561</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>529</v>
+      <c r="B7" s="90" t="s">
+        <v>639</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>563</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -6201,7 +7186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6225,1240 +7210,1240 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37651821862348"/>
   </cols>
   <sheetData>
-    <row r="1" s="54" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
+    <row r="1" s="53" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="84" t="s">
-        <v>610</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>611</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>612</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>613</v>
-      </c>
-      <c r="G1" s="85" t="s">
-        <v>614</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>615</v>
-      </c>
-      <c r="I1" s="84" t="s">
-        <v>616</v>
-      </c>
-      <c r="J1" s="84" t="s">
-        <v>617</v>
-      </c>
-      <c r="K1" s="84" t="s">
-        <v>618</v>
-      </c>
-      <c r="L1" s="84"/>
+      <c r="C1" s="94" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>649</v>
+      </c>
+      <c r="I1" s="94" t="s">
+        <v>650</v>
+      </c>
+      <c r="J1" s="94" t="s">
+        <v>651</v>
+      </c>
+      <c r="K1" s="94" t="s">
+        <v>652</v>
+      </c>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>621</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>622</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>623</v>
-      </c>
-      <c r="G2" s="86" t="n">
+      <c r="C2" s="96" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>656</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>657</v>
+      </c>
+      <c r="G2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="86" t="s">
-        <v>624</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>625</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>626</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>627</v>
+      <c r="H2" s="96" t="s">
+        <v>658</v>
+      </c>
+      <c r="I2" s="96" t="s">
+        <v>659</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>660</v>
+      </c>
+      <c r="K2" s="96" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>629</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>630</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>631</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>632</v>
-      </c>
-      <c r="G3" s="86" t="n">
+      <c r="C3" s="96" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>666</v>
+      </c>
+      <c r="G3" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="86" t="s">
-        <v>633</v>
-      </c>
-      <c r="I3" s="86" t="s">
+      <c r="H3" s="96" t="s">
+        <v>667</v>
+      </c>
+      <c r="I3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="K3" s="86" t="s">
-        <v>635</v>
+      <c r="J3" s="96" t="s">
+        <v>668</v>
+      </c>
+      <c r="K3" s="96" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>638</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>639</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="86" t="s">
-        <v>640</v>
+      <c r="C4" s="96" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>672</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>673</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="96" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="G6" s="87"/>
+        <v>676</v>
+      </c>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="97"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="G8" s="87"/>
+        <v>678</v>
+      </c>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="87"/>
+      <c r="G9" s="97"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="87"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="87"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="87"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="87"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="87"/>
+      <c r="G14" s="97"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="87"/>
+      <c r="G15" s="97"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="87"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="87"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="87"/>
+      <c r="G18" s="97"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="87"/>
+      <c r="G19" s="97"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-    </row>
-    <row r="21" s="91" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>646</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>648</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>649</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>650</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>652</v>
-      </c>
-      <c r="I21" s="54" t="s">
-        <v>653</v>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+    </row>
+    <row r="21" s="101" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="s">
+        <v>679</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>680</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>683</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="92" t="s">
-        <v>654</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>655</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>656</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>657</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>658</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>659</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>660</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>660</v>
-      </c>
-      <c r="I22" s="86" t="s">
-        <v>661</v>
+      <c r="A22" s="102" t="s">
+        <v>688</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>689</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>691</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>692</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>693</v>
+      </c>
+      <c r="G22" s="96" t="s">
+        <v>694</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>694</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="86" t="s">
-        <v>662</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>663</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>664</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>665</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>666</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>667</v>
-      </c>
-      <c r="H23" s="86" t="s">
-        <v>667</v>
-      </c>
-      <c r="I23" s="86" t="s">
-        <v>668</v>
+      <c r="B23" s="96" t="s">
+        <v>696</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>697</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>698</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>699</v>
+      </c>
+      <c r="F23" s="96" t="s">
+        <v>700</v>
+      </c>
+      <c r="G23" s="96" t="s">
+        <v>701</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>701</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="86" t="s">
-        <v>669</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>670</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>671</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>672</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>673</v>
-      </c>
-      <c r="H24" s="86" t="s">
-        <v>673</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>674</v>
+      <c r="B24" s="96" t="s">
+        <v>703</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>704</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>705</v>
+      </c>
+      <c r="F24" s="96" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" s="96" t="s">
+        <v>707</v>
+      </c>
+      <c r="H24" s="96" t="s">
+        <v>707</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="86" t="s">
-        <v>675</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>676</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>677</v>
-      </c>
-      <c r="H25" s="86" t="s">
-        <v>678</v>
-      </c>
-      <c r="I25" s="86" t="s">
-        <v>679</v>
+      <c r="B25" s="96" t="s">
+        <v>709</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>710</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>711</v>
+      </c>
+      <c r="H25" s="96" t="s">
+        <v>712</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="86" t="s">
-        <v>680</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>681</v>
-      </c>
-      <c r="H26" s="86" t="s">
-        <v>682</v>
+      <c r="B26" s="96" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>715</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="86" t="s">
-        <v>683</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>684</v>
+      <c r="B27" s="96" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="86" t="s">
-        <v>685</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>686</v>
+      <c r="B28" s="96" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="86" t="s">
-        <v>687</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>688</v>
+      <c r="B29" s="96" t="s">
+        <v>721</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="86" t="s">
-        <v>689</v>
-      </c>
-      <c r="C30" s="86" t="s">
-        <v>690</v>
+      <c r="B30" s="96" t="s">
+        <v>723</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="86" t="s">
-        <v>691</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>692</v>
+      <c r="B31" s="96" t="s">
+        <v>725</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="86" t="s">
-        <v>693</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>694</v>
+      <c r="B32" s="96" t="s">
+        <v>727</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="86" t="s">
-        <v>695</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>696</v>
+      <c r="B33" s="96" t="s">
+        <v>729</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="86" t="s">
-        <v>697</v>
+      <c r="B34" s="96" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="86" t="s">
-        <v>698</v>
+      <c r="B35" s="96" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="86" t="s">
-        <v>699</v>
+      <c r="B36" s="96" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="86" t="s">
-        <v>700</v>
+      <c r="B37" s="96" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="86" t="s">
-        <v>701</v>
+      <c r="B38" s="96" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="86" t="s">
-        <v>702</v>
+      <c r="B39" s="96" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="86" t="s">
-        <v>703</v>
+      <c r="B40" s="96" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="86" t="s">
-        <v>704</v>
+      <c r="B41" s="96" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="86" t="s">
-        <v>705</v>
+      <c r="B42" s="96" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="86" t="s">
-        <v>706</v>
+      <c r="B43" s="96" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="86" t="s">
-        <v>707</v>
+      <c r="B44" s="96" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="86" t="s">
-        <v>708</v>
+      <c r="B45" s="96" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="86" t="s">
-        <v>709</v>
+      <c r="B46" s="96" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="86" t="s">
-        <v>710</v>
+      <c r="B47" s="96" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="86" t="s">
-        <v>711</v>
+      <c r="B48" s="96" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="86" t="s">
-        <v>712</v>
+      <c r="B49" s="96" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="86" t="s">
-        <v>713</v>
+      <c r="B50" s="96" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="86" t="s">
-        <v>714</v>
+      <c r="B51" s="96" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="86" t="s">
-        <v>715</v>
+      <c r="B52" s="96" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="86" t="s">
-        <v>716</v>
+      <c r="B53" s="96" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="86" t="s">
-        <v>717</v>
+      <c r="B54" s="96" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="86" t="s">
-        <v>718</v>
+      <c r="B55" s="96" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="86" t="s">
-        <v>719</v>
+      <c r="B56" s="96" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="86" t="s">
-        <v>720</v>
+      <c r="B57" s="96" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="86" t="s">
-        <v>721</v>
+      <c r="B58" s="96" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="86" t="s">
-        <v>722</v>
+      <c r="B59" s="96" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="86" t="s">
-        <v>723</v>
+      <c r="B60" s="96" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="86" t="s">
-        <v>724</v>
+      <c r="B61" s="96" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="86" t="s">
-        <v>725</v>
+      <c r="B62" s="96" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="86" t="s">
-        <v>726</v>
+      <c r="B63" s="96" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="86" t="s">
-        <v>727</v>
+      <c r="B64" s="96" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="86" t="s">
-        <v>728</v>
+      <c r="B65" s="96" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="86" t="s">
-        <v>729</v>
+      <c r="B66" s="96" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="86" t="s">
-        <v>730</v>
+      <c r="B67" s="96" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="86" t="s">
-        <v>731</v>
+      <c r="B68" s="96" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="86" t="s">
-        <v>732</v>
+      <c r="B69" s="96" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="86" t="s">
-        <v>733</v>
+      <c r="B70" s="96" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="86" t="s">
-        <v>734</v>
+      <c r="B71" s="96" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="86" t="s">
-        <v>735</v>
+      <c r="B72" s="96" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="86" t="s">
-        <v>736</v>
+      <c r="B73" s="96" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="86" t="s">
-        <v>737</v>
+      <c r="B74" s="96" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="86" t="s">
-        <v>738</v>
+      <c r="B75" s="96" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="86" t="s">
-        <v>739</v>
+      <c r="B76" s="96" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="86" t="s">
-        <v>740</v>
+      <c r="B77" s="96" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="86" t="s">
-        <v>741</v>
+      <c r="B78" s="96" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="86" t="s">
-        <v>742</v>
+      <c r="B79" s="96" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="86" t="s">
-        <v>743</v>
+      <c r="B80" s="96" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="86" t="s">
-        <v>744</v>
+      <c r="B81" s="96" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="86" t="s">
-        <v>745</v>
+      <c r="B82" s="96" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="86" t="s">
-        <v>746</v>
+      <c r="B83" s="96" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="86" t="s">
-        <v>747</v>
+      <c r="B84" s="96" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="86" t="s">
-        <v>748</v>
+      <c r="B85" s="96" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="86" t="s">
-        <v>749</v>
+      <c r="B86" s="96" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="86" t="s">
-        <v>750</v>
+      <c r="B87" s="96" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="86" t="s">
-        <v>751</v>
+      <c r="B88" s="96" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="86" t="s">
-        <v>752</v>
+      <c r="B89" s="96" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="86" t="s">
-        <v>753</v>
+      <c r="B90" s="96" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="86" t="s">
-        <v>754</v>
+      <c r="B91" s="96" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="86" t="s">
-        <v>755</v>
+      <c r="B92" s="96" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="86" t="s">
-        <v>756</v>
+      <c r="B93" s="96" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="86" t="s">
-        <v>757</v>
+      <c r="B94" s="96" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="86" t="s">
-        <v>758</v>
+      <c r="B95" s="96" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="86" t="s">
-        <v>759</v>
+      <c r="B96" s="96" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="86" t="s">
-        <v>760</v>
+      <c r="B97" s="96" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="86" t="s">
-        <v>761</v>
+      <c r="B98" s="96" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="86" t="s">
-        <v>762</v>
+      <c r="B99" s="96" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="86" t="s">
-        <v>763</v>
+      <c r="B100" s="96" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="86" t="s">
-        <v>764</v>
+      <c r="B101" s="96" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="86" t="s">
-        <v>765</v>
+      <c r="B102" s="96" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="86" t="s">
-        <v>766</v>
+      <c r="B103" s="96" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="86" t="s">
-        <v>767</v>
+      <c r="B104" s="96" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="86" t="s">
-        <v>768</v>
+      <c r="B105" s="96" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="86" t="s">
-        <v>769</v>
+      <c r="B106" s="96" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="86" t="s">
-        <v>770</v>
+      <c r="B107" s="96" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="86" t="s">
-        <v>771</v>
+      <c r="B108" s="96" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="86" t="s">
-        <v>772</v>
+      <c r="B109" s="96" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="86" t="s">
-        <v>773</v>
+      <c r="B110" s="96" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="86" t="s">
-        <v>774</v>
+      <c r="B111" s="96" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="86" t="s">
-        <v>775</v>
+      <c r="B112" s="96" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="86" t="s">
-        <v>776</v>
+      <c r="B113" s="96" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="86" t="s">
-        <v>777</v>
+      <c r="B114" s="96" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="86" t="s">
-        <v>778</v>
+      <c r="B115" s="96" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="86" t="s">
-        <v>779</v>
+      <c r="B116" s="96" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="86" t="s">
-        <v>780</v>
+      <c r="B117" s="96" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="86" t="s">
-        <v>781</v>
+      <c r="B118" s="96" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="86" t="s">
-        <v>782</v>
+      <c r="B119" s="96" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="86" t="s">
-        <v>783</v>
+      <c r="B120" s="96" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="86" t="s">
-        <v>784</v>
+      <c r="B121" s="96" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="86" t="s">
-        <v>785</v>
+      <c r="B122" s="96" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="86" t="s">
-        <v>786</v>
+      <c r="B123" s="96" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="86" t="s">
-        <v>787</v>
+      <c r="B124" s="96" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="86" t="s">
-        <v>788</v>
+      <c r="B125" s="96" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="86" t="s">
-        <v>789</v>
+      <c r="B126" s="96" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="86" t="s">
-        <v>790</v>
+      <c r="B127" s="96" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="86" t="s">
-        <v>791</v>
+      <c r="B128" s="96" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="86" t="s">
-        <v>792</v>
+      <c r="B129" s="96" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="86" t="s">
-        <v>793</v>
+      <c r="B130" s="96" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="86" t="s">
-        <v>794</v>
+      <c r="B131" s="96" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="86" t="s">
-        <v>795</v>
+      <c r="B132" s="96" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="86" t="s">
-        <v>796</v>
+      <c r="B133" s="96" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="86" t="s">
-        <v>797</v>
+      <c r="B134" s="96" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="86" t="s">
-        <v>798</v>
+      <c r="B135" s="96" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="86" t="s">
-        <v>799</v>
+      <c r="B136" s="96" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="86" t="s">
-        <v>800</v>
+      <c r="B137" s="96" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="86" t="s">
-        <v>801</v>
+      <c r="B138" s="96" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="86" t="s">
-        <v>802</v>
+      <c r="B139" s="96" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="86" t="s">
-        <v>803</v>
+      <c r="B140" s="96" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="86" t="s">
-        <v>804</v>
+      <c r="B141" s="96" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="86" t="s">
-        <v>805</v>
+      <c r="B142" s="96" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="86" t="s">
-        <v>806</v>
+      <c r="B143" s="96" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="86" t="s">
-        <v>807</v>
+      <c r="B144" s="96" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="86" t="s">
-        <v>808</v>
+      <c r="B145" s="96" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="86" t="s">
-        <v>809</v>
+      <c r="B146" s="96" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="86" t="s">
-        <v>810</v>
+      <c r="B147" s="96" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="86" t="s">
-        <v>811</v>
+      <c r="B148" s="96" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="86" t="s">
-        <v>812</v>
+      <c r="B149" s="96" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="86" t="s">
-        <v>813</v>
+      <c r="B150" s="96" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="86" t="s">
-        <v>814</v>
+      <c r="B151" s="96" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="86" t="s">
-        <v>815</v>
+      <c r="B152" s="96" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="86" t="s">
-        <v>816</v>
+      <c r="B153" s="96" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="86" t="s">
-        <v>817</v>
+      <c r="B154" s="96" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="86" t="s">
-        <v>818</v>
+      <c r="B155" s="96" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="86" t="s">
-        <v>819</v>
+      <c r="B156" s="96" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="86" t="s">
-        <v>820</v>
+      <c r="B157" s="96" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="86" t="s">
-        <v>821</v>
+      <c r="B158" s="96" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="86" t="s">
-        <v>822</v>
+      <c r="B159" s="96" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="86" t="s">
-        <v>823</v>
+      <c r="B160" s="96" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="86" t="s">
-        <v>824</v>
+      <c r="B161" s="96" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="86" t="s">
-        <v>825</v>
+      <c r="B162" s="96" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="86" t="s">
-        <v>826</v>
+      <c r="B163" s="96" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="86" t="s">
-        <v>827</v>
+      <c r="B164" s="96" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="86" t="s">
-        <v>828</v>
+      <c r="B165" s="96" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="86" t="s">
-        <v>829</v>
+      <c r="B166" s="96" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="86" t="s">
-        <v>830</v>
+      <c r="B167" s="96" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="86" t="s">
-        <v>831</v>
+      <c r="B168" s="96" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="86" t="s">
-        <v>832</v>
+      <c r="B169" s="96" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="86" t="s">
-        <v>833</v>
+      <c r="B170" s="96" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="86" t="s">
-        <v>834</v>
+      <c r="B171" s="96" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="86" t="s">
-        <v>835</v>
+      <c r="B172" s="96" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="86" t="s">
-        <v>836</v>
+      <c r="B173" s="96" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="86" t="s">
-        <v>837</v>
+      <c r="B174" s="96" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="86" t="s">
-        <v>838</v>
+      <c r="B175" s="96" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="86" t="s">
-        <v>839</v>
+      <c r="B176" s="96" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="86" t="s">
-        <v>840</v>
+      <c r="B177" s="96" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="86" t="s">
-        <v>841</v>
+      <c r="B178" s="96" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="86" t="s">
-        <v>842</v>
+      <c r="B179" s="96" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="86" t="s">
-        <v>843</v>
+      <c r="B180" s="96" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="86" t="s">
-        <v>844</v>
+      <c r="B181" s="96" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="86" t="s">
-        <v>845</v>
+      <c r="B182" s="96" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="86" t="s">
-        <v>846</v>
+      <c r="B183" s="96" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="86" t="s">
-        <v>847</v>
+      <c r="B184" s="96" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="86" t="s">
-        <v>848</v>
+      <c r="B185" s="96" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="86" t="s">
-        <v>849</v>
+      <c r="B186" s="96" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="86" t="s">
-        <v>850</v>
+      <c r="B187" s="96" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="86" t="s">
-        <v>851</v>
+      <c r="B188" s="96" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="86" t="s">
-        <v>852</v>
+      <c r="B189" s="96" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="86" t="s">
-        <v>853</v>
+      <c r="B190" s="96" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="86" t="s">
-        <v>854</v>
+      <c r="B191" s="96" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="86" t="s">
-        <v>855</v>
+      <c r="B192" s="96" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="86" t="s">
-        <v>856</v>
+      <c r="B193" s="96" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="86" t="s">
-        <v>857</v>
+      <c r="B194" s="96" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="86" t="s">
-        <v>858</v>
+      <c r="B195" s="96" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="86" t="s">
-        <v>859</v>
+      <c r="B196" s="96" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="86" t="s">
-        <v>860</v>
+      <c r="B197" s="96" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="86" t="s">
-        <v>861</v>
+      <c r="B198" s="96" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="86" t="s">
-        <v>862</v>
+      <c r="B199" s="96" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="86" t="s">
-        <v>863</v>
+      <c r="B200" s="96" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -9735,7 +10720,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -9775,7 +10760,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
       <c r="B4" s="39" t="s">
@@ -9786,7 +10771,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="40" t="s">
         <v>267</v>
       </c>
       <c r="B5" s="39" t="s">
@@ -9797,7 +10782,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="40" t="s">
         <v>269</v>
       </c>
       <c r="B6" s="39" t="s">
@@ -9806,7 +10791,7 @@
       <c r="C6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>270</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -9815,7 +10800,7 @@
       <c r="C7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>271</v>
       </c>
       <c r="B8" s="39" t="s">
@@ -10004,27 +10989,27 @@
         <v>286</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -10104,10 +11089,10 @@
       <c r="C4" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>295</v>
       </c>
       <c r="F4" s="40" t="s">

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="961" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="715" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="863">
   <si>
     <t>Instructions</t>
   </si>
@@ -1718,75 +1718,6 @@
     <t>3ss9515</t>
   </si>
   <si>
-    <t>Spray bottle</t>
-  </si>
-  <si>
-    <t>5822dfd7</t>
-  </si>
-  <si>
-    <t>PET container</t>
-  </si>
-  <si>
-    <t>795ss14</t>
-  </si>
-  <si>
-    <t>Ink cartridge black PGI-7BK</t>
-  </si>
-  <si>
-    <t>da dsfs31</t>
-  </si>
-  <si>
-    <t>Ink cartridge cyan PGI-9C</t>
-  </si>
-  <si>
-    <t>Sulfuric acid</t>
-  </si>
-  <si>
-    <t>7664-93-9</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Sulfuric acid and other acids are very corrosive and irritating and cause direct local effects on the skin, eyes, and respiratory and gastrointestinal tracts when there is direct exposure to sufficient concentrations. Breathing sulfuric acid mists can result in tooth erosion and respiratory tract irritation. Drinking concentrated sulfuric acid can burn your mouth and throat, and it can erode a hole in your stomach; it has also resulted in death. If you touch sulfuric acid, it will burn your skin. If you get sulfuric acid in your eyes, it will burn your eyes and cause them to water. The term "burn" used in these sections refers to a chemical burn, not a physical burn resulting from contacting a hot object. People have been blinded by sulfuric acid when it was thrown in their faces.</t>
-  </si>
-  <si>
-    <t>Do not store near combustible materials. Keep container closed when not in use. Store in a cool, dry, well-ventilated area away from incompatible substances. Keep away from water. Corrosives area. Do not store near alkaline substances. Store protected from moisture.</t>
-  </si>
-  <si>
-    <t>Nitric acid</t>
-  </si>
-  <si>
-    <t>7697-37-2</t>
-  </si>
-  <si>
-    <t>3423</t>
-  </si>
-  <si>
-    <t>86 mg/m³ one-hour</t>
-  </si>
-  <si>
-    <t>Concentrated nitric acid and its vapors are highly corrosive to the eyes, skin, and mucous membranes. Dilute solutions cause mild skin irritation and hardening of the epidermis. Contact with concentrated nitric acid stains the skin yellow and produces deep painful burns. Eye contact can cause severe burns and permanent damage. Inhalation of high concentrations can lead to severe respiratory irritation and delayed effects, including pulmonary edema, which may be fatal. Ingestion of nitric acid may result in burning and corrosion of the mouth, throat, and stomach. An oral dose of 10 mL can be fatal in humans.</t>
-  </si>
-  <si>
-    <t>Sodium nitrate</t>
-  </si>
-  <si>
-    <t>7631-99-4</t>
-  </si>
-  <si>
-    <t>3323</t>
-  </si>
-  <si>
-    <t>(1 mg/m3) TWA; (3 mg/m3) STEL</t>
-  </si>
-  <si>
-    <t>Humans are subject to nitrate toxicity, with infants being especially vulnerable to methemoglobinemia due to nitrate metabolizing triglycerides present at higher concentrations than at other stages of development. Methemoglobinemia in infants is known as blue baby syndrome. Although nitrates in drinking water were once thought to be a contributing factor, there are now significant scientific doubts as to whether there is a causal link. Blue baby syndrome is now thought to be the product of a number of factors, which can include any factor that causes gastric upset, such as diarrhoeal infection, protein intolerance, heavy metal toxicity etc., with nitrates playing a minor role.</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -1886,48 +1817,6 @@
     <t>12/02/2014</t>
   </si>
   <si>
-    <t>id-003</t>
-  </si>
-  <si>
-    <t>TF112-1000Q</t>
-  </si>
-  <si>
-    <t>id-004</t>
-  </si>
-  <si>
-    <t>BCBL6953V</t>
-  </si>
-  <si>
-    <t>id-005</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>03/05/2015</t>
-  </si>
-  <si>
-    <t>id-006</t>
-  </si>
-  <si>
-    <t>id-007</t>
-  </si>
-  <si>
-    <t>P2TUB050C</t>
-  </si>
-  <si>
-    <t>id-008</t>
-  </si>
-  <si>
-    <t>G11388</t>
-  </si>
-  <si>
-    <t>id-009</t>
-  </si>
-  <si>
-    <t>25/01/2016</t>
-  </si>
-  <si>
     <t>templateID</t>
   </si>
   <si>
@@ -1949,7 +1838,13 @@
     <t>Template Name</t>
   </si>
   <si>
+    <t>k-001</t>
+  </si>
+  <si>
     <t>DNA Blood sampling kit</t>
+  </si>
+  <si>
+    <t>k-002</t>
   </si>
   <si>
     <t>RNA Blood sampling kit</t>
@@ -2742,7 +2637,7 @@
     <numFmt numFmtId="169" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2922,6 +2817,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2996,7 +2896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3369,6 +3269,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5183,7 +5087,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -5926,7 +5830,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C25" type="list">
-      <formula1>#REF!!$A$1:$A$24</formula1>
+      <formula1>#ref!!$A$1:$A$24</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:F25" type="date">
@@ -6082,7 +5986,7 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6311,32 +6215,16 @@
       <c r="U5" s="65"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>561</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>301</v>
-      </c>
+      <c r="A6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="62"/>
-      <c r="F6" s="62" t="s">
-        <v>562</v>
-      </c>
-      <c r="G6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="59" t="n">
-        <v>50</v>
-      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K6" s="64" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
       <c r="L6" s="59"/>
       <c r="M6" s="59"/>
       <c r="N6" s="64"/>
@@ -6348,32 +6236,16 @@
       <c r="U6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
-        <v>563</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>527</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>301</v>
-      </c>
+      <c r="A7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="G7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="59" t="n">
-        <v>100</v>
-      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="63"/>
-      <c r="J7" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K7" s="64" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="59"/>
       <c r="M7" s="59"/>
       <c r="N7" s="64"/>
@@ -6385,33 +6257,17 @@
       <c r="U7" s="65"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>565</v>
-      </c>
+      <c r="A8" s="60"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="61" t="s">
-        <v>536</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>303</v>
-      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="62"/>
-      <c r="F8" s="62" t="s">
-        <v>566</v>
-      </c>
-      <c r="G8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="59" t="n">
-        <v>2</v>
-      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K8" s="64" t="n">
-        <v>53.11</v>
-      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="59"/>
       <c r="M8" s="59"/>
       <c r="N8" s="64"/>
@@ -6423,33 +6279,17 @@
       <c r="U8" s="65"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>567</v>
-      </c>
+      <c r="A9" s="60"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="61" t="s">
-        <v>536</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>303</v>
-      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="62"/>
-      <c r="F9" s="62" t="n">
-        <v>2323</v>
-      </c>
-      <c r="G9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="59" t="n">
-        <v>5</v>
-      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="63"/>
-      <c r="J9" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K9" s="64" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
       <c r="N9" s="64"/>
@@ -6461,44 +6301,20 @@
       <c r="U9" s="65"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>568</v>
-      </c>
+      <c r="A10" s="21"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="61" t="s">
-        <v>539</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="G10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="59" t="n">
-        <v>123</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>571</v>
-      </c>
-      <c r="J10" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K10" s="64" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="59"/>
-      <c r="M10" s="84" t="s">
-        <v>572</v>
-      </c>
-      <c r="N10" s="64" t="s">
-        <v>573</v>
-      </c>
+      <c r="M10" s="84"/>
+      <c r="N10" s="64"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
@@ -6506,42 +6322,20 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>574</v>
-      </c>
+      <c r="A11" s="21"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="61" t="s">
-        <v>539</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="G11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="59" t="n">
-        <v>120</v>
-      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
-      <c r="K11" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>577</v>
-      </c>
-      <c r="M11" s="84" t="s">
-        <v>578</v>
-      </c>
-      <c r="N11" s="64" t="s">
-        <v>573</v>
-      </c>
+      <c r="K11" s="64"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="64"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -6549,39 +6343,19 @@
       <c r="T11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>579</v>
-      </c>
+      <c r="A12" s="21"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="61" t="s">
-        <v>539</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="G12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="59" t="n">
-        <v>10</v>
-      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="59"/>
       <c r="J12" s="64"/>
-      <c r="K12" s="64" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="L12" s="85" t="s">
-        <v>582</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>583</v>
-      </c>
+      <c r="K12" s="64"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="40"/>
@@ -6603,7 +6377,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L4:N10 N11:N12 M12:N12" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L4:N10 N11 M12:N12" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6635,10 +6409,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6662,69 +6436,69 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="87" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="F1" s="87" t="s">
         <v>546</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="H1" s="87" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="J1" s="87" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="K1" s="87" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="L1" s="87" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="M1" s="87" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="N1" s="87" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="O1" s="87" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" s="88" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="88" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="C3" s="88" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="E3" s="88" t="s">
         <v>345</v>
@@ -6733,31 +6507,31 @@
         <v>546</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="H3" s="88" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="I3" s="88" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="K3" s="88" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="L3" s="88" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="M3" s="88" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,22 +6539,22 @@
         <v>556</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="F4" s="59" t="n">
         <v>50</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="K4" s="89" t="n">
         <v>1</v>
@@ -6791,10 +6565,10 @@
         <v>559</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>22</v>
@@ -6803,166 +6577,15 @@
         <v>25</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="K5" s="89" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>618</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="59" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="F7" s="59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="D8" s="86" t="n">
-        <v>301746</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="F8" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>623</v>
-      </c>
-      <c r="K8" s="89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="D9" s="86" t="n">
-        <v>301747</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="F9" s="59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>626</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="F10" s="59" t="n">
-        <v>123</v>
-      </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="F11" s="59" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="D12" s="86" t="n">
-        <v>368815</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="F12" s="59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>630</v>
-      </c>
-      <c r="K12" s="89" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="greaterThan" prompt="Whole number" promptTitle="Quantity" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F12" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThan" prompt="Whole number" promptTitle="Quantity" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6985,7 +6608,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6999,29 +6622,29 @@
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>634</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>542</v>
@@ -7031,8 +6654,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>601</v>
+      </c>
       <c r="B4" s="90" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="C4" s="91" t="s">
         <v>524</v>
@@ -7042,8 +6668,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>603</v>
+      </c>
       <c r="B5" s="90" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>539</v>
@@ -7068,10 +6697,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:7"/>
+  <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7087,42 +6716,42 @@
   <sheetData>
     <row r="1" s="88" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="88" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="F1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="42" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="F2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="92" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="92" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>546</v>
@@ -7133,7 +6762,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="90"/>
       <c r="B4" s="90" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>556</v>
@@ -7144,7 +6773,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="90" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D5" s="91" t="s">
         <v>559</v>
@@ -7155,24 +6784,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="90" t="s">
-        <v>639</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>561</v>
+        <v>604</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>559</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="90" t="s">
-        <v>639</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>563</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7211,1239 +6829,1239 @@
   </cols>
   <sheetData>
     <row r="1" s="53" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="D1" s="94" t="s">
-        <v>645</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>646</v>
+      <c r="C1" s="95" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>611</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>647</v>
-      </c>
-      <c r="G1" s="95" t="s">
-        <v>648</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>649</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>651</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>652</v>
-      </c>
-      <c r="L1" s="94"/>
+        <v>612</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>654</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>655</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>656</v>
-      </c>
-      <c r="F2" s="96" t="s">
-        <v>657</v>
-      </c>
-      <c r="G2" s="96" t="n">
+      <c r="C2" s="97" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>620</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="96" t="s">
-        <v>658</v>
-      </c>
-      <c r="I2" s="96" t="s">
-        <v>659</v>
-      </c>
-      <c r="J2" s="96" t="s">
-        <v>660</v>
-      </c>
-      <c r="K2" s="96" t="s">
-        <v>661</v>
+      <c r="H2" s="97" t="s">
+        <v>623</v>
+      </c>
+      <c r="I2" s="97" t="s">
+        <v>624</v>
+      </c>
+      <c r="J2" s="97" t="s">
+        <v>625</v>
+      </c>
+      <c r="K2" s="97" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="96" t="s">
-        <v>663</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>664</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>666</v>
-      </c>
-      <c r="G3" s="96" t="n">
+      <c r="C3" s="97" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>630</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>631</v>
+      </c>
+      <c r="G3" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="96" t="s">
-        <v>667</v>
-      </c>
-      <c r="I3" s="96" t="s">
+      <c r="H3" s="97" t="s">
+        <v>632</v>
+      </c>
+      <c r="I3" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="96" t="s">
-        <v>668</v>
-      </c>
-      <c r="K3" s="96" t="s">
-        <v>669</v>
+      <c r="J3" s="97" t="s">
+        <v>633</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>671</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>672</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>673</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="96" t="s">
-        <v>674</v>
+      <c r="C4" s="97" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>637</v>
+      </c>
+      <c r="F4" s="97" t="s">
+        <v>638</v>
+      </c>
+      <c r="G4" s="98"/>
+      <c r="H4" s="97" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="98"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" s="97"/>
+        <v>641</v>
+      </c>
+      <c r="G6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="97"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G9" s="98"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G10" s="98"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G11" s="98"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G12" s="98"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G16" s="98"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G17" s="98"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="98"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G19" s="98"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+    </row>
+    <row r="21" s="102" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>645</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>646</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>648</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>651</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="103" t="s">
+        <v>653</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>654</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>655</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>656</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>657</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>658</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>659</v>
+      </c>
+      <c r="H22" s="97" t="s">
+        <v>659</v>
+      </c>
+      <c r="I22" s="97" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="97" t="s">
+        <v>661</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>663</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>664</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>665</v>
+      </c>
+      <c r="G23" s="97" t="s">
+        <v>666</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>666</v>
+      </c>
+      <c r="I23" s="97" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="97" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>669</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>670</v>
+      </c>
+      <c r="F24" s="97" t="s">
+        <v>671</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>672</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>672</v>
+      </c>
+      <c r="I24" s="97" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="97" t="s">
+        <v>674</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>676</v>
+      </c>
+      <c r="H25" s="97" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="I25" s="97" t="s">
         <v>678</v>
       </c>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="97"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="97"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="97"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="97"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="97"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="97"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="97"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="97"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="97"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="97"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-    </row>
-    <row r="21" s="101" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="97" t="s">
         <v>679</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="C26" s="97" t="s">
         <v>680</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="H26" s="97" t="s">
         <v>681</v>
       </c>
-      <c r="D21" s="53" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="97" t="s">
         <v>682</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="C27" s="97" t="s">
         <v>683</v>
       </c>
-      <c r="F21" s="53" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="97" t="s">
         <v>684</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="C28" s="97" t="s">
         <v>685</v>
       </c>
-      <c r="H21" s="53" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="97" t="s">
         <v>686</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="C29" s="97" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="102" t="s">
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="97" t="s">
         <v>688</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="C30" s="97" t="s">
         <v>689</v>
       </c>
-      <c r="C22" s="96" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="97" t="s">
         <v>690</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="C31" s="97" t="s">
         <v>691</v>
       </c>
-      <c r="E22" s="97" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="97" t="s">
         <v>692</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="C32" s="97" t="s">
         <v>693</v>
       </c>
-      <c r="G22" s="96" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="97" t="s">
         <v>694</v>
       </c>
-      <c r="H22" s="96" t="s">
-        <v>694</v>
-      </c>
-      <c r="I22" s="96" t="s">
+      <c r="C33" s="97" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="96" t="s">
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="97" t="s">
         <v>696</v>
       </c>
-      <c r="C23" s="96" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="97" t="s">
         <v>697</v>
       </c>
-      <c r="D23" s="96" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="97" t="s">
         <v>698</v>
       </c>
-      <c r="E23" s="97" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="97" t="s">
         <v>699</v>
       </c>
-      <c r="F23" s="96" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="97" t="s">
         <v>700</v>
       </c>
-      <c r="G23" s="96" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="97" t="s">
         <v>701</v>
       </c>
-      <c r="H23" s="96" t="s">
-        <v>701</v>
-      </c>
-      <c r="I23" s="96" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="97" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="96" t="s">
+    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="97" t="s">
         <v>703</v>
       </c>
-      <c r="C24" s="96" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="97" t="s">
         <v>704</v>
       </c>
-      <c r="D24" s="96" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="97" t="s">
         <v>705</v>
       </c>
-      <c r="F24" s="96" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="97" t="s">
         <v>706</v>
       </c>
-      <c r="G24" s="96" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="97" t="s">
         <v>707</v>
       </c>
-      <c r="H24" s="96" t="s">
-        <v>707</v>
-      </c>
-      <c r="I24" s="96" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="97" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="96" t="s">
+    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="97" t="s">
         <v>709</v>
       </c>
-      <c r="C25" s="96" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="97" t="s">
         <v>710</v>
       </c>
-      <c r="D25" s="96" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="97" t="s">
         <v>711</v>
       </c>
-      <c r="H25" s="96" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="97" t="s">
         <v>712</v>
       </c>
-      <c r="I25" s="96" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="97" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="96" t="s">
+    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="97" t="s">
         <v>714</v>
       </c>
-      <c r="C26" s="96" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="97" t="s">
         <v>715</v>
       </c>
-      <c r="H26" s="96" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="97" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="96" t="s">
+    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="97" t="s">
         <v>717</v>
       </c>
-      <c r="C27" s="96" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="97" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="96" t="s">
+    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="97" t="s">
         <v>719</v>
       </c>
-      <c r="C28" s="96" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="97" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="96" t="s">
+    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="97" t="s">
         <v>721</v>
       </c>
-      <c r="C29" s="96" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="97" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="96" t="s">
+    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="97" t="s">
         <v>723</v>
       </c>
-      <c r="C30" s="96" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="97" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="96" t="s">
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="97" t="s">
         <v>725</v>
       </c>
-      <c r="C31" s="96" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="97" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="96" t="s">
+    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="97" t="s">
         <v>727</v>
       </c>
-      <c r="C32" s="96" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="97" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="96" t="s">
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="97" t="s">
         <v>729</v>
       </c>
-      <c r="C33" s="96" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="97" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="96" t="s">
+    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="97" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="96" t="s">
+    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="97" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="96" t="s">
+    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="97" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="96" t="s">
+    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="97" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="96" t="s">
+    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="97" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="96" t="s">
+    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="97" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="96" t="s">
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="97" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="96" t="s">
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="97" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="96" t="s">
+    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="97" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="96" t="s">
+    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="97" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="96" t="s">
+    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="97" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="96" t="s">
+    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="97" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="96" t="s">
+    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="97" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="96" t="s">
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="97" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="96" t="s">
+    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="97" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="96" t="s">
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="97" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="96" t="s">
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="97" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="96" t="s">
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="97" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="96" t="s">
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="97" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="96" t="s">
+    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="97" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="96" t="s">
+    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="97" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="96" t="s">
+    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="97" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="96" t="s">
+    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="97" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="96" t="s">
+    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="97" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="96" t="s">
+    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="97" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="96" t="s">
+    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="97" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="96" t="s">
+    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="97" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="96" t="s">
+    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="97" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="96" t="s">
+    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="97" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="96" t="s">
+    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="97" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="96" t="s">
+    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="97" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="96" t="s">
+    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="97" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="96" t="s">
+    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="97" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="96" t="s">
+    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="97" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="96" t="s">
+    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="97" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="96" t="s">
+    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="97" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="96" t="s">
+    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="97" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="96" t="s">
+    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="97" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="96" t="s">
+    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="97" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="96" t="s">
+    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="97" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="96" t="s">
+    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="97" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="96" t="s">
+    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="97" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="96" t="s">
+    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="97" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="96" t="s">
+    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="97" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="96" t="s">
+    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="97" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="96" t="s">
+    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="97" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="96" t="s">
+    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="97" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="96" t="s">
+    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="97" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="96" t="s">
+    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="97" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="96" t="s">
+    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="97" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="96" t="s">
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="97" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="96" t="s">
+    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="97" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="96" t="s">
+    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="97" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="96" t="s">
+    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="97" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="96" t="s">
+    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="97" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="96" t="s">
+    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="97" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="96" t="s">
+    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="97" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="96" t="s">
+    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="97" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="96" t="s">
+    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="97" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="96" t="s">
+    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="97" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="96" t="s">
+    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="97" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="96" t="s">
+    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="97" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="96" t="s">
+    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="97" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="96" t="s">
+    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="97" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="96" t="s">
+    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="97" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="96" t="s">
+    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="97" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="96" t="s">
+    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="97" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="96" t="s">
+    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="97" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="96" t="s">
+    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="97" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="96" t="s">
+    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="97" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="96" t="s">
+    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="97" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="96" t="s">
+    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="97" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="96" t="s">
+    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="97" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="96" t="s">
+    <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="97" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="96" t="s">
+    <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="97" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="96" t="s">
+    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="97" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="96" t="s">
+    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="97" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="96" t="s">
+    <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="97" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="96" t="s">
+    <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="97" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="96" t="s">
+    <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="97" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="96" t="s">
+    <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="97" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="96" t="s">
+    <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="97" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="96" t="s">
+    <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="97" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="96" t="s">
+    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="97" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="96" t="s">
+    <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="97" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="96" t="s">
+    <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="97" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="96" t="s">
+    <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="97" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="96" t="s">
+    <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="97" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="96" t="s">
+    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="97" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="96" t="s">
+    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="97" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="96" t="s">
+    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="97" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="96" t="s">
+    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="97" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="96" t="s">
+    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="97" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="96" t="s">
+    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="97" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="96" t="s">
+    <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="97" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="96" t="s">
+    <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="97" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="96" t="s">
+    <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="97" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="96" t="s">
+    <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="97" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="96" t="s">
+    <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="97" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="96" t="s">
+    <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="97" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="96" t="s">
+    <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="97" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="96" t="s">
+    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="97" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="96" t="s">
+    <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="97" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="96" t="s">
+    <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="97" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="96" t="s">
+    <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="97" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="96" t="s">
+    <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="97" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="96" t="s">
+    <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="97" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="96" t="s">
+    <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="97" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="96" t="s">
+    <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="97" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="96" t="s">
+    <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="97" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="96" t="s">
+    <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="97" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="96" t="s">
+    <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="97" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="96" t="s">
+    <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="97" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="96" t="s">
+    <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="97" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="96" t="s">
+    <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="97" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="96" t="s">
+    <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="97" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="96" t="s">
+    <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="97" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="96" t="s">
+    <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="97" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="96" t="s">
+    <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="97" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="96" t="s">
+    <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="97" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="96" t="s">
+    <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="97" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="96" t="s">
+    <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="97" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="96" t="s">
+    <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="97" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="96" t="s">
+    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="97" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="96" t="s">
+    <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="97" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="96" t="s">
+    <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="97" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="96" t="s">
+    <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="97" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="96" t="s">
+    <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="97" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="96" t="s">
+    <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="97" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="96" t="s">
+    <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="97" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="96" t="s">
+    <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="97" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="96" t="s">
+    <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B200" s="97" t="s">
         <v>862</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="96" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="96" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="96" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="96" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="96" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="96" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="96" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="96" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="96" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="96" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="96" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="96" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="96" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="96" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="96" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="96" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="96" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="96" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="96" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="96" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="96" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="96" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="96" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="96" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="96" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="96" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="96" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="96" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="96" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="96" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="96" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="96" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="96" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="96" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="96" t="s">
-        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="791" firstSheet="0" activeTab="34"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="395" firstSheet="0" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -14844,7 +14844,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -14960,8 +14960,8 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15165,6 +15165,12 @@
       <c r="C11" s="0" t="s">
         <v>935</v>
       </c>
+      <c r="D11" s="180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="104" t="s">
@@ -15176,6 +15182,12 @@
       <c r="C12" s="0" t="s">
         <v>937</v>
       </c>
+      <c r="D12" s="180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="104" t="s">
@@ -15187,6 +15199,12 @@
       <c r="C13" s="0" t="s">
         <v>939</v>
       </c>
+      <c r="D13" s="180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="104" t="s">
@@ -15197,6 +15215,12 @@
       </c>
       <c r="C14" s="0" t="s">
         <v>941</v>
+      </c>
+      <c r="D14" s="180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15467,7 +15491,7 @@
   </sheetPr>
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y14" activeCellId="0" sqref="Y14"/>
     </sheetView>
   </sheetViews>

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="395" firstSheet="0" activeTab="33"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="448" firstSheet="0" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="2258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="2257">
   <si>
     <t>Instructions</t>
   </si>
@@ -3428,9 +3428,6 @@
   </si>
   <si>
     <t>Blood Analysis</t>
-  </si>
-  <si>
-    <t>to set sampletype default spec: our title == sample-type title</t>
   </si>
   <si>
     <t>Cell Proliferation</t>
@@ -14960,7 +14957,7 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -15492,7 +15489,7 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y14" activeCellId="0" sqref="Y14"/>
+      <selection pane="topLeft" activeCell="Y21" activeCellId="0" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16534,7 +16531,9 @@
       <c r="V13" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W13" s="188"/>
+      <c r="W13" s="188" t="s">
+        <v>611</v>
+      </c>
       <c r="X13" s="192" t="s">
         <v>705</v>
       </c>
@@ -19057,7 +19056,7 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19201,10 +19200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19214,7 +19213,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1174089068826"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.6234817813765"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
@@ -19279,19 +19278,16 @@
         <v>546</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E4" s="86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="86" t="n">
         <v>2</v>
-      </c>
-      <c r="F4" s="86" t="n">
-        <v>2.2</v>
       </c>
       <c r="G4" s="86" t="n">
         <v>0</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19303,13 +19299,13 @@
         <v>546</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E5" s="86" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="86" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G5" s="86" t="n">
         <v>0</v>
@@ -19324,13 +19320,13 @@
         <v>546</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F6" s="86" t="n">
         <v>2</v>
-      </c>
-      <c r="F6" s="86" t="n">
-        <v>2.2</v>
       </c>
       <c r="G6" s="86" t="n">
         <v>0</v>
@@ -19338,41 +19334,41 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="104" t="s">
-        <v>546</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>1001</v>
+        <v>525</v>
+      </c>
+      <c r="D7" s="201" t="s">
+        <v>1016</v>
       </c>
       <c r="E7" s="86" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="86" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G7" s="86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="82" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B8" s="104"/>
       <c r="C8" s="104" t="s">
         <v>560</v>
       </c>
       <c r="D8" s="201" t="s">
-        <v>601</v>
+        <v>1012</v>
       </c>
       <c r="E8" s="86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="86" t="n">
-        <v>1.25</v>
+        <v>100</v>
       </c>
       <c r="G8" s="86" t="n">
         <v>3</v>
@@ -19380,46 +19376,26 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="104" t="s">
         <v>560</v>
       </c>
       <c r="D9" s="201" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E9" s="86" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="86" t="n">
-        <v>2.65</v>
+        <v>6.7</v>
       </c>
       <c r="G9" s="86" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="82" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104" t="s">
-        <v>560</v>
-      </c>
-      <c r="D10" s="201" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E10" s="86" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="86" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G10" s="86" t="n">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19671,15 +19647,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a  'lab' Specification that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Specification belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B10" type="list">
+    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a  'lab' Specification that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Specification belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B9" type="list">
       <formula1>'Client Contacts'!$A$4:$A$82</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the list" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid  Sample Type from the list. The list is maintained on the 'Sample Types' sheet." promptTitle="Select a Sample Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C10" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the list" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid  Sample Type from the list. The list is maintained on the 'Sample Types' sheet." promptTitle="Select a Sample Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C9" type="list">
       <formula1>'Sample Types'!$A$4:$A$90</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="D8:D10" type="none">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D9" type="list">
       <formula1>'Analysis Services'!$A$4:$A$86</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -19738,7 +19714,7 @@
         <v>584</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>803</v>
@@ -19751,7 +19727,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="14"/>
       <c r="AMI2" s="60"/>
@@ -19759,7 +19735,7 @@
     </row>
     <row r="3" s="13" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>297</v>
@@ -19774,13 +19750,13 @@
         <v>586</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>803</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AMI3" s="83"/>
       <c r="AMJ3" s="83"/>
@@ -19793,7 +19769,7 @@
         <v>276</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>546</v>
@@ -19814,7 +19790,7 @@
         <v>285</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>549</v>
@@ -19889,30 +19865,30 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>1086</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>1089</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>1090</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19923,7 +19899,7 @@
         <v>984</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19934,7 +19910,7 @@
         <v>989</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19945,7 +19921,7 @@
         <v>992</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19956,7 +19932,7 @@
         <v>995</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19967,7 +19943,7 @@
         <v>998</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19978,7 +19954,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19989,7 +19965,7 @@
         <v>601</v>
       </c>
       <c r="C10" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20000,7 +19976,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20011,7 +19987,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -20069,36 +20045,36 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>1094</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1097</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -20146,47 +20122,47 @@
         <v>507</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1099</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>1100</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1104</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>1106</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>1108</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>1109</v>
       </c>
       <c r="C4" s="100" t="n">
         <v>0</v>
@@ -20203,10 +20179,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>1110</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>1111</v>
       </c>
       <c r="C5" s="100" t="n">
         <v>0</v>
@@ -20223,10 +20199,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B6" s="82" t="s">
         <v>1112</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>1113</v>
       </c>
       <c r="C6" s="100" t="n">
         <v>0</v>
@@ -20305,13 +20281,13 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1066</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1067</v>
@@ -20322,19 +20298,19 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1071</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1072</v>
@@ -20554,49 +20530,49 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1119</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1120</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>507</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>1121</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>1122</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>1123</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>1124</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>1125</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>1126</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>1127</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>803</v>
@@ -20604,13 +20580,13 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>53</v>
@@ -20619,40 +20595,40 @@
         <v>722</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1130</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>1131</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>507</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>1132</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>1133</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>1134</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>1136</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>1137</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>1138</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>1139</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>803</v>
@@ -20893,13 +20869,13 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1141</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1067</v>
@@ -20910,19 +20886,19 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1071</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1072</v>
@@ -21011,48 +20987,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1140</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>1144</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>1145</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>795</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>1146</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>1147</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>1149</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21060,31 +21036,31 @@
         <v>44</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1153</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>795</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>1146</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21155,7 +21131,7 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>910</v>
@@ -21175,7 +21151,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -21238,7 +21214,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -21252,34 +21228,34 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>1157</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>1159</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B6" s="82" t="s">
         <v>1161</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B7" s="82" t="s">
         <v>1163</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -21324,43 +21300,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="82" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>292</v>
       </c>
       <c r="C1" s="82" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>1165</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="E1" s="82" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I1" s="82" t="s">
         <v>1166</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H1" s="82" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>1167</v>
       </c>
       <c r="J1" s="82" t="s">
         <v>575</v>
       </c>
       <c r="K1" s="82" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L1" s="82" t="s">
         <v>1168</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="M1" s="82" t="s">
         <v>1169</v>
-      </c>
-      <c r="M1" s="82" t="s">
-        <v>1170</v>
       </c>
       <c r="N1" s="82" t="s">
         <v>803</v>
@@ -21368,49 +21344,49 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="202" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>457</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1173</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>1174</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>1175</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>575</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>1176</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>1177</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>1178</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>803</v>
@@ -21457,43 +21433,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="82" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C1" s="82" t="s">
         <v>292</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>1180</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="F1" s="82" t="s">
         <v>1181</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="G1" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H1" s="82" t="s">
         <v>1182</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>1183</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>1184</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>1185</v>
       </c>
       <c r="K1" s="82" t="s">
         <v>945</v>
       </c>
       <c r="L1" s="82" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="M1" s="82" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="N1" s="82" t="s">
         <v>803</v>
@@ -21501,49 +21477,49 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>457</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>1192</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>1196</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>803</v>
@@ -21589,34 +21565,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>590</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>1144</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>1145</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>795</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>952</v>
@@ -21644,40 +21620,40 @@
         <v>29</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>590</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>795</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>1200</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>1201</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21803,7 +21779,7 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="26.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>910</v>
@@ -21823,13 +21799,13 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>915</v>
@@ -21890,7 +21866,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -21908,50 +21884,50 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>1207</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>1209</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>1211</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>1213</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>1215</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>1217</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -21997,7 +21973,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -22015,34 +21991,34 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>1220</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>1222</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>1224</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>1226</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -22255,7 +22231,7 @@
     </row>
     <row r="2" s="13" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="204"/>
     </row>
@@ -22272,10 +22248,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B4" s="205" t="s">
         <v>1229</v>
-      </c>
-      <c r="B4" s="205" t="s">
-        <v>1230</v>
       </c>
       <c r="C4" s="206" t="n">
         <v>0</v>
@@ -22283,10 +22259,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B5" s="205" t="s">
         <v>1231</v>
-      </c>
-      <c r="B5" s="205" t="s">
-        <v>1232</v>
       </c>
       <c r="C5" s="206" t="n">
         <v>0</v>
@@ -22294,21 +22270,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B6" s="205" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C6" s="206" t="s">
         <v>1233</v>
-      </c>
-      <c r="B6" s="205" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C6" s="206" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B7" s="205" t="s">
         <v>1235</v>
-      </c>
-      <c r="B7" s="205" t="s">
-        <v>1236</v>
       </c>
       <c r="C7" s="207" t="n">
         <v>0</v>
@@ -22316,10 +22292,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B8" s="205" t="s">
         <v>1237</v>
-      </c>
-      <c r="B8" s="205" t="s">
-        <v>1238</v>
       </c>
       <c r="C8" s="207" t="n">
         <v>1</v>
@@ -22327,10 +22303,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B9" s="205" t="s">
         <v>1239</v>
-      </c>
-      <c r="B9" s="205" t="s">
-        <v>1240</v>
       </c>
       <c r="C9" s="206" t="n">
         <v>15</v>
@@ -22341,7 +22317,7 @@
         <v>228</v>
       </c>
       <c r="B10" s="205" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C10" s="206" t="n">
         <v>14</v>
@@ -22349,10 +22325,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B11" s="205" t="s">
         <v>1242</v>
-      </c>
-      <c r="B11" s="205" t="s">
-        <v>1243</v>
       </c>
       <c r="C11" s="206" t="n">
         <v>5</v>
@@ -22360,10 +22336,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B12" s="205" t="s">
         <v>1244</v>
-      </c>
-      <c r="B12" s="205" t="s">
-        <v>1245</v>
       </c>
       <c r="C12" s="206" t="n">
         <v>5</v>
@@ -22371,10 +22347,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B13" s="205" t="s">
         <v>1246</v>
-      </c>
-      <c r="B13" s="205" t="s">
-        <v>1247</v>
       </c>
       <c r="C13" s="206" t="n">
         <v>4</v>
@@ -22382,19 +22358,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" s="205" t="s">
         <v>1248</v>
-      </c>
-      <c r="B14" s="205" t="s">
-        <v>1249</v>
       </c>
       <c r="C14" s="206"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B15" s="205" t="s">
         <v>1250</v>
-      </c>
-      <c r="B15" s="205" t="s">
-        <v>1251</v>
       </c>
       <c r="C15" s="207" t="n">
         <v>0</v>
@@ -22402,10 +22378,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B16" s="205" t="s">
         <v>1252</v>
-      </c>
-      <c r="B16" s="205" t="s">
-        <v>1253</v>
       </c>
       <c r="C16" s="207" t="n">
         <v>0</v>
@@ -22413,10 +22389,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B17" s="205" t="s">
         <v>1254</v>
-      </c>
-      <c r="B17" s="205" t="s">
-        <v>1255</v>
       </c>
       <c r="C17" s="207" t="n">
         <v>1</v>
@@ -22424,22 +22400,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B18" s="205" t="s">
         <v>1256</v>
       </c>
-      <c r="B18" s="205" t="s">
+      <c r="C18" s="208" t="s">
         <v>1257</v>
-      </c>
-      <c r="C18" s="208" t="s">
-        <v>1258</v>
       </c>
       <c r="D18" s="209"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B19" s="205" t="s">
         <v>1259</v>
-      </c>
-      <c r="B19" s="205" t="s">
-        <v>1260</v>
       </c>
       <c r="C19" s="210" t="s">
         <v>313</v>
@@ -22448,10 +22424,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B20" s="205" t="s">
         <v>1261</v>
-      </c>
-      <c r="B20" s="205" t="s">
-        <v>1262</v>
       </c>
       <c r="C20" s="210" t="s">
         <v>313</v>
@@ -22459,10 +22435,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B21" s="205" t="s">
         <v>1263</v>
-      </c>
-      <c r="B21" s="205" t="s">
-        <v>1264</v>
       </c>
       <c r="C21" s="208" t="n">
         <v>30</v>
@@ -22470,10 +22446,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B22" s="205" t="s">
         <v>1265</v>
-      </c>
-      <c r="B22" s="205" t="s">
-        <v>1266</v>
       </c>
       <c r="C22" s="208" t="n">
         <v>0</v>
@@ -22481,10 +22457,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B23" s="205" t="s">
         <v>1267</v>
-      </c>
-      <c r="B23" s="205" t="s">
-        <v>1268</v>
       </c>
       <c r="C23" s="208" t="n">
         <v>0</v>
@@ -22492,33 +22468,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B24" s="205" t="s">
         <v>1269</v>
       </c>
-      <c r="B24" s="205" t="s">
+      <c r="C24" s="210" t="s">
         <v>1270</v>
-      </c>
-      <c r="C24" s="210" t="s">
-        <v>1271</v>
       </c>
       <c r="D24" s="211"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B25" s="205" t="s">
         <v>1272</v>
       </c>
-      <c r="B25" s="205" t="s">
+      <c r="C25" s="210" t="s">
         <v>1273</v>
-      </c>
-      <c r="C25" s="210" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B26" s="205" t="s">
         <v>1275</v>
-      </c>
-      <c r="B26" s="205" t="s">
-        <v>1276</v>
       </c>
       <c r="C26" s="207" t="n">
         <v>0</v>
@@ -22526,21 +22502,21 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B27" s="205" t="s">
         <v>1277</v>
       </c>
-      <c r="B27" s="205" t="s">
+      <c r="C27" s="206" t="s">
         <v>1278</v>
-      </c>
-      <c r="C27" s="206" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B28" s="205" t="s">
         <v>1280</v>
-      </c>
-      <c r="B28" s="205" t="s">
-        <v>1281</v>
       </c>
       <c r="C28" s="206" t="n">
         <v>2</v>
@@ -22548,10 +22524,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B29" s="205" t="s">
         <v>1282</v>
-      </c>
-      <c r="B29" s="205" t="s">
-        <v>1283</v>
       </c>
       <c r="C29" s="207" t="n">
         <v>0</v>
@@ -22559,22 +22535,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B30" s="205" t="s">
         <v>1284</v>
-      </c>
-      <c r="B30" s="205" t="s">
-        <v>1285</v>
       </c>
       <c r="C30" s="206"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B31" s="205" t="s">
         <v>1286</v>
       </c>
-      <c r="B31" s="205" t="s">
+      <c r="C31" s="212" t="s">
         <v>1287</v>
-      </c>
-      <c r="C31" s="212" t="s">
-        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -22717,28 +22693,28 @@
         <v>134</v>
       </c>
       <c r="C1" s="93" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1" s="93" t="s">
         <v>1289</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>1290</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>1291</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="G1" s="214" t="s">
         <v>1292</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="H1" s="93" t="s">
         <v>1293</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="I1" s="93" t="s">
         <v>1294</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
         <v>1295</v>
-      </c>
-      <c r="J1" s="93" t="s">
-        <v>1296</v>
       </c>
       <c r="K1" s="93" t="s">
         <v>965</v>
@@ -22747,34 +22723,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>195</v>
       </c>
       <c r="C2" s="205" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D2" s="205" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E2" s="215" t="s">
         <v>1297</v>
       </c>
-      <c r="E2" s="215" t="s">
+      <c r="F2" s="205" t="s">
         <v>1298</v>
-      </c>
-      <c r="F2" s="205" t="s">
-        <v>1299</v>
       </c>
       <c r="G2" s="205" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="205" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I2" s="205" t="s">
         <v>1300</v>
       </c>
-      <c r="I2" s="205" t="s">
+      <c r="J2" s="205" t="s">
         <v>1301</v>
-      </c>
-      <c r="J2" s="205" t="s">
-        <v>1302</v>
       </c>
       <c r="K2" s="205" t="s">
         <v>1008</v>
@@ -22782,34 +22758,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="205" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D3" s="205" t="s">
         <v>313</v>
       </c>
       <c r="E3" s="215" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F3" s="205" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G3" s="205" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="205" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I3" s="205" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="205" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K3" s="205" t="s">
         <v>987</v>
@@ -22817,19 +22793,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C4" s="205" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D4" s="205" t="s">
         <v>1309</v>
       </c>
-      <c r="D4" s="205" t="s">
-        <v>1310</v>
-      </c>
       <c r="F4" s="205" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G4" s="215"/>
       <c r="H4" s="205" t="s">
@@ -22838,19 +22814,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="205" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B5" s="205" t="s">
         <v>1311</v>
-      </c>
-      <c r="B5" s="205" t="s">
-        <v>1312</v>
       </c>
       <c r="G5" s="215"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>1313</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1314</v>
       </c>
       <c r="G6" s="215"/>
     </row>
@@ -22865,10 +22841,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>1315</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1316</v>
       </c>
       <c r="G8" s="215"/>
     </row>
@@ -22921,51 +22897,51 @@
     </row>
     <row r="21" s="219" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C21" s="92" t="s">
         <v>1317</v>
       </c>
-      <c r="B21" s="93" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C21" s="92" t="s">
+      <c r="D21" s="92" t="s">
         <v>1318</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="E21" s="218" t="s">
         <v>1319</v>
       </c>
-      <c r="E21" s="218" t="s">
+      <c r="F21" s="92" t="s">
         <v>1320</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="G21" s="92" t="s">
         <v>1321</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="H21" s="92" t="s">
         <v>1322</v>
       </c>
-      <c r="H21" s="92" t="s">
+      <c r="I21" s="92" t="s">
         <v>1323</v>
-      </c>
-      <c r="I21" s="92" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="220" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B22" s="205" t="s">
         <v>1325</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="C22" s="205" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D22" s="205" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E22" s="215" t="s">
         <v>1326</v>
       </c>
-      <c r="C22" s="205" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D22" s="205" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E22" s="215" t="s">
+      <c r="F22" s="205" t="s">
         <v>1327</v>
-      </c>
-      <c r="F22" s="205" t="s">
-        <v>1328</v>
       </c>
       <c r="G22" s="205" t="s">
         <v>874</v>
@@ -22979,42 +22955,42 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="205" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C23" s="205" t="s">
         <v>1329</v>
       </c>
-      <c r="C23" s="205" t="s">
+      <c r="D23" s="205" t="s">
         <v>1330</v>
       </c>
-      <c r="D23" s="205" t="s">
+      <c r="E23" s="215" t="s">
         <v>1331</v>
       </c>
-      <c r="E23" s="215" t="s">
+      <c r="F23" s="205" t="s">
         <v>1332</v>
       </c>
-      <c r="F23" s="205" t="s">
+      <c r="G23" s="205" t="s">
         <v>1333</v>
       </c>
-      <c r="G23" s="205" t="s">
+      <c r="H23" s="205" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I23" s="205" t="s">
         <v>1334</v>
-      </c>
-      <c r="H23" s="205" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I23" s="205" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="205" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C24" s="205" t="s">
         <v>1336</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="D24" s="205" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F24" s="205" t="s">
         <v>1337</v>
-      </c>
-      <c r="D24" s="205" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F24" s="205" t="s">
-        <v>1338</v>
       </c>
       <c r="G24" s="205" t="s">
         <v>878</v>
@@ -23023,926 +22999,926 @@
         <v>878</v>
       </c>
       <c r="I24" s="205" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="205" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C25" s="205" t="s">
         <v>1340</v>
       </c>
-      <c r="C25" s="205" t="s">
+      <c r="D25" s="205" t="s">
         <v>1341</v>
       </c>
-      <c r="D25" s="205" t="s">
+      <c r="H25" s="205" t="s">
         <v>1342</v>
       </c>
-      <c r="H25" s="205" t="s">
+      <c r="I25" s="205" t="s">
         <v>1343</v>
-      </c>
-      <c r="I25" s="205" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="205" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C26" s="205" t="s">
         <v>1345</v>
       </c>
-      <c r="C26" s="205" t="s">
+      <c r="H26" s="205" t="s">
         <v>1346</v>
-      </c>
-      <c r="H26" s="205" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="205" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C27" s="205" t="s">
         <v>1348</v>
-      </c>
-      <c r="C27" s="205" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="205" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C28" s="205" t="s">
         <v>1350</v>
-      </c>
-      <c r="C28" s="205" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="205" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C29" s="205" t="s">
         <v>1352</v>
-      </c>
-      <c r="C29" s="205" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="205" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C30" s="205" t="s">
         <v>1354</v>
-      </c>
-      <c r="C30" s="205" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="205" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C31" s="205" t="s">
         <v>1356</v>
-      </c>
-      <c r="C31" s="205" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="205" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C32" s="205" t="s">
         <v>1358</v>
-      </c>
-      <c r="C32" s="205" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="205" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C33" s="205" t="s">
         <v>1360</v>
-      </c>
-      <c r="C33" s="205" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="205" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="205" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="205" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="205" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="205" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="205" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="205" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="205" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="205" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="205" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="205" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="205" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="205" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="205" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="205" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="205" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="205" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="205" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="205" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="205" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="205" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="205" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="205" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="205" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="205" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="205" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="205" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="205" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="205" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="205" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="205" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="205" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="205" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="205" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="205" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="205" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="205" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="205" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="205" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="205" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="205" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="205" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="205" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="205" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="205" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="205" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="205" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="205" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="205" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="205" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="205" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="205" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="205" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="205" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="205" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="205" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="205" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="205" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="205" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="205" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="205" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="205" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="205" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="205" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="205" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="205" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="205" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="205" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="205" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="205" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="205" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="205" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="205" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="205" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="205" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="205" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="205" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="205" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="205" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="205" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="205" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="205" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="205" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="205" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="205" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="205" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="205" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="205" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="205" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="205" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="205" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="205" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="205" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="205" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="205" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="205" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="205" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="205" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="205" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="205" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="205" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="205" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="205" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="205" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="205" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="205" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="205" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="205" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="205" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="205" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="205" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="205" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="205" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="205" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="205" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="205" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="205" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="205" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="205" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="205" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="205" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="205" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="205" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="205" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="205" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="205" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="205" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="205" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="205" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="205" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="205" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="205" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="205" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="205" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="205" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="205" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="205" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="205" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="205" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="205" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="205" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="205" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="205" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="205" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="205" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="205" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="205" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="205" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="205" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="205" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="205" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="205" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="205" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="205" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="205" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="205" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="205" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="205" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="205" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="205" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="205" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="205" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="205" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="205" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="205" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="205" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="205" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -23978,13 +23954,13 @@
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="222" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1" s="222" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="222" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D1" s="222" t="s">
         <v>151</v>
@@ -23995,13 +23971,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="86" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C2" s="117" t="s">
         <v>1530</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="D2" s="86" t="s">
         <v>1531</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>1532</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
@@ -25029,13 +25005,13 @@
         <v>248</v>
       </c>
       <c r="B3" s="117" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C3" s="117" t="s">
         <v>1533</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="D3" s="117" t="s">
         <v>1534</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25043,13 +25019,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="86" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C4" s="117" t="s">
         <v>1536</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="D4" s="86" t="s">
         <v>1537</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25057,13 +25033,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="86" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C5" s="117" t="s">
         <v>1539</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="D5" s="86" t="s">
         <v>1540</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25071,13 +25047,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="86" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C6" s="117" t="s">
         <v>1542</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="D6" s="86" t="s">
         <v>1543</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25085,13 +25061,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="86" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C7" s="117" t="s">
         <v>1545</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="D7" s="86" t="s">
         <v>1546</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25099,13 +25075,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C8" s="117" t="s">
         <v>1548</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="D8" s="86" t="s">
         <v>1549</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25113,13 +25089,13 @@
         <v>660</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C9" s="117" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25127,13 +25103,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="86" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C10" s="117" t="s">
         <v>1553</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="D10" s="86" t="s">
         <v>1554</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25141,13 +25117,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="86" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C11" s="117" t="s">
         <v>1556</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="D11" s="86" t="s">
         <v>1557</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25155,13 +25131,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C12" s="117" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25169,13 +25145,13 @@
         <v>51</v>
       </c>
       <c r="B13" s="86" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C13" s="117" t="s">
         <v>1561</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="D13" s="86" t="s">
         <v>1562</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25183,13 +25159,13 @@
         <v>533</v>
       </c>
       <c r="B14" s="86" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C14" s="117" t="s">
         <v>1564</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="D14" s="86" t="s">
         <v>1565</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25197,13 +25173,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="86" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C15" s="117" t="s">
         <v>1567</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="D15" s="86" t="s">
         <v>1568</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25211,13 +25187,13 @@
         <v>40</v>
       </c>
       <c r="B16" s="86" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C16" s="117" t="s">
         <v>1570</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="D16" s="86" t="s">
         <v>1571</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25225,13 +25201,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="86" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C17" s="117" t="s">
         <v>1573</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="D17" s="86" t="s">
         <v>1574</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25239,13 +25215,13 @@
         <v>44</v>
       </c>
       <c r="B18" s="86" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C18" s="117" t="s">
         <v>1576</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="D18" s="86" t="s">
         <v>1577</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25253,13 +25229,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="86" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C19" s="117" t="s">
         <v>1579</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="D19" s="86" t="s">
         <v>1580</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25267,13 +25243,13 @@
         <v>50</v>
       </c>
       <c r="B20" s="86" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C20" s="117" t="s">
         <v>1582</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="D20" s="86" t="s">
         <v>1583</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25281,13 +25257,13 @@
         <v>52</v>
       </c>
       <c r="B21" s="86" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C21" s="117" t="s">
         <v>1585</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="D21" s="86" t="s">
         <v>1586</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25295,13 +25271,13 @@
         <v>112</v>
       </c>
       <c r="B22" s="86" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C22" s="117" t="s">
         <v>1588</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="D22" s="86" t="s">
         <v>1589</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25309,13 +25285,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="86" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C23" s="117" t="s">
         <v>1591</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="D23" s="86" t="s">
         <v>1592</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25323,13 +25299,13 @@
         <v>84</v>
       </c>
       <c r="B24" s="86" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C24" s="117" t="s">
         <v>1594</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="D24" s="86" t="s">
         <v>1595</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25337,13 +25313,13 @@
         <v>204</v>
       </c>
       <c r="B25" s="86" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C25" s="117" t="s">
         <v>1597</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="D25" s="86" t="s">
         <v>1598</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25351,13 +25327,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="86" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C26" s="117" t="s">
         <v>1600</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="D26" s="86" t="s">
         <v>1601</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25365,13 +25341,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="86" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C27" s="117" t="s">
         <v>1603</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="D27" s="86" t="s">
         <v>1604</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25379,13 +25355,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="86" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C28" s="117" t="s">
         <v>1606</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="D28" s="86" t="s">
         <v>1607</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25393,13 +25369,13 @@
         <v>535</v>
       </c>
       <c r="B29" s="86" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C29" s="117" t="s">
         <v>1609</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="D29" s="86" t="s">
         <v>1610</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25407,13 +25383,13 @@
         <v>70</v>
       </c>
       <c r="B30" s="86" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C30" s="117" t="s">
         <v>1612</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="D30" s="86" t="s">
         <v>1613</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25421,13 +25397,13 @@
         <v>72</v>
       </c>
       <c r="B31" s="86" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C31" s="117" t="s">
         <v>1615</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="D31" s="86" t="s">
         <v>1616</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25435,13 +25411,13 @@
         <v>74</v>
       </c>
       <c r="B32" s="86" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C32" s="117" t="s">
         <v>1618</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="D32" s="86" t="s">
         <v>1619</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25449,13 +25425,13 @@
         <v>76</v>
       </c>
       <c r="B33" s="86" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C33" s="117" t="s">
         <v>1621</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="D33" s="86" t="s">
         <v>1622</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25463,13 +25439,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="86" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C34" s="117" t="s">
         <v>1624</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="D34" s="86" t="s">
         <v>1625</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25477,13 +25453,13 @@
         <v>96</v>
       </c>
       <c r="B35" s="86" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C35" s="117" t="s">
         <v>1627</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="D35" s="86" t="s">
         <v>1628</v>
-      </c>
-      <c r="D35" s="86" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25491,13 +25467,13 @@
         <v>100</v>
       </c>
       <c r="B36" s="86" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C36" s="117" t="s">
         <v>1630</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="D36" s="86" t="s">
         <v>1631</v>
-      </c>
-      <c r="D36" s="86" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25505,13 +25481,13 @@
         <v>854</v>
       </c>
       <c r="B37" s="86" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C37" s="117" t="s">
         <v>1633</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="D37" s="86" t="s">
         <v>1634</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25519,13 +25495,13 @@
         <v>108</v>
       </c>
       <c r="B38" s="86" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C38" s="117" t="s">
         <v>1636</v>
       </c>
-      <c r="C38" s="117" t="s">
+      <c r="D38" s="86" t="s">
         <v>1637</v>
-      </c>
-      <c r="D38" s="86" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25533,13 +25509,13 @@
         <v>116</v>
       </c>
       <c r="B39" s="86" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C39" s="117" t="s">
         <v>1639</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="D39" s="86" t="s">
         <v>1640</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25547,13 +25523,13 @@
         <v>120</v>
       </c>
       <c r="B40" s="86" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C40" s="117" t="s">
         <v>1642</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="D40" s="86" t="s">
         <v>1643</v>
-      </c>
-      <c r="D40" s="86" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25561,13 +25537,13 @@
         <v>124</v>
       </c>
       <c r="B41" s="86" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C41" s="117" t="s">
         <v>1645</v>
       </c>
-      <c r="C41" s="117" t="s">
+      <c r="D41" s="86" t="s">
         <v>1646</v>
-      </c>
-      <c r="D41" s="86" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25575,13 +25551,13 @@
         <v>132</v>
       </c>
       <c r="B42" s="86" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C42" s="117" t="s">
         <v>1648</v>
       </c>
-      <c r="C42" s="117" t="s">
+      <c r="D42" s="86" t="s">
         <v>1649</v>
-      </c>
-      <c r="D42" s="86" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25589,13 +25565,13 @@
         <v>136</v>
       </c>
       <c r="B43" s="86" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C43" s="117" t="s">
         <v>1651</v>
       </c>
-      <c r="C43" s="117" t="s">
+      <c r="D43" s="86" t="s">
         <v>1652</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25603,13 +25579,13 @@
         <v>140</v>
       </c>
       <c r="B44" s="86" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C44" s="117" t="s">
         <v>1654</v>
       </c>
-      <c r="C44" s="117" t="s">
+      <c r="D44" s="86" t="s">
         <v>1655</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25617,13 +25593,13 @@
         <v>148</v>
       </c>
       <c r="B45" s="86" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C45" s="117" t="s">
         <v>1657</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="D45" s="86" t="s">
         <v>1658</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25631,13 +25607,13 @@
         <v>152</v>
       </c>
       <c r="B46" s="86" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C46" s="117" t="s">
         <v>1660</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="D46" s="86" t="s">
         <v>1661</v>
-      </c>
-      <c r="D46" s="86" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25645,13 +25621,13 @@
         <v>156</v>
       </c>
       <c r="B47" s="86" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C47" s="117" t="s">
         <v>1663</v>
       </c>
-      <c r="C47" s="117" t="s">
+      <c r="D47" s="86" t="s">
         <v>1664</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25659,13 +25635,13 @@
         <v>162</v>
       </c>
       <c r="B48" s="86" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C48" s="117" t="s">
         <v>1666</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="D48" s="86" t="s">
         <v>1667</v>
-      </c>
-      <c r="D48" s="86" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25673,13 +25649,13 @@
         <v>166</v>
       </c>
       <c r="B49" s="86" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C49" s="117" t="s">
         <v>562</v>
       </c>
       <c r="D49" s="86" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25687,13 +25663,13 @@
         <v>170</v>
       </c>
       <c r="B50" s="86" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C50" s="117" t="s">
         <v>1671</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="D50" s="86" t="s">
         <v>1672</v>
-      </c>
-      <c r="D50" s="86" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25701,13 +25677,13 @@
         <v>174</v>
       </c>
       <c r="B51" s="86" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C51" s="117" t="s">
         <v>1674</v>
       </c>
-      <c r="C51" s="117" t="s">
+      <c r="D51" s="86" t="s">
         <v>1675</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25715,13 +25691,13 @@
         <v>178</v>
       </c>
       <c r="B52" s="86" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C52" s="117" t="s">
         <v>1677</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="D52" s="86" t="s">
         <v>1678</v>
-      </c>
-      <c r="D52" s="86" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25729,13 +25705,13 @@
         <v>180</v>
       </c>
       <c r="B53" s="86" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C53" s="117" t="s">
         <v>1680</v>
       </c>
-      <c r="C53" s="117" t="s">
+      <c r="D53" s="86" t="s">
         <v>1681</v>
-      </c>
-      <c r="D53" s="86" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25743,13 +25719,13 @@
         <v>184</v>
       </c>
       <c r="B54" s="86" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C54" s="117" t="s">
         <v>1683</v>
       </c>
-      <c r="C54" s="117" t="s">
+      <c r="D54" s="86" t="s">
         <v>1684</v>
-      </c>
-      <c r="D54" s="86" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25757,13 +25733,13 @@
         <v>188</v>
       </c>
       <c r="B55" s="86" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C55" s="117" t="s">
         <v>1686</v>
       </c>
-      <c r="C55" s="117" t="s">
+      <c r="D55" s="86" t="s">
         <v>1687</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25771,13 +25747,13 @@
         <v>384</v>
       </c>
       <c r="B56" s="86" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C56" s="117" t="s">
         <v>1689</v>
       </c>
-      <c r="C56" s="117" t="s">
+      <c r="D56" s="86" t="s">
         <v>1690</v>
-      </c>
-      <c r="D56" s="86" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25785,13 +25761,13 @@
         <v>191</v>
       </c>
       <c r="B57" s="86" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C57" s="117" t="s">
         <v>1692</v>
       </c>
-      <c r="C57" s="117" t="s">
+      <c r="D57" s="86" t="s">
         <v>1693</v>
-      </c>
-      <c r="D57" s="86" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25799,13 +25775,13 @@
         <v>192</v>
       </c>
       <c r="B58" s="86" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C58" s="117" t="s">
         <v>1695</v>
       </c>
-      <c r="C58" s="117" t="s">
+      <c r="D58" s="86" t="s">
         <v>1696</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25813,13 +25789,13 @@
         <v>531</v>
       </c>
       <c r="B59" s="86" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C59" s="117" t="s">
         <v>1698</v>
       </c>
-      <c r="C59" s="117" t="s">
+      <c r="D59" s="86" t="s">
         <v>1699</v>
-      </c>
-      <c r="D59" s="86" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25827,13 +25803,13 @@
         <v>196</v>
       </c>
       <c r="B60" s="86" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C60" s="117" t="s">
         <v>1701</v>
       </c>
-      <c r="C60" s="117" t="s">
+      <c r="D60" s="86" t="s">
         <v>1702</v>
-      </c>
-      <c r="D60" s="86" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25841,13 +25817,13 @@
         <v>203</v>
       </c>
       <c r="B61" s="86" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C61" s="117" t="s">
         <v>1704</v>
       </c>
-      <c r="C61" s="117" t="s">
+      <c r="D61" s="86" t="s">
         <v>1705</v>
-      </c>
-      <c r="D61" s="86" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25855,13 +25831,13 @@
         <v>208</v>
       </c>
       <c r="B62" s="86" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C62" s="117" t="s">
         <v>1707</v>
       </c>
-      <c r="C62" s="117" t="s">
+      <c r="D62" s="86" t="s">
         <v>1708</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25869,13 +25845,13 @@
         <v>262</v>
       </c>
       <c r="B63" s="86" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C63" s="117" t="s">
         <v>1710</v>
       </c>
-      <c r="C63" s="117" t="s">
+      <c r="D63" s="86" t="s">
         <v>1711</v>
-      </c>
-      <c r="D63" s="86" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25883,13 +25859,13 @@
         <v>212</v>
       </c>
       <c r="B64" s="86" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C64" s="117" t="s">
         <v>1713</v>
       </c>
-      <c r="C64" s="117" t="s">
+      <c r="D64" s="86" t="s">
         <v>1714</v>
-      </c>
-      <c r="D64" s="86" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25897,13 +25873,13 @@
         <v>214</v>
       </c>
       <c r="B65" s="86" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C65" s="117" t="s">
         <v>1716</v>
       </c>
-      <c r="C65" s="117" t="s">
+      <c r="D65" s="86" t="s">
         <v>1717</v>
-      </c>
-      <c r="D65" s="86" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25911,13 +25887,13 @@
         <v>218</v>
       </c>
       <c r="B66" s="86" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C66" s="117" t="s">
         <v>1719</v>
       </c>
-      <c r="C66" s="117" t="s">
+      <c r="D66" s="86" t="s">
         <v>1720</v>
-      </c>
-      <c r="D66" s="86" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25925,13 +25901,13 @@
         <v>818</v>
       </c>
       <c r="B67" s="86" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C67" s="117" t="s">
         <v>1722</v>
       </c>
-      <c r="C67" s="117" t="s">
+      <c r="D67" s="86" t="s">
         <v>1723</v>
-      </c>
-      <c r="D67" s="86" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25939,13 +25915,13 @@
         <v>222</v>
       </c>
       <c r="B68" s="86" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C68" s="117" t="s">
         <v>1725</v>
       </c>
-      <c r="C68" s="117" t="s">
+      <c r="D68" s="86" t="s">
         <v>1726</v>
-      </c>
-      <c r="D68" s="86" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25953,13 +25929,13 @@
         <v>226</v>
       </c>
       <c r="B69" s="86" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C69" s="117" t="s">
         <v>1728</v>
       </c>
-      <c r="C69" s="117" t="s">
+      <c r="D69" s="86" t="s">
         <v>1729</v>
-      </c>
-      <c r="D69" s="86" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25967,13 +25943,13 @@
         <v>232</v>
       </c>
       <c r="B70" s="86" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C70" s="117" t="s">
         <v>1731</v>
       </c>
-      <c r="C70" s="117" t="s">
+      <c r="D70" s="86" t="s">
         <v>1732</v>
-      </c>
-      <c r="D70" s="86" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25981,13 +25957,13 @@
         <v>233</v>
       </c>
       <c r="B71" s="86" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C71" s="117" t="s">
         <v>1734</v>
       </c>
-      <c r="C71" s="117" t="s">
+      <c r="D71" s="86" t="s">
         <v>1735</v>
-      </c>
-      <c r="D71" s="86" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25995,13 +25971,13 @@
         <v>231</v>
       </c>
       <c r="B72" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C72" s="117" t="s">
         <v>1737</v>
       </c>
-      <c r="C72" s="117" t="s">
+      <c r="D72" s="86" t="s">
         <v>1738</v>
-      </c>
-      <c r="D72" s="86" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26009,13 +25985,13 @@
         <v>238</v>
       </c>
       <c r="B73" s="86" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C73" s="117" t="s">
         <v>1740</v>
       </c>
-      <c r="C73" s="117" t="s">
+      <c r="D73" s="86" t="s">
         <v>1741</v>
-      </c>
-      <c r="D73" s="86" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26023,13 +25999,13 @@
         <v>234</v>
       </c>
       <c r="B74" s="86" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C74" s="117" t="s">
         <v>1743</v>
       </c>
-      <c r="C74" s="117" t="s">
+      <c r="D74" s="86" t="s">
         <v>1744</v>
-      </c>
-      <c r="D74" s="86" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26037,13 +26013,13 @@
         <v>242</v>
       </c>
       <c r="B75" s="86" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C75" s="117" t="s">
         <v>1746</v>
       </c>
-      <c r="C75" s="117" t="s">
+      <c r="D75" s="86" t="s">
         <v>1747</v>
-      </c>
-      <c r="D75" s="86" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26051,13 +26027,13 @@
         <v>246</v>
       </c>
       <c r="B76" s="86" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C76" s="117" t="s">
         <v>1749</v>
       </c>
-      <c r="C76" s="117" t="s">
+      <c r="D76" s="86" t="s">
         <v>1750</v>
-      </c>
-      <c r="D76" s="86" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26068,10 +26044,10 @@
         <v>646</v>
       </c>
       <c r="C77" s="117" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D77" s="86" t="s">
         <v>1752</v>
-      </c>
-      <c r="D77" s="86" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26079,13 +26055,13 @@
         <v>254</v>
       </c>
       <c r="B78" s="86" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C78" s="117" t="s">
         <v>1754</v>
       </c>
-      <c r="C78" s="117" t="s">
+      <c r="D78" s="86" t="s">
         <v>1755</v>
-      </c>
-      <c r="D78" s="86" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26093,13 +26069,13 @@
         <v>258</v>
       </c>
       <c r="B79" s="86" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C79" s="117" t="s">
         <v>1757</v>
       </c>
-      <c r="C79" s="117" t="s">
+      <c r="D79" s="86" t="s">
         <v>1758</v>
-      </c>
-      <c r="D79" s="86" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26107,13 +26083,13 @@
         <v>260</v>
       </c>
       <c r="B80" s="86" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C80" s="117" t="s">
         <v>922</v>
       </c>
       <c r="D80" s="86" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26121,13 +26097,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="86" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C81" s="117" t="s">
         <v>1762</v>
       </c>
-      <c r="C81" s="117" t="s">
+      <c r="D81" s="86" t="s">
         <v>1763</v>
-      </c>
-      <c r="D81" s="86" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26135,13 +26111,13 @@
         <v>270</v>
       </c>
       <c r="B82" s="86" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C82" s="117" t="s">
         <v>1765</v>
       </c>
-      <c r="C82" s="117" t="s">
+      <c r="D82" s="86" t="s">
         <v>1766</v>
-      </c>
-      <c r="D82" s="86" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26149,13 +26125,13 @@
         <v>268</v>
       </c>
       <c r="B83" s="86" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C83" s="117" t="s">
         <v>1768</v>
       </c>
-      <c r="C83" s="117" t="s">
+      <c r="D83" s="86" t="s">
         <v>1769</v>
-      </c>
-      <c r="D83" s="86" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26163,13 +26139,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="86" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C84" s="117" t="s">
         <v>1771</v>
       </c>
-      <c r="C84" s="117" t="s">
+      <c r="D84" s="86" t="s">
         <v>1772</v>
-      </c>
-      <c r="D84" s="86" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26177,13 +26153,13 @@
         <v>288</v>
       </c>
       <c r="B85" s="86" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C85" s="117" t="s">
         <v>1774</v>
       </c>
-      <c r="C85" s="117" t="s">
+      <c r="D85" s="86" t="s">
         <v>1775</v>
-      </c>
-      <c r="D85" s="86" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26191,13 +26167,13 @@
         <v>292</v>
       </c>
       <c r="B86" s="86" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C86" s="117" t="s">
         <v>1777</v>
       </c>
-      <c r="C86" s="117" t="s">
+      <c r="D86" s="86" t="s">
         <v>1778</v>
-      </c>
-      <c r="D86" s="86" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26205,13 +26181,13 @@
         <v>300</v>
       </c>
       <c r="B87" s="86" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C87" s="117" t="s">
         <v>1780</v>
       </c>
-      <c r="C87" s="117" t="s">
+      <c r="D87" s="86" t="s">
         <v>1781</v>
-      </c>
-      <c r="D87" s="86" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26219,13 +26195,13 @@
         <v>304</v>
       </c>
       <c r="B88" s="86" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C88" s="117" t="s">
         <v>1783</v>
       </c>
-      <c r="C88" s="117" t="s">
+      <c r="D88" s="86" t="s">
         <v>1784</v>
-      </c>
-      <c r="D88" s="86" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26233,13 +26209,13 @@
         <v>308</v>
       </c>
       <c r="B89" s="86" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C89" s="117" t="s">
         <v>1786</v>
       </c>
-      <c r="C89" s="117" t="s">
+      <c r="D89" s="86" t="s">
         <v>1787</v>
-      </c>
-      <c r="D89" s="86" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26247,13 +26223,13 @@
         <v>312</v>
       </c>
       <c r="B90" s="86" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C90" s="117" t="s">
         <v>1789</v>
       </c>
-      <c r="C90" s="117" t="s">
+      <c r="D90" s="86" t="s">
         <v>1790</v>
-      </c>
-      <c r="D90" s="86" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26261,13 +26237,13 @@
         <v>316</v>
       </c>
       <c r="B91" s="86" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C91" s="117" t="s">
         <v>1792</v>
       </c>
-      <c r="C91" s="117" t="s">
+      <c r="D91" s="86" t="s">
         <v>1793</v>
-      </c>
-      <c r="D91" s="86" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26275,13 +26251,13 @@
         <v>320</v>
       </c>
       <c r="B92" s="86" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C92" s="117" t="s">
         <v>1795</v>
       </c>
-      <c r="C92" s="117" t="s">
+      <c r="D92" s="86" t="s">
         <v>1796</v>
-      </c>
-      <c r="D92" s="86" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26289,13 +26265,13 @@
         <v>831</v>
       </c>
       <c r="B93" s="86" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C93" s="117" t="s">
         <v>1798</v>
       </c>
-      <c r="C93" s="117" t="s">
+      <c r="D93" s="86" t="s">
         <v>1799</v>
-      </c>
-      <c r="D93" s="86" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26303,13 +26279,13 @@
         <v>324</v>
       </c>
       <c r="B94" s="86" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C94" s="117" t="s">
         <v>1801</v>
       </c>
-      <c r="C94" s="117" t="s">
+      <c r="D94" s="86" t="s">
         <v>1802</v>
-      </c>
-      <c r="D94" s="86" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26317,13 +26293,13 @@
         <v>624</v>
       </c>
       <c r="B95" s="86" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C95" s="117" t="s">
         <v>1804</v>
       </c>
-      <c r="C95" s="117" t="s">
+      <c r="D95" s="86" t="s">
         <v>1805</v>
-      </c>
-      <c r="D95" s="86" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26331,13 +26307,13 @@
         <v>328</v>
       </c>
       <c r="B96" s="86" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C96" s="117" t="s">
         <v>1807</v>
       </c>
-      <c r="C96" s="117" t="s">
+      <c r="D96" s="86" t="s">
         <v>1808</v>
-      </c>
-      <c r="D96" s="86" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26345,13 +26321,13 @@
         <v>332</v>
       </c>
       <c r="B97" s="86" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C97" s="117" t="s">
         <v>1810</v>
       </c>
-      <c r="C97" s="117" t="s">
+      <c r="D97" s="86" t="s">
         <v>1811</v>
-      </c>
-      <c r="D97" s="86" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26359,13 +26335,13 @@
         <v>334</v>
       </c>
       <c r="B98" s="86" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C98" s="117" t="s">
         <v>1813</v>
       </c>
-      <c r="C98" s="117" t="s">
+      <c r="D98" s="86" t="s">
         <v>1814</v>
-      </c>
-      <c r="D98" s="86" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26373,13 +26349,13 @@
         <v>336</v>
       </c>
       <c r="B99" s="86" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C99" s="117" t="s">
         <v>1816</v>
       </c>
-      <c r="C99" s="117" t="s">
+      <c r="D99" s="86" t="s">
         <v>1817</v>
-      </c>
-      <c r="D99" s="86" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26387,13 +26363,13 @@
         <v>340</v>
       </c>
       <c r="B100" s="86" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C100" s="117" t="s">
         <v>1819</v>
       </c>
-      <c r="C100" s="117" t="s">
+      <c r="D100" s="86" t="s">
         <v>1820</v>
-      </c>
-      <c r="D100" s="86" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26401,13 +26377,13 @@
         <v>344</v>
       </c>
       <c r="B101" s="86" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C101" s="117" t="s">
         <v>1822</v>
       </c>
-      <c r="C101" s="117" t="s">
+      <c r="D101" s="86" t="s">
         <v>1823</v>
-      </c>
-      <c r="D101" s="86" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26415,13 +26391,13 @@
         <v>348</v>
       </c>
       <c r="B102" s="86" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C102" s="117" t="s">
         <v>1825</v>
       </c>
-      <c r="C102" s="117" t="s">
+      <c r="D102" s="86" t="s">
         <v>1826</v>
-      </c>
-      <c r="D102" s="86" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26429,13 +26405,13 @@
         <v>352</v>
       </c>
       <c r="B103" s="86" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C103" s="117" t="s">
         <v>1828</v>
       </c>
-      <c r="C103" s="117" t="s">
+      <c r="D103" s="86" t="s">
         <v>1829</v>
-      </c>
-      <c r="D103" s="86" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26443,13 +26419,13 @@
         <v>356</v>
       </c>
       <c r="B104" s="86" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C104" s="117" t="s">
         <v>1831</v>
       </c>
-      <c r="C104" s="117" t="s">
+      <c r="D104" s="86" t="s">
         <v>1832</v>
-      </c>
-      <c r="D104" s="86" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26457,13 +26433,13 @@
         <v>360</v>
       </c>
       <c r="B105" s="86" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C105" s="117" t="s">
         <v>1834</v>
       </c>
-      <c r="C105" s="117" t="s">
+      <c r="D105" s="86" t="s">
         <v>1835</v>
-      </c>
-      <c r="D105" s="86" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26471,13 +26447,13 @@
         <v>364</v>
       </c>
       <c r="B106" s="86" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C106" s="117" t="s">
         <v>1837</v>
       </c>
-      <c r="C106" s="117" t="s">
+      <c r="D106" s="86" t="s">
         <v>1838</v>
-      </c>
-      <c r="D106" s="86" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26485,13 +26461,13 @@
         <v>368</v>
       </c>
       <c r="B107" s="86" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C107" s="117" t="s">
         <v>1840</v>
       </c>
-      <c r="C107" s="117" t="s">
+      <c r="D107" s="86" t="s">
         <v>1841</v>
-      </c>
-      <c r="D107" s="86" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26499,13 +26475,13 @@
         <v>372</v>
       </c>
       <c r="B108" s="86" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C108" s="117" t="s">
         <v>1843</v>
       </c>
-      <c r="C108" s="117" t="s">
+      <c r="D108" s="86" t="s">
         <v>1844</v>
-      </c>
-      <c r="D108" s="86" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26513,13 +26489,13 @@
         <v>833</v>
       </c>
       <c r="B109" s="86" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C109" s="117" t="s">
         <v>1846</v>
       </c>
-      <c r="C109" s="117" t="s">
+      <c r="D109" s="86" t="s">
         <v>1847</v>
-      </c>
-      <c r="D109" s="86" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26527,13 +26503,13 @@
         <v>376</v>
       </c>
       <c r="B110" s="86" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C110" s="117" t="s">
         <v>1849</v>
       </c>
-      <c r="C110" s="117" t="s">
+      <c r="D110" s="86" t="s">
         <v>1850</v>
-      </c>
-      <c r="D110" s="86" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26541,13 +26517,13 @@
         <v>380</v>
       </c>
       <c r="B111" s="86" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C111" s="117" t="s">
         <v>1852</v>
       </c>
-      <c r="C111" s="117" t="s">
+      <c r="D111" s="86" t="s">
         <v>1853</v>
-      </c>
-      <c r="D111" s="86" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26555,13 +26531,13 @@
         <v>388</v>
       </c>
       <c r="B112" s="86" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C112" s="117" t="s">
         <v>1855</v>
       </c>
-      <c r="C112" s="117" t="s">
+      <c r="D112" s="86" t="s">
         <v>1856</v>
-      </c>
-      <c r="D112" s="86" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26569,13 +26545,13 @@
         <v>392</v>
       </c>
       <c r="B113" s="86" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C113" s="117" t="s">
         <v>1858</v>
       </c>
-      <c r="C113" s="117" t="s">
+      <c r="D113" s="86" t="s">
         <v>1859</v>
-      </c>
-      <c r="D113" s="86" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26583,13 +26559,13 @@
         <v>832</v>
       </c>
       <c r="B114" s="86" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C114" s="117" t="s">
         <v>1861</v>
       </c>
-      <c r="C114" s="117" t="s">
+      <c r="D114" s="86" t="s">
         <v>1862</v>
-      </c>
-      <c r="D114" s="86" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26597,13 +26573,13 @@
         <v>400</v>
       </c>
       <c r="B115" s="86" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C115" s="117" t="s">
         <v>1864</v>
       </c>
-      <c r="C115" s="117" t="s">
+      <c r="D115" s="86" t="s">
         <v>1865</v>
-      </c>
-      <c r="D115" s="86" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26611,13 +26587,13 @@
         <v>398</v>
       </c>
       <c r="B116" s="86" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C116" s="117" t="s">
         <v>1867</v>
       </c>
-      <c r="C116" s="117" t="s">
+      <c r="D116" s="86" t="s">
         <v>1868</v>
-      </c>
-      <c r="D116" s="86" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26625,13 +26601,13 @@
         <v>404</v>
       </c>
       <c r="B117" s="86" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C117" s="117" t="s">
         <v>1870</v>
       </c>
-      <c r="C117" s="117" t="s">
+      <c r="D117" s="86" t="s">
         <v>1871</v>
-      </c>
-      <c r="D117" s="86" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26639,13 +26615,13 @@
         <v>296</v>
       </c>
       <c r="B118" s="86" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C118" s="117" t="s">
         <v>1873</v>
       </c>
-      <c r="C118" s="117" t="s">
+      <c r="D118" s="86" t="s">
         <v>1874</v>
-      </c>
-      <c r="D118" s="86" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26653,13 +26629,13 @@
         <v>408</v>
       </c>
       <c r="B119" s="86" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C119" s="117" t="s">
         <v>1876</v>
       </c>
-      <c r="C119" s="117" t="s">
+      <c r="D119" s="86" t="s">
         <v>1877</v>
-      </c>
-      <c r="D119" s="86" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26667,13 +26643,13 @@
         <v>410</v>
       </c>
       <c r="B120" s="86" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C120" s="117" t="s">
         <v>1879</v>
       </c>
-      <c r="C120" s="117" t="s">
+      <c r="D120" s="86" t="s">
         <v>1880</v>
-      </c>
-      <c r="D120" s="86" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26681,13 +26657,13 @@
         <v>414</v>
       </c>
       <c r="B121" s="86" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C121" s="117" t="s">
         <v>1882</v>
       </c>
-      <c r="C121" s="117" t="s">
+      <c r="D121" s="86" t="s">
         <v>1883</v>
-      </c>
-      <c r="D121" s="86" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26695,13 +26671,13 @@
         <v>417</v>
       </c>
       <c r="B122" s="86" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C122" s="117" t="s">
         <v>1885</v>
       </c>
-      <c r="C122" s="117" t="s">
+      <c r="D122" s="86" t="s">
         <v>1886</v>
-      </c>
-      <c r="D122" s="86" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26709,13 +26685,13 @@
         <v>418</v>
       </c>
       <c r="B123" s="86" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C123" s="117" t="s">
         <v>1888</v>
       </c>
-      <c r="C123" s="117" t="s">
+      <c r="D123" s="86" t="s">
         <v>1889</v>
-      </c>
-      <c r="D123" s="86" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26723,13 +26699,13 @@
         <v>428</v>
       </c>
       <c r="B124" s="86" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C124" s="117" t="s">
         <v>1891</v>
       </c>
-      <c r="C124" s="117" t="s">
+      <c r="D124" s="86" t="s">
         <v>1892</v>
-      </c>
-      <c r="D124" s="86" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26737,13 +26713,13 @@
         <v>422</v>
       </c>
       <c r="B125" s="86" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C125" s="117" t="s">
         <v>1894</v>
       </c>
-      <c r="C125" s="117" t="s">
+      <c r="D125" s="86" t="s">
         <v>1895</v>
-      </c>
-      <c r="D125" s="86" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26751,13 +26727,13 @@
         <v>426</v>
       </c>
       <c r="B126" s="86" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C126" s="117" t="s">
         <v>1897</v>
       </c>
-      <c r="C126" s="117" t="s">
+      <c r="D126" s="86" t="s">
         <v>1898</v>
-      </c>
-      <c r="D126" s="86" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26765,13 +26741,13 @@
         <v>430</v>
       </c>
       <c r="B127" s="86" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C127" s="117" t="s">
         <v>1900</v>
       </c>
-      <c r="C127" s="117" t="s">
+      <c r="D127" s="86" t="s">
         <v>1901</v>
-      </c>
-      <c r="D127" s="86" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26779,13 +26755,13 @@
         <v>434</v>
       </c>
       <c r="B128" s="86" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C128" s="117" t="s">
         <v>1903</v>
       </c>
-      <c r="C128" s="117" t="s">
+      <c r="D128" s="86" t="s">
         <v>1904</v>
-      </c>
-      <c r="D128" s="86" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26793,13 +26769,13 @@
         <v>438</v>
       </c>
       <c r="B129" s="86" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C129" s="117" t="s">
         <v>1906</v>
       </c>
-      <c r="C129" s="117" t="s">
+      <c r="D129" s="86" t="s">
         <v>1907</v>
-      </c>
-      <c r="D129" s="86" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26807,13 +26783,13 @@
         <v>440</v>
       </c>
       <c r="B130" s="86" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C130" s="117" t="s">
         <v>1909</v>
       </c>
-      <c r="C130" s="117" t="s">
+      <c r="D130" s="86" t="s">
         <v>1910</v>
-      </c>
-      <c r="D130" s="86" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26821,13 +26797,13 @@
         <v>442</v>
       </c>
       <c r="B131" s="86" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C131" s="117" t="s">
         <v>1912</v>
       </c>
-      <c r="C131" s="117" t="s">
+      <c r="D131" s="86" t="s">
         <v>1913</v>
-      </c>
-      <c r="D131" s="86" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26835,13 +26811,13 @@
         <v>446</v>
       </c>
       <c r="B132" s="86" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C132" s="117" t="s">
         <v>1915</v>
       </c>
-      <c r="C132" s="117" t="s">
+      <c r="D132" s="86" t="s">
         <v>1916</v>
-      </c>
-      <c r="D132" s="86" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26849,13 +26825,13 @@
         <v>807</v>
       </c>
       <c r="B133" s="86" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C133" s="117" t="s">
         <v>1918</v>
       </c>
-      <c r="C133" s="117" t="s">
+      <c r="D133" s="86" t="s">
         <v>1919</v>
-      </c>
-      <c r="D133" s="86" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26863,13 +26839,13 @@
         <v>450</v>
       </c>
       <c r="B134" s="86" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C134" s="117" t="s">
         <v>1921</v>
       </c>
-      <c r="C134" s="117" t="s">
+      <c r="D134" s="86" t="s">
         <v>1922</v>
-      </c>
-      <c r="D134" s="86" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26877,13 +26853,13 @@
         <v>454</v>
       </c>
       <c r="B135" s="86" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C135" s="117" t="s">
         <v>1924</v>
       </c>
-      <c r="C135" s="117" t="s">
+      <c r="D135" s="86" t="s">
         <v>1925</v>
-      </c>
-      <c r="D135" s="86" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26891,13 +26867,13 @@
         <v>458</v>
       </c>
       <c r="B136" s="86" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C136" s="117" t="s">
         <v>1927</v>
       </c>
-      <c r="C136" s="117" t="s">
+      <c r="D136" s="86" t="s">
         <v>1928</v>
-      </c>
-      <c r="D136" s="86" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26905,13 +26881,13 @@
         <v>462</v>
       </c>
       <c r="B137" s="86" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C137" s="117" t="s">
         <v>1930</v>
       </c>
-      <c r="C137" s="117" t="s">
+      <c r="D137" s="86" t="s">
         <v>1931</v>
-      </c>
-      <c r="D137" s="86" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26919,13 +26895,13 @@
         <v>466</v>
       </c>
       <c r="B138" s="86" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C138" s="117" t="s">
         <v>1933</v>
       </c>
-      <c r="C138" s="117" t="s">
+      <c r="D138" s="86" t="s">
         <v>1934</v>
-      </c>
-      <c r="D138" s="86" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26933,13 +26909,13 @@
         <v>470</v>
       </c>
       <c r="B139" s="86" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C139" s="117" t="s">
         <v>1936</v>
       </c>
-      <c r="C139" s="117" t="s">
+      <c r="D139" s="86" t="s">
         <v>1937</v>
-      </c>
-      <c r="D139" s="86" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26947,13 +26923,13 @@
         <v>584</v>
       </c>
       <c r="B140" s="86" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C140" s="117" t="s">
         <v>1939</v>
       </c>
-      <c r="C140" s="117" t="s">
+      <c r="D140" s="86" t="s">
         <v>1940</v>
-      </c>
-      <c r="D140" s="86" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26961,13 +26937,13 @@
         <v>474</v>
       </c>
       <c r="B141" s="86" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C141" s="117" t="s">
         <v>1942</v>
       </c>
-      <c r="C141" s="117" t="s">
+      <c r="D141" s="86" t="s">
         <v>1943</v>
-      </c>
-      <c r="D141" s="86" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26975,13 +26951,13 @@
         <v>478</v>
       </c>
       <c r="B142" s="86" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C142" s="117" t="s">
         <v>1945</v>
       </c>
-      <c r="C142" s="117" t="s">
+      <c r="D142" s="86" t="s">
         <v>1946</v>
-      </c>
-      <c r="D142" s="86" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26989,13 +26965,13 @@
         <v>480</v>
       </c>
       <c r="B143" s="86" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C143" s="117" t="s">
         <v>1948</v>
       </c>
-      <c r="C143" s="117" t="s">
+      <c r="D143" s="86" t="s">
         <v>1949</v>
-      </c>
-      <c r="D143" s="86" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27003,13 +26979,13 @@
         <v>175</v>
       </c>
       <c r="B144" s="86" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C144" s="117" t="s">
         <v>1951</v>
       </c>
-      <c r="C144" s="117" t="s">
+      <c r="D144" s="86" t="s">
         <v>1952</v>
-      </c>
-      <c r="D144" s="86" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27017,13 +26993,13 @@
         <v>484</v>
       </c>
       <c r="B145" s="86" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C145" s="117" t="s">
         <v>1954</v>
       </c>
-      <c r="C145" s="117" t="s">
+      <c r="D145" s="86" t="s">
         <v>1955</v>
-      </c>
-      <c r="D145" s="86" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27031,13 +27007,13 @@
         <v>583</v>
       </c>
       <c r="B146" s="86" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C146" s="117" t="s">
         <v>1957</v>
       </c>
-      <c r="C146" s="117" t="s">
+      <c r="D146" s="86" t="s">
         <v>1958</v>
-      </c>
-      <c r="D146" s="86" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27045,13 +27021,13 @@
         <v>498</v>
       </c>
       <c r="B147" s="86" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C147" s="117" t="s">
         <v>1960</v>
       </c>
-      <c r="C147" s="117" t="s">
+      <c r="D147" s="86" t="s">
         <v>1961</v>
-      </c>
-      <c r="D147" s="86" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27059,13 +27035,13 @@
         <v>492</v>
       </c>
       <c r="B148" s="86" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C148" s="117" t="s">
         <v>1963</v>
       </c>
-      <c r="C148" s="117" t="s">
+      <c r="D148" s="86" t="s">
         <v>1964</v>
-      </c>
-      <c r="D148" s="86" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27073,13 +27049,13 @@
         <v>496</v>
       </c>
       <c r="B149" s="86" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C149" s="117" t="s">
         <v>1061</v>
       </c>
       <c r="D149" s="86" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27087,13 +27063,13 @@
         <v>499</v>
       </c>
       <c r="B150" s="86" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C150" s="117" t="s">
         <v>1968</v>
       </c>
-      <c r="C150" s="117" t="s">
+      <c r="D150" s="86" t="s">
         <v>1969</v>
-      </c>
-      <c r="D150" s="86" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27101,13 +27077,13 @@
         <v>500</v>
       </c>
       <c r="B151" s="86" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C151" s="117" t="s">
         <v>1971</v>
       </c>
-      <c r="C151" s="117" t="s">
+      <c r="D151" s="86" t="s">
         <v>1972</v>
-      </c>
-      <c r="D151" s="86" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27115,13 +27091,13 @@
         <v>504</v>
       </c>
       <c r="B152" s="86" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C152" s="117" t="s">
         <v>1974</v>
       </c>
-      <c r="C152" s="117" t="s">
+      <c r="D152" s="86" t="s">
         <v>1975</v>
-      </c>
-      <c r="D152" s="86" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27129,13 +27105,13 @@
         <v>508</v>
       </c>
       <c r="B153" s="86" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C153" s="117" t="s">
         <v>1977</v>
       </c>
-      <c r="C153" s="117" t="s">
+      <c r="D153" s="86" t="s">
         <v>1978</v>
-      </c>
-      <c r="D153" s="86" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27143,13 +27119,13 @@
         <v>104</v>
       </c>
       <c r="B154" s="86" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C154" s="117" t="s">
         <v>1980</v>
       </c>
-      <c r="C154" s="117" t="s">
+      <c r="D154" s="86" t="s">
         <v>1981</v>
-      </c>
-      <c r="D154" s="86" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27157,13 +27133,13 @@
         <v>516</v>
       </c>
       <c r="B155" s="86" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C155" s="117" t="s">
         <v>1983</v>
       </c>
-      <c r="C155" s="117" t="s">
+      <c r="D155" s="86" t="s">
         <v>1984</v>
-      </c>
-      <c r="D155" s="86" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27171,13 +27147,13 @@
         <v>520</v>
       </c>
       <c r="B156" s="86" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C156" s="117" t="s">
         <v>1986</v>
       </c>
-      <c r="C156" s="117" t="s">
+      <c r="D156" s="86" t="s">
         <v>1987</v>
-      </c>
-      <c r="D156" s="86" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27185,13 +27161,13 @@
         <v>524</v>
       </c>
       <c r="B157" s="86" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C157" s="117" t="s">
         <v>1989</v>
       </c>
-      <c r="C157" s="117" t="s">
+      <c r="D157" s="86" t="s">
         <v>1990</v>
-      </c>
-      <c r="D157" s="86" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27199,13 +27175,13 @@
         <v>528</v>
       </c>
       <c r="B158" s="86" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C158" s="117" t="s">
         <v>1992</v>
       </c>
-      <c r="C158" s="117" t="s">
+      <c r="D158" s="86" t="s">
         <v>1993</v>
-      </c>
-      <c r="D158" s="86" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27213,13 +27189,13 @@
         <v>540</v>
       </c>
       <c r="B159" s="86" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C159" s="117" t="s">
         <v>1995</v>
       </c>
-      <c r="C159" s="117" t="s">
+      <c r="D159" s="86" t="s">
         <v>1996</v>
-      </c>
-      <c r="D159" s="86" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27227,13 +27203,13 @@
         <v>554</v>
       </c>
       <c r="B160" s="86" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C160" s="117" t="s">
         <v>1998</v>
       </c>
-      <c r="C160" s="117" t="s">
+      <c r="D160" s="86" t="s">
         <v>1999</v>
-      </c>
-      <c r="D160" s="86" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27241,13 +27217,13 @@
         <v>558</v>
       </c>
       <c r="B161" s="86" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C161" s="117" t="s">
         <v>2001</v>
       </c>
-      <c r="C161" s="117" t="s">
+      <c r="D161" s="86" t="s">
         <v>2002</v>
-      </c>
-      <c r="D161" s="86" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27255,13 +27231,13 @@
         <v>562</v>
       </c>
       <c r="B162" s="86" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C162" s="117" t="s">
         <v>2004</v>
       </c>
-      <c r="C162" s="117" t="s">
+      <c r="D162" s="86" t="s">
         <v>2005</v>
-      </c>
-      <c r="D162" s="86" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27269,13 +27245,13 @@
         <v>566</v>
       </c>
       <c r="B163" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C163" s="117" t="s">
         <v>2007</v>
       </c>
-      <c r="C163" s="117" t="s">
+      <c r="D163" s="86" t="s">
         <v>2008</v>
-      </c>
-      <c r="D163" s="86" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27283,13 +27259,13 @@
         <v>570</v>
       </c>
       <c r="B164" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C164" s="117" t="s">
         <v>2010</v>
       </c>
-      <c r="C164" s="117" t="s">
+      <c r="D164" s="86" t="s">
         <v>2011</v>
-      </c>
-      <c r="D164" s="86" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27297,13 +27273,13 @@
         <v>574</v>
       </c>
       <c r="B165" s="86" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C165" s="117" t="s">
         <v>2013</v>
       </c>
-      <c r="C165" s="117" t="s">
+      <c r="D165" s="86" t="s">
         <v>2014</v>
-      </c>
-      <c r="D165" s="86" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27311,13 +27287,13 @@
         <v>580</v>
       </c>
       <c r="B166" s="86" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C166" s="117" t="s">
         <v>2016</v>
       </c>
-      <c r="C166" s="117" t="s">
+      <c r="D166" s="86" t="s">
         <v>2017</v>
-      </c>
-      <c r="D166" s="86" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27325,13 +27301,13 @@
         <v>578</v>
       </c>
       <c r="B167" s="86" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C167" s="117" t="s">
         <v>2019</v>
       </c>
-      <c r="C167" s="117" t="s">
+      <c r="D167" s="86" t="s">
         <v>2020</v>
-      </c>
-      <c r="D167" s="86" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27339,13 +27315,13 @@
         <v>512</v>
       </c>
       <c r="B168" s="86" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C168" s="117" t="s">
         <v>2022</v>
       </c>
-      <c r="C168" s="117" t="s">
+      <c r="D168" s="86" t="s">
         <v>2023</v>
-      </c>
-      <c r="D168" s="86" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27353,13 +27329,13 @@
         <v>586</v>
       </c>
       <c r="B169" s="86" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C169" s="117" t="s">
         <v>2025</v>
       </c>
-      <c r="C169" s="117" t="s">
+      <c r="D169" s="86" t="s">
         <v>2026</v>
-      </c>
-      <c r="D169" s="86" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27367,13 +27343,13 @@
         <v>585</v>
       </c>
       <c r="B170" s="86" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C170" s="117" t="s">
         <v>2028</v>
       </c>
-      <c r="C170" s="117" t="s">
+      <c r="D170" s="86" t="s">
         <v>2029</v>
-      </c>
-      <c r="D170" s="86" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27381,13 +27357,13 @@
         <v>275</v>
       </c>
       <c r="B171" s="86" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C171" s="117" t="s">
         <v>2031</v>
       </c>
-      <c r="C171" s="117" t="s">
+      <c r="D171" s="86" t="s">
         <v>2032</v>
-      </c>
-      <c r="D171" s="86" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27395,13 +27371,13 @@
         <v>591</v>
       </c>
       <c r="B172" s="86" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C172" s="117" t="s">
         <v>2034</v>
       </c>
-      <c r="C172" s="117" t="s">
+      <c r="D172" s="86" t="s">
         <v>2035</v>
-      </c>
-      <c r="D172" s="86" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27409,13 +27385,13 @@
         <v>598</v>
       </c>
       <c r="B173" s="86" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C173" s="117" t="s">
         <v>2037</v>
       </c>
-      <c r="C173" s="117" t="s">
+      <c r="D173" s="86" t="s">
         <v>2038</v>
-      </c>
-      <c r="D173" s="86" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27423,13 +27399,13 @@
         <v>600</v>
       </c>
       <c r="B174" s="86" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C174" s="117" t="s">
         <v>2040</v>
       </c>
-      <c r="C174" s="117" t="s">
+      <c r="D174" s="86" t="s">
         <v>2041</v>
-      </c>
-      <c r="D174" s="86" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27437,13 +27413,13 @@
         <v>604</v>
       </c>
       <c r="B175" s="86" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C175" s="117" t="s">
         <v>2043</v>
       </c>
-      <c r="C175" s="117" t="s">
+      <c r="D175" s="86" t="s">
         <v>2044</v>
-      </c>
-      <c r="D175" s="86" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27451,13 +27427,13 @@
         <v>608</v>
       </c>
       <c r="B176" s="86" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C176" s="117" t="s">
         <v>2046</v>
       </c>
-      <c r="C176" s="117" t="s">
+      <c r="D176" s="86" t="s">
         <v>2047</v>
-      </c>
-      <c r="D176" s="86" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27465,13 +27441,13 @@
         <v>612</v>
       </c>
       <c r="B177" s="86" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C177" s="117" t="s">
         <v>2049</v>
       </c>
-      <c r="C177" s="117" t="s">
+      <c r="D177" s="86" t="s">
         <v>2050</v>
-      </c>
-      <c r="D177" s="86" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27479,13 +27455,13 @@
         <v>616</v>
       </c>
       <c r="B178" s="86" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C178" s="117" t="s">
         <v>521</v>
       </c>
       <c r="D178" s="86" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27493,13 +27469,13 @@
         <v>620</v>
       </c>
       <c r="B179" s="86" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C179" s="117" t="s">
         <v>2054</v>
       </c>
-      <c r="C179" s="117" t="s">
+      <c r="D179" s="86" t="s">
         <v>2055</v>
-      </c>
-      <c r="D179" s="86" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27507,13 +27483,13 @@
         <v>630</v>
       </c>
       <c r="B180" s="86" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C180" s="117" t="s">
         <v>2057</v>
       </c>
-      <c r="C180" s="117" t="s">
+      <c r="D180" s="86" t="s">
         <v>2058</v>
-      </c>
-      <c r="D180" s="86" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27521,13 +27497,13 @@
         <v>634</v>
       </c>
       <c r="B181" s="86" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C181" s="117" t="s">
         <v>2060</v>
       </c>
-      <c r="C181" s="117" t="s">
+      <c r="D181" s="86" t="s">
         <v>2061</v>
-      </c>
-      <c r="D181" s="86" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27535,13 +27511,13 @@
         <v>638</v>
       </c>
       <c r="B182" s="86" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C182" s="117" t="s">
         <v>2063</v>
       </c>
-      <c r="C182" s="117" t="s">
+      <c r="D182" s="86" t="s">
         <v>2064</v>
-      </c>
-      <c r="D182" s="86" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27549,13 +27525,13 @@
         <v>642</v>
       </c>
       <c r="B183" s="86" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C183" s="117" t="s">
         <v>2066</v>
       </c>
-      <c r="C183" s="117" t="s">
+      <c r="D183" s="86" t="s">
         <v>2067</v>
-      </c>
-      <c r="D183" s="86" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27563,13 +27539,13 @@
         <v>643</v>
       </c>
       <c r="B184" s="86" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C184" s="117" t="s">
         <v>2069</v>
       </c>
-      <c r="C184" s="117" t="s">
+      <c r="D184" s="86" t="s">
         <v>2070</v>
-      </c>
-      <c r="D184" s="86" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27577,13 +27553,13 @@
         <v>646</v>
       </c>
       <c r="B185" s="86" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C185" s="117" t="s">
         <v>2072</v>
       </c>
-      <c r="C185" s="117" t="s">
+      <c r="D185" s="86" t="s">
         <v>2073</v>
-      </c>
-      <c r="D185" s="86" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27591,13 +27567,13 @@
         <v>652</v>
       </c>
       <c r="B186" s="86" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C186" s="117" t="s">
         <v>2075</v>
       </c>
-      <c r="C186" s="117" t="s">
+      <c r="D186" s="86" t="s">
         <v>2076</v>
-      </c>
-      <c r="D186" s="86" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27605,13 +27581,13 @@
         <v>654</v>
       </c>
       <c r="B187" s="86" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C187" s="117" t="s">
         <v>2078</v>
       </c>
-      <c r="C187" s="117" t="s">
+      <c r="D187" s="86" t="s">
         <v>2079</v>
-      </c>
-      <c r="D187" s="86" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27619,13 +27595,13 @@
         <v>659</v>
       </c>
       <c r="B188" s="86" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C188" s="117" t="s">
         <v>2081</v>
       </c>
-      <c r="C188" s="117" t="s">
+      <c r="D188" s="86" t="s">
         <v>2082</v>
-      </c>
-      <c r="D188" s="86" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27633,13 +27609,13 @@
         <v>662</v>
       </c>
       <c r="B189" s="86" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C189" s="117" t="s">
         <v>2084</v>
       </c>
-      <c r="C189" s="117" t="s">
+      <c r="D189" s="86" t="s">
         <v>2085</v>
-      </c>
-      <c r="D189" s="86" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27647,13 +27623,13 @@
         <v>663</v>
       </c>
       <c r="B190" s="86" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C190" s="117" t="s">
         <v>2087</v>
       </c>
-      <c r="C190" s="117" t="s">
+      <c r="D190" s="86" t="s">
         <v>2088</v>
-      </c>
-      <c r="D190" s="86" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27661,13 +27637,13 @@
         <v>666</v>
       </c>
       <c r="B191" s="86" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C191" s="117" t="s">
         <v>2090</v>
       </c>
-      <c r="C191" s="117" t="s">
+      <c r="D191" s="86" t="s">
         <v>2091</v>
-      </c>
-      <c r="D191" s="86" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27675,13 +27651,13 @@
         <v>670</v>
       </c>
       <c r="B192" s="86" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C192" s="117" t="s">
         <v>2093</v>
       </c>
-      <c r="C192" s="117" t="s">
+      <c r="D192" s="86" t="s">
         <v>2094</v>
-      </c>
-      <c r="D192" s="86" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27689,13 +27665,13 @@
         <v>882</v>
       </c>
       <c r="B193" s="86" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C193" s="117" t="s">
         <v>37</v>
       </c>
       <c r="D193" s="86" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27703,13 +27679,13 @@
         <v>674</v>
       </c>
       <c r="B194" s="86" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C194" s="117" t="s">
         <v>931</v>
       </c>
       <c r="D194" s="86" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27717,13 +27693,13 @@
         <v>678</v>
       </c>
       <c r="B195" s="86" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C195" s="117" t="s">
         <v>528</v>
       </c>
       <c r="D195" s="86" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27731,13 +27707,13 @@
         <v>682</v>
       </c>
       <c r="B196" s="86" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C196" s="117" t="s">
         <v>48</v>
       </c>
       <c r="D196" s="86" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27745,13 +27721,13 @@
         <v>686</v>
       </c>
       <c r="B197" s="86" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C197" s="117" t="s">
         <v>2104</v>
       </c>
-      <c r="C197" s="117" t="s">
+      <c r="D197" s="86" t="s">
         <v>2105</v>
-      </c>
-      <c r="D197" s="86" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27759,13 +27735,13 @@
         <v>688</v>
       </c>
       <c r="B198" s="86" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C198" s="117" t="s">
         <v>2107</v>
       </c>
-      <c r="C198" s="117" t="s">
+      <c r="D198" s="86" t="s">
         <v>2108</v>
-      </c>
-      <c r="D198" s="86" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27773,13 +27749,13 @@
         <v>690</v>
       </c>
       <c r="B199" s="86" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C199" s="117" t="s">
         <v>2110</v>
       </c>
-      <c r="C199" s="117" t="s">
+      <c r="D199" s="86" t="s">
         <v>2111</v>
-      </c>
-      <c r="D199" s="86" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27787,13 +27763,13 @@
         <v>694</v>
       </c>
       <c r="B200" s="86" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C200" s="117" t="s">
         <v>534</v>
       </c>
       <c r="D200" s="86" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27801,13 +27777,13 @@
         <v>702</v>
       </c>
       <c r="B201" s="86" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C201" s="117" t="s">
         <v>2115</v>
       </c>
-      <c r="C201" s="117" t="s">
+      <c r="D201" s="86" t="s">
         <v>2116</v>
-      </c>
-      <c r="D201" s="86" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27815,13 +27791,13 @@
         <v>534</v>
       </c>
       <c r="B202" s="86" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C202" s="117" t="s">
         <v>2118</v>
       </c>
-      <c r="C202" s="117" t="s">
+      <c r="D202" s="86" t="s">
         <v>2119</v>
-      </c>
-      <c r="D202" s="86" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27829,13 +27805,13 @@
         <v>703</v>
       </c>
       <c r="B203" s="86" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C203" s="117" t="s">
         <v>2121</v>
       </c>
-      <c r="C203" s="117" t="s">
+      <c r="D203" s="86" t="s">
         <v>2122</v>
-      </c>
-      <c r="D203" s="86" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27843,13 +27819,13 @@
         <v>705</v>
       </c>
       <c r="B204" s="86" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C204" s="117" t="s">
         <v>2124</v>
       </c>
-      <c r="C204" s="117" t="s">
+      <c r="D204" s="86" t="s">
         <v>2125</v>
-      </c>
-      <c r="D204" s="86" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27857,13 +27833,13 @@
         <v>90</v>
       </c>
       <c r="B205" s="86" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C205" s="117" t="s">
         <v>2127</v>
       </c>
-      <c r="C205" s="117" t="s">
+      <c r="D205" s="86" t="s">
         <v>2128</v>
-      </c>
-      <c r="D205" s="86" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27871,13 +27847,13 @@
         <v>706</v>
       </c>
       <c r="B206" s="86" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C206" s="117" t="s">
         <v>2130</v>
       </c>
-      <c r="C206" s="117" t="s">
+      <c r="D206" s="86" t="s">
         <v>2131</v>
-      </c>
-      <c r="D206" s="86" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27888,10 +27864,10 @@
         <v>102</v>
       </c>
       <c r="C207" s="117" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D207" s="86" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27899,13 +27875,13 @@
         <v>239</v>
       </c>
       <c r="B208" s="86" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C208" s="117" t="s">
         <v>2134</v>
       </c>
-      <c r="C208" s="117" t="s">
+      <c r="D208" s="86" t="s">
         <v>2135</v>
-      </c>
-      <c r="D208" s="86" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27913,13 +27889,13 @@
         <v>728</v>
       </c>
       <c r="B209" s="86" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C209" s="117" t="s">
         <v>2137</v>
       </c>
-      <c r="C209" s="117" t="s">
+      <c r="D209" s="86" t="s">
         <v>2138</v>
-      </c>
-      <c r="D209" s="86" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27927,13 +27903,13 @@
         <v>724</v>
       </c>
       <c r="B210" s="86" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C210" s="117" t="s">
         <v>2140</v>
       </c>
-      <c r="C210" s="117" t="s">
+      <c r="D210" s="86" t="s">
         <v>2141</v>
-      </c>
-      <c r="D210" s="86" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27941,13 +27917,13 @@
         <v>144</v>
       </c>
       <c r="B211" s="86" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C211" s="117" t="s">
         <v>2143</v>
       </c>
-      <c r="C211" s="117" t="s">
+      <c r="D211" s="86" t="s">
         <v>2144</v>
-      </c>
-      <c r="D211" s="86" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27955,13 +27931,13 @@
         <v>729</v>
       </c>
       <c r="B212" s="86" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C212" s="117" t="s">
         <v>2146</v>
       </c>
-      <c r="C212" s="117" t="s">
+      <c r="D212" s="86" t="s">
         <v>2147</v>
-      </c>
-      <c r="D212" s="86" t="s">
-        <v>2148</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27969,13 +27945,13 @@
         <v>740</v>
       </c>
       <c r="B213" s="86" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C213" s="117" t="s">
         <v>2149</v>
       </c>
-      <c r="C213" s="117" t="s">
+      <c r="D213" s="86" t="s">
         <v>2150</v>
-      </c>
-      <c r="D213" s="86" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27983,13 +27959,13 @@
         <v>744</v>
       </c>
       <c r="B214" s="86" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C214" s="117" t="s">
         <v>2152</v>
       </c>
-      <c r="C214" s="117" t="s">
+      <c r="D214" s="86" t="s">
         <v>2153</v>
-      </c>
-      <c r="D214" s="86" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27997,13 +27973,13 @@
         <v>748</v>
       </c>
       <c r="B215" s="86" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C215" s="117" t="s">
         <v>2155</v>
       </c>
-      <c r="C215" s="117" t="s">
+      <c r="D215" s="86" t="s">
         <v>2156</v>
-      </c>
-      <c r="D215" s="86" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28011,13 +27987,13 @@
         <v>752</v>
       </c>
       <c r="B216" s="86" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C216" s="117" t="s">
         <v>524</v>
       </c>
       <c r="D216" s="86" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28025,13 +28001,13 @@
         <v>756</v>
       </c>
       <c r="B217" s="86" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C217" s="117" t="s">
         <v>2160</v>
       </c>
-      <c r="C217" s="117" t="s">
+      <c r="D217" s="86" t="s">
         <v>2161</v>
-      </c>
-      <c r="D217" s="86" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28039,13 +28015,13 @@
         <v>760</v>
       </c>
       <c r="B218" s="86" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C218" s="117" t="s">
         <v>2163</v>
       </c>
-      <c r="C218" s="117" t="s">
+      <c r="D218" s="86" t="s">
         <v>2164</v>
-      </c>
-      <c r="D218" s="86" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28053,13 +28029,13 @@
         <v>158</v>
       </c>
       <c r="B219" s="86" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C219" s="117" t="s">
         <v>2166</v>
       </c>
-      <c r="C219" s="117" t="s">
+      <c r="D219" s="86" t="s">
         <v>2167</v>
-      </c>
-      <c r="D219" s="86" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28067,13 +28043,13 @@
         <v>762</v>
       </c>
       <c r="B220" s="86" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C220" s="117" t="s">
         <v>2169</v>
       </c>
-      <c r="C220" s="117" t="s">
+      <c r="D220" s="86" t="s">
         <v>2170</v>
-      </c>
-      <c r="D220" s="86" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28081,13 +28057,13 @@
         <v>834</v>
       </c>
       <c r="B221" s="86" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C221" s="117" t="s">
         <v>2172</v>
       </c>
-      <c r="C221" s="117" t="s">
+      <c r="D221" s="86" t="s">
         <v>2173</v>
-      </c>
-      <c r="D221" s="86" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28095,13 +28071,13 @@
         <v>764</v>
       </c>
       <c r="B222" s="86" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C222" s="117" t="s">
         <v>2175</v>
       </c>
-      <c r="C222" s="117" t="s">
+      <c r="D222" s="86" t="s">
         <v>2176</v>
-      </c>
-      <c r="D222" s="86" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28109,13 +28085,13 @@
         <v>626</v>
       </c>
       <c r="B223" s="86" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C223" s="117" t="s">
         <v>2178</v>
       </c>
-      <c r="C223" s="117" t="s">
+      <c r="D223" s="86" t="s">
         <v>2179</v>
-      </c>
-      <c r="D223" s="86" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28123,13 +28099,13 @@
         <v>768</v>
       </c>
       <c r="B224" s="86" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C224" s="117" t="s">
         <v>2181</v>
       </c>
-      <c r="C224" s="117" t="s">
+      <c r="D224" s="86" t="s">
         <v>2182</v>
-      </c>
-      <c r="D224" s="86" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28137,13 +28113,13 @@
         <v>772</v>
       </c>
       <c r="B225" s="86" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C225" s="117" t="s">
         <v>2184</v>
       </c>
-      <c r="C225" s="117" t="s">
+      <c r="D225" s="86" t="s">
         <v>2185</v>
-      </c>
-      <c r="D225" s="86" t="s">
-        <v>2186</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28151,13 +28127,13 @@
         <v>776</v>
       </c>
       <c r="B226" s="86" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C226" s="117" t="s">
         <v>2187</v>
       </c>
-      <c r="C226" s="117" t="s">
+      <c r="D226" s="86" t="s">
         <v>2188</v>
-      </c>
-      <c r="D226" s="86" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28168,10 +28144,10 @@
         <v>660</v>
       </c>
       <c r="C227" s="117" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D227" s="86" t="s">
         <v>2190</v>
-      </c>
-      <c r="D227" s="86" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28179,13 +28155,13 @@
         <v>788</v>
       </c>
       <c r="B228" s="86" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C228" s="117" t="s">
         <v>2192</v>
       </c>
-      <c r="C228" s="117" t="s">
+      <c r="D228" s="86" t="s">
         <v>2193</v>
-      </c>
-      <c r="D228" s="86" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28193,13 +28169,13 @@
         <v>792</v>
       </c>
       <c r="B229" s="86" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C229" s="117" t="s">
         <v>2195</v>
       </c>
-      <c r="C229" s="117" t="s">
+      <c r="D229" s="86" t="s">
         <v>2196</v>
-      </c>
-      <c r="D229" s="86" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28207,13 +28183,13 @@
         <v>795</v>
       </c>
       <c r="B230" s="86" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C230" s="117" t="s">
         <v>2198</v>
       </c>
-      <c r="C230" s="117" t="s">
+      <c r="D230" s="86" t="s">
         <v>2199</v>
-      </c>
-      <c r="D230" s="86" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28221,13 +28197,13 @@
         <v>796</v>
       </c>
       <c r="B231" s="86" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C231" s="117" t="s">
         <v>2201</v>
       </c>
-      <c r="C231" s="117" t="s">
+      <c r="D231" s="86" t="s">
         <v>2202</v>
-      </c>
-      <c r="D231" s="86" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28235,13 +28211,13 @@
         <v>798</v>
       </c>
       <c r="B232" s="86" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C232" s="117" t="s">
         <v>919</v>
       </c>
       <c r="D232" s="86" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28249,13 +28225,13 @@
         <v>800</v>
       </c>
       <c r="B233" s="86" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C233" s="117" t="s">
         <v>2206</v>
       </c>
-      <c r="C233" s="117" t="s">
+      <c r="D233" s="86" t="s">
         <v>2207</v>
-      </c>
-      <c r="D233" s="86" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28263,13 +28239,13 @@
         <v>804</v>
       </c>
       <c r="B234" s="86" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C234" s="117" t="s">
         <v>2209</v>
       </c>
-      <c r="C234" s="117" t="s">
+      <c r="D234" s="86" t="s">
         <v>2210</v>
-      </c>
-      <c r="D234" s="86" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28277,13 +28253,13 @@
         <v>784</v>
       </c>
       <c r="B235" s="86" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C235" s="117" t="s">
         <v>2212</v>
       </c>
-      <c r="C235" s="117" t="s">
+      <c r="D235" s="86" t="s">
         <v>2213</v>
-      </c>
-      <c r="D235" s="86" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28294,10 +28270,10 @@
         <v>680</v>
       </c>
       <c r="C236" s="117" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D236" s="86" t="s">
         <v>2215</v>
-      </c>
-      <c r="D236" s="86" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28308,10 +28284,10 @@
         <v>653</v>
       </c>
       <c r="C237" s="117" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D237" s="86" t="s">
         <v>2217</v>
-      </c>
-      <c r="D237" s="86" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28319,13 +28295,13 @@
         <v>581</v>
       </c>
       <c r="B238" s="86" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C238" s="117" t="s">
         <v>2219</v>
       </c>
-      <c r="C238" s="117" t="s">
+      <c r="D238" s="86" t="s">
         <v>2220</v>
-      </c>
-      <c r="D238" s="86" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28333,13 +28309,13 @@
         <v>858</v>
       </c>
       <c r="B239" s="86" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C239" s="117" t="s">
         <v>2222</v>
       </c>
-      <c r="C239" s="117" t="s">
+      <c r="D239" s="86" t="s">
         <v>2223</v>
-      </c>
-      <c r="D239" s="86" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28347,13 +28323,13 @@
         <v>860</v>
       </c>
       <c r="B240" s="86" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C240" s="117" t="s">
         <v>2225</v>
       </c>
-      <c r="C240" s="117" t="s">
+      <c r="D240" s="86" t="s">
         <v>2226</v>
-      </c>
-      <c r="D240" s="86" t="s">
-        <v>2227</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28361,13 +28337,13 @@
         <v>548</v>
       </c>
       <c r="B241" s="86" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C241" s="117" t="s">
         <v>2228</v>
       </c>
-      <c r="C241" s="117" t="s">
+      <c r="D241" s="86" t="s">
         <v>2229</v>
-      </c>
-      <c r="D241" s="86" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28375,13 +28351,13 @@
         <v>862</v>
       </c>
       <c r="B242" s="86" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C242" s="117" t="s">
         <v>2231</v>
       </c>
-      <c r="C242" s="117" t="s">
+      <c r="D242" s="86" t="s">
         <v>2232</v>
-      </c>
-      <c r="D242" s="86" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28389,13 +28365,13 @@
         <v>704</v>
       </c>
       <c r="B243" s="86" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C243" s="117" t="s">
         <v>2234</v>
       </c>
-      <c r="C243" s="117" t="s">
+      <c r="D243" s="86" t="s">
         <v>2235</v>
-      </c>
-      <c r="D243" s="86" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28403,13 +28379,13 @@
         <v>92</v>
       </c>
       <c r="B244" s="86" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C244" s="117" t="s">
         <v>2237</v>
       </c>
-      <c r="C244" s="117" t="s">
+      <c r="D244" s="86" t="s">
         <v>2238</v>
-      </c>
-      <c r="D244" s="86" t="s">
-        <v>2239</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28417,13 +28393,13 @@
         <v>850</v>
       </c>
       <c r="B245" s="86" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C245" s="117" t="s">
         <v>2240</v>
       </c>
-      <c r="C245" s="117" t="s">
+      <c r="D245" s="86" t="s">
         <v>2241</v>
-      </c>
-      <c r="D245" s="86" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28431,13 +28407,13 @@
         <v>876</v>
       </c>
       <c r="B246" s="86" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C246" s="117" t="s">
         <v>2243</v>
       </c>
-      <c r="C246" s="117" t="s">
+      <c r="D246" s="86" t="s">
         <v>2244</v>
-      </c>
-      <c r="D246" s="86" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28445,13 +28421,13 @@
         <v>732</v>
       </c>
       <c r="B247" s="86" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C247" s="117" t="s">
         <v>2246</v>
       </c>
-      <c r="C247" s="117" t="s">
+      <c r="D247" s="86" t="s">
         <v>2247</v>
-      </c>
-      <c r="D247" s="86" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28459,13 +28435,13 @@
         <v>887</v>
       </c>
       <c r="B248" s="86" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C248" s="117" t="s">
         <v>2249</v>
       </c>
-      <c r="C248" s="117" t="s">
+      <c r="D248" s="86" t="s">
         <v>2250</v>
-      </c>
-      <c r="D248" s="86" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28473,13 +28449,13 @@
         <v>894</v>
       </c>
       <c r="B249" s="86" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C249" s="117" t="s">
         <v>2252</v>
       </c>
-      <c r="C249" s="117" t="s">
+      <c r="D249" s="86" t="s">
         <v>2253</v>
-      </c>
-      <c r="D249" s="86" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28487,13 +28463,13 @@
         <v>716</v>
       </c>
       <c r="B250" s="86" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C250" s="117" t="s">
         <v>2255</v>
       </c>
-      <c r="C250" s="117" t="s">
+      <c r="D250" s="86" t="s">
         <v>2256</v>
-      </c>
-      <c r="D250" s="86" t="s">
-        <v>2257</v>
       </c>
     </row>
   </sheetData>

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="448" firstSheet="0" activeTab="42"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="448" firstSheet="0" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -6987,7 +6987,7 @@
     <numFmt numFmtId="170" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="171" formatCode="#"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7224,23 +7224,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7383,7 +7366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="217">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7924,12 +7907,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -7940,28 +7919,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -7988,7 +7955,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7996,7 +7963,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8004,15 +7971,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8032,7 +7999,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8040,7 +8007,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8052,7 +8019,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8080,7 +8047,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8092,7 +8059,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8100,7 +8067,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8140,7 +8107,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8152,20 +8119,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -8180,7 +8139,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8268,11 +8227,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12723,7 +12678,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="4" s="143" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="140" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="134" t="s">
         <v>756</v>
       </c>
@@ -12736,31 +12691,31 @@
       <c r="D4" s="136" t="s">
         <v>715</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="136" t="s">
         <v>616</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="137" t="s">
         <v>620</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="112" t="s">
         <v>759</v>
       </c>
-      <c r="H4" s="139" t="n">
+      <c r="H4" s="112" t="n">
         <v>12334</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="138" t="s">
         <v>608</v>
       </c>
-      <c r="J4" s="141" t="s">
+      <c r="J4" s="139" t="s">
         <v>449</v>
       </c>
-      <c r="K4" s="142"/>
-    </row>
-    <row r="5" s="143" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="134" t="s">
         <v>760</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="112" t="s">
         <v>705</v>
       </c>
       <c r="C5" s="135" t="s">
@@ -12769,27 +12724,27 @@
       <c r="D5" s="136" t="s">
         <v>705</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="136" t="s">
         <v>620</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="137" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="112" t="s">
         <v>762</v>
       </c>
-      <c r="H5" s="139" t="n">
+      <c r="H5" s="112" t="n">
         <v>45554</v>
       </c>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="138" t="s">
         <v>611</v>
       </c>
-      <c r="J5" s="141" t="s">
+      <c r="J5" s="139" t="s">
         <v>763</v>
       </c>
-      <c r="K5" s="142"/>
-    </row>
-    <row r="6" s="143" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="134" t="s">
         <v>764</v>
       </c>
@@ -12802,23 +12757,23 @@
       <c r="D6" s="136" t="s">
         <v>711</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="136" t="s">
         <v>618</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="137" t="s">
         <v>618</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="112" t="s">
         <v>766</v>
       </c>
-      <c r="H6" s="139" t="n">
+      <c r="H6" s="112" t="n">
         <v>12333</v>
       </c>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141" t="s">
+      <c r="I6" s="138"/>
+      <c r="J6" s="139" t="s">
         <v>767</v>
       </c>
-      <c r="K6" s="142"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="134" t="s">
@@ -12827,34 +12782,34 @@
       <c r="B7" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="135" t="s">
         <v>769</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="136" t="s">
         <v>707</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="136" t="s">
         <v>627</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>620</v>
       </c>
-      <c r="G7" s="145" t="n">
+      <c r="G7" s="141" t="n">
         <v>101011</v>
       </c>
-      <c r="H7" s="145" t="n">
+      <c r="H7" s="141" t="n">
         <v>35453</v>
       </c>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146" t="s">
+      <c r="I7" s="141"/>
+      <c r="J7" s="142" t="s">
         <v>770</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="147" t="n">
+      <c r="K7" s="142"/>
+      <c r="L7" s="143" t="n">
         <v>41653</v>
       </c>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
       <c r="O7" s="134" t="s">
         <v>771</v>
       </c>
@@ -12864,16 +12819,16 @@
       <c r="Q7" s="134" t="s">
         <v>773</v>
       </c>
-      <c r="R7" s="145" t="s">
+      <c r="R7" s="141" t="s">
         <v>774</v>
       </c>
       <c r="S7" s="82"/>
-      <c r="T7" s="148" t="n">
+      <c r="T7" s="144" t="n">
         <v>42103</v>
       </c>
-      <c r="U7" s="147"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="150"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="146"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="134" t="s">
@@ -12882,34 +12837,34 @@
       <c r="B8" s="112" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="135" t="s">
         <v>776</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="136" t="s">
         <v>708</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="136" t="s">
         <v>620</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="137" t="s">
         <v>618</v>
       </c>
-      <c r="G8" s="145" t="s">
+      <c r="G8" s="141" t="s">
         <v>777</v>
       </c>
-      <c r="H8" s="145" t="n">
+      <c r="H8" s="141" t="n">
         <v>43516</v>
       </c>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146" t="s">
+      <c r="I8" s="141"/>
+      <c r="J8" s="142" t="s">
         <v>778</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="147" t="n">
+      <c r="K8" s="142"/>
+      <c r="L8" s="143" t="n">
         <v>41014</v>
       </c>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
       <c r="O8" s="134" t="s">
         <v>779</v>
       </c>
@@ -12919,14 +12874,14 @@
       <c r="Q8" s="134" t="s">
         <v>781</v>
       </c>
-      <c r="R8" s="145" t="s">
+      <c r="R8" s="141" t="s">
         <v>782</v>
       </c>
       <c r="S8" s="82"/>
       <c r="T8" s="82"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="150"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="146"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13012,13 +12967,13 @@
       <c r="A1" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="147" t="s">
         <v>783</v>
       </c>
       <c r="C1" s="121" t="s">
         <v>784</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="148" t="s">
         <v>785</v>
       </c>
       <c r="E1" s="121" t="s">
@@ -13033,10 +12988,10 @@
       <c r="H1" s="121" t="s">
         <v>789</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="147" t="s">
         <v>790</v>
       </c>
-      <c r="J1" s="151" t="s">
+      <c r="J1" s="147" t="s">
         <v>791</v>
       </c>
       <c r="K1" s="121" t="s">
@@ -13045,25 +13000,25 @@
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="149" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="D2" s="152"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="150"/>
+      <c r="D2" s="148"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="151" t="s">
         <v>794</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="148" t="s">
         <v>796</v>
       </c>
       <c r="E3" s="121" t="s">
@@ -13078,10 +13033,10 @@
       <c r="H3" s="121" t="s">
         <v>800</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="152" t="s">
         <v>801</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="153" t="s">
         <v>802</v>
       </c>
       <c r="K3" s="121" t="s">
@@ -13092,16 +13047,16 @@
       <c r="A4" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="B4" s="158" t="n">
+      <c r="B4" s="154" t="n">
         <v>42614</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="D4" s="159" t="n">
+      <c r="D4" s="155" t="n">
         <v>42602</v>
       </c>
-      <c r="E4" s="159" t="n">
+      <c r="E4" s="155" t="n">
         <v>42612</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -13113,7 +13068,7 @@
       <c r="H4" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="I4" s="146" t="s">
+      <c r="I4" s="142" t="s">
         <v>808</v>
       </c>
       <c r="J4" s="134" t="s">
@@ -13124,16 +13079,16 @@
       <c r="A5" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="B5" s="158" t="n">
+      <c r="B5" s="154" t="n">
         <v>42614</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="D5" s="159" t="n">
+      <c r="D5" s="155" t="n">
         <v>42602</v>
       </c>
-      <c r="E5" s="159" t="n">
+      <c r="E5" s="155" t="n">
         <v>42612</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -13145,7 +13100,7 @@
       <c r="H5" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="142" t="s">
         <v>808</v>
       </c>
       <c r="J5" s="134" t="s">
@@ -13156,16 +13111,16 @@
       <c r="A6" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="B6" s="158" t="n">
+      <c r="B6" s="154" t="n">
         <v>42340</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="D6" s="159" t="n">
+      <c r="D6" s="155" t="n">
         <v>42278</v>
       </c>
-      <c r="E6" s="159" t="n">
+      <c r="E6" s="155" t="n">
         <v>42339</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -13177,7 +13132,7 @@
       <c r="H6" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="142" t="s">
         <v>805</v>
       </c>
       <c r="J6" s="134" t="s">
@@ -13188,22 +13143,22 @@
       <c r="A7" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="B7" s="158" t="n">
+      <c r="B7" s="154" t="n">
         <v>42127</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="D7" s="159" t="n">
+      <c r="D7" s="155" t="n">
         <v>42114</v>
       </c>
-      <c r="E7" s="159" t="n">
+      <c r="E7" s="155" t="n">
         <v>42125</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="I7" s="146" t="s">
+      <c r="I7" s="142" t="s">
         <v>805</v>
       </c>
       <c r="J7" s="134" t="s">
@@ -13213,7 +13168,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:E7" type="date">
       <formula1>40909</formula1>
       <formula2>0</formula2>
@@ -13222,11 +13177,7 @@
       <formula1>Instruments!$B$7:$B$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>Instruments!$B$4:$B$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="list">
+    <dataValidation allowBlank="false" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C5" type="list">
       <formula1>Instruments!$B$4:$B$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13272,7 +13223,7 @@
       <c r="A1" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="147" t="s">
         <v>783</v>
       </c>
       <c r="C1" s="121" t="s">
@@ -13293,10 +13244,10 @@
       <c r="H1" s="121" t="s">
         <v>789</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="147" t="s">
         <v>790</v>
       </c>
-      <c r="J1" s="151" t="s">
+      <c r="J1" s="147" t="s">
         <v>791</v>
       </c>
       <c r="K1" s="121" t="s">
@@ -13304,7 +13255,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="149" t="s">
         <v>817</v>
       </c>
     </row>
@@ -13312,13 +13263,13 @@
       <c r="A3" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="151" t="s">
         <v>794</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="148" t="s">
         <v>796</v>
       </c>
       <c r="E3" s="121" t="s">
@@ -13333,10 +13284,10 @@
       <c r="H3" s="121" t="s">
         <v>800</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="152" t="s">
         <v>801</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="153" t="s">
         <v>802</v>
       </c>
       <c r="K3" s="121" t="s">
@@ -13347,16 +13298,16 @@
       <c r="A4" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="B4" s="160" t="n">
+      <c r="B4" s="156" t="n">
         <v>42592</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="D4" s="159" t="n">
+      <c r="D4" s="155" t="n">
         <v>42552</v>
       </c>
-      <c r="E4" s="159" t="n">
+      <c r="E4" s="155" t="n">
         <v>42582</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -13368,7 +13319,7 @@
       <c r="I4" s="82" t="s">
         <v>805</v>
       </c>
-      <c r="J4" s="161" t="s">
+      <c r="J4" s="157" t="s">
         <v>822</v>
       </c>
     </row>
@@ -13376,16 +13327,16 @@
       <c r="A5" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="B5" s="160" t="n">
+      <c r="B5" s="156" t="n">
         <v>42592</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="D5" s="159" t="n">
+      <c r="D5" s="155" t="n">
         <v>42552</v>
       </c>
-      <c r="E5" s="159" t="n">
+      <c r="E5" s="155" t="n">
         <v>42582</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -13397,7 +13348,7 @@
       <c r="I5" s="82" t="s">
         <v>805</v>
       </c>
-      <c r="J5" s="161" t="s">
+      <c r="J5" s="157" t="s">
         <v>822</v>
       </c>
     </row>
@@ -13405,16 +13356,16 @@
       <c r="A6" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="B6" s="158" t="n">
+      <c r="B6" s="154" t="n">
         <v>42141</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="D6" s="159" t="n">
+      <c r="D6" s="155" t="n">
         <v>42095</v>
       </c>
-      <c r="E6" s="159" t="n">
+      <c r="E6" s="155" t="n">
         <v>42109</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -13426,7 +13377,7 @@
       <c r="I6" s="82" t="s">
         <v>805</v>
       </c>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="157" t="s">
         <v>826</v>
       </c>
     </row>
@@ -13437,7 +13388,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:E6" type="date">
       <formula1>40909</formula1>
       <formula2>0</formula2>
@@ -13446,11 +13397,7 @@
       <formula1>Instruments!$B$7:$B$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>Instruments!$B$4:$B$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="list">
+    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C5" type="list">
       <formula1>Instruments!$B$4:$B$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13507,25 +13454,25 @@
         <v>831</v>
       </c>
     </row>
-    <row r="2" s="162" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="162" t="s">
+    <row r="2" s="158" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="158" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="159" t="s">
         <v>833</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="159" t="s">
         <v>834</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="159" t="s">
         <v>835</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="159" t="s">
         <v>836</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="159" t="s">
         <v>837</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -13645,7 +13592,7 @@
       <c r="C1" s="121" t="s">
         <v>784</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="148" t="s">
         <v>843</v>
       </c>
       <c r="E1" s="121" t="s">
@@ -13657,32 +13604,32 @@
       <c r="G1" s="121" t="s">
         <v>846</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="147" t="s">
         <v>847</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="147" t="s">
         <v>848</v>
       </c>
       <c r="J1" s="121" t="s">
         <v>792</v>
       </c>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="160" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="161" t="s">
         <v>850</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="149" t="s">
         <v>850</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="K2" s="166"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="152" t="s">
         <v>741</v>
       </c>
       <c r="B3" s="121" t="s">
@@ -13691,7 +13638,7 @@
       <c r="C3" s="121" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="148" t="s">
         <v>852</v>
       </c>
       <c r="E3" s="121" t="s">
@@ -13703,21 +13650,21 @@
       <c r="G3" s="121" t="s">
         <v>855</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="163" t="s">
         <v>856</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="152" t="s">
         <v>857</v>
       </c>
       <c r="J3" s="121" t="s">
         <v>803</v>
       </c>
-      <c r="K3" s="156" t="s">
+      <c r="K3" s="152" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="142" t="s">
         <v>756</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -13726,27 +13673,27 @@
       <c r="C4" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="D4" s="159" t="n">
+      <c r="D4" s="155" t="n">
         <v>42614</v>
       </c>
-      <c r="E4" s="159" t="n">
+      <c r="E4" s="155" t="n">
         <v>42614</v>
       </c>
-      <c r="F4" s="159" t="n">
+      <c r="F4" s="155" t="n">
         <v>43081</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="142" t="s">
         <v>805</v>
       </c>
-      <c r="I4" s="146" t="s">
+      <c r="I4" s="142" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="142" t="s">
         <v>760</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -13755,27 +13702,27 @@
       <c r="C5" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="D5" s="159" t="n">
+      <c r="D5" s="155" t="n">
         <v>42372</v>
       </c>
-      <c r="E5" s="159" t="n">
+      <c r="E5" s="155" t="n">
         <v>42372</v>
       </c>
-      <c r="F5" s="159" t="n">
+      <c r="F5" s="155" t="n">
         <v>43081</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="H5" s="146" t="s">
+      <c r="H5" s="142" t="s">
         <v>805</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="142" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>764</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -13784,27 +13731,27 @@
       <c r="C6" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="D6" s="159" t="n">
+      <c r="D6" s="155" t="n">
         <v>42005</v>
       </c>
-      <c r="E6" s="159" t="n">
+      <c r="E6" s="155" t="n">
         <v>42005</v>
       </c>
-      <c r="F6" s="159" t="n">
+      <c r="F6" s="155" t="n">
         <v>42735</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="H6" s="146" t="s">
+      <c r="H6" s="142" t="s">
         <v>805</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="142" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="142" t="s">
         <v>768</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -13813,27 +13760,27 @@
       <c r="C7" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="D7" s="159" t="n">
+      <c r="D7" s="155" t="n">
         <v>42125</v>
       </c>
-      <c r="E7" s="159" t="n">
+      <c r="E7" s="155" t="n">
         <v>42125</v>
       </c>
-      <c r="F7" s="159" t="n">
+      <c r="F7" s="155" t="n">
         <v>42735</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="H7" s="146" t="s">
+      <c r="H7" s="142" t="s">
         <v>805</v>
       </c>
-      <c r="I7" s="146" t="s">
+      <c r="I7" s="142" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="142" t="s">
         <v>764</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -13842,22 +13789,22 @@
       <c r="C8" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="D8" s="159" t="n">
+      <c r="D8" s="155" t="n">
         <v>42005</v>
       </c>
-      <c r="E8" s="159" t="n">
+      <c r="E8" s="155" t="n">
         <v>42005</v>
       </c>
-      <c r="F8" s="159" t="n">
+      <c r="F8" s="155" t="n">
         <v>42735</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="H8" s="146" t="s">
+      <c r="H8" s="142" t="s">
         <v>805</v>
       </c>
-      <c r="I8" s="146" t="s">
+      <c r="I8" s="142" t="s">
         <v>805</v>
       </c>
     </row>
@@ -14434,7 +14381,7 @@
       <c r="D1" s="121" t="s">
         <v>864</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="148" t="s">
         <v>785</v>
       </c>
       <c r="F1" s="121" t="s">
@@ -14452,7 +14399,7 @@
       <c r="J1" s="121" t="s">
         <v>866</v>
       </c>
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="164" t="s">
         <v>867</v>
       </c>
       <c r="L1" s="121" t="s">
@@ -14460,13 +14407,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="149" t="s">
         <v>868</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="152"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="148"/>
+      <c r="K2" s="165"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="121" t="s">
@@ -14481,7 +14428,7 @@
       <c r="D3" s="121" t="s">
         <v>720</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="148" t="s">
         <v>796</v>
       </c>
       <c r="F3" s="121" t="s">
@@ -14499,7 +14446,7 @@
       <c r="J3" s="121" t="s">
         <v>870</v>
       </c>
-      <c r="K3" s="168" t="s">
+      <c r="K3" s="164" t="s">
         <v>871</v>
       </c>
       <c r="L3" s="121" t="s">
@@ -14516,13 +14463,13 @@
       <c r="C4" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="166" t="s">
         <v>874</v>
       </c>
-      <c r="E4" s="159" t="n">
+      <c r="E4" s="155" t="n">
         <v>41275</v>
       </c>
-      <c r="F4" s="159" t="n">
+      <c r="F4" s="155" t="n">
         <v>41276</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -14531,7 +14478,7 @@
       <c r="J4" s="42" t="n">
         <v>120</v>
       </c>
-      <c r="K4" s="171" t="n">
+      <c r="K4" s="167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14545,13 +14492,13 @@
       <c r="C5" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="166" t="s">
         <v>878</v>
       </c>
-      <c r="E5" s="159" t="n">
+      <c r="E5" s="155" t="n">
         <v>41307</v>
       </c>
-      <c r="F5" s="159" t="n">
+      <c r="F5" s="155" t="n">
         <v>41310</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -14560,7 +14507,7 @@
       <c r="J5" s="42" t="n">
         <v>357</v>
       </c>
-      <c r="K5" s="171" t="n">
+      <c r="K5" s="167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14633,10 +14580,10 @@
       <c r="D1" s="121" t="s">
         <v>864</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="148" t="s">
         <v>843</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="148" t="s">
         <v>880</v>
       </c>
       <c r="G1" s="121" t="s">
@@ -14650,12 +14597,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="149" t="s">
         <v>883</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="121" t="s">
@@ -14670,10 +14617,10 @@
       <c r="D3" s="121" t="s">
         <v>720</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="148" t="s">
         <v>852</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="168" t="s">
         <v>885</v>
       </c>
       <c r="G3" s="121" t="s">
@@ -14754,7 +14701,7 @@
       <c r="B4" s="99" t="s">
         <v>890</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="169" t="s">
         <v>211</v>
       </c>
     </row>
@@ -14765,7 +14712,7 @@
       <c r="B5" s="99" t="s">
         <v>892</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="169" t="s">
         <v>211</v>
       </c>
     </row>
@@ -14776,7 +14723,7 @@
       <c r="B6" s="99" t="s">
         <v>894</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="169" t="s">
         <v>190</v>
       </c>
     </row>
@@ -14787,7 +14734,7 @@
       <c r="B7" s="99" t="s">
         <v>896</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="169" t="s">
         <v>190</v>
       </c>
     </row>
@@ -14798,7 +14745,7 @@
       <c r="B8" s="115" t="s">
         <v>897</v>
       </c>
-      <c r="C8" s="173" t="s">
+      <c r="C8" s="169" t="s">
         <v>202</v>
       </c>
     </row>
@@ -14809,7 +14756,7 @@
       <c r="B9" s="86" t="s">
         <v>898</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="169" t="s">
         <v>202</v>
       </c>
     </row>
@@ -14853,24 +14800,24 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.38461538461539"/>
   </cols>
   <sheetData>
-    <row r="1" s="174" customFormat="true" ht="14.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="174" t="s">
+    <row r="1" s="170" customFormat="true" ht="14.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="170" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="170" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="2" s="175" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="171" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="C2" s="176"/>
-    </row>
-    <row r="3" s="177" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="172"/>
+    </row>
+    <row r="3" s="173" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>218</v>
       </c>
@@ -14885,10 +14832,10 @@
       <c r="A4" s="86" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="174" t="s">
         <v>596</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="175" t="s">
         <v>901</v>
       </c>
     </row>
@@ -14899,18 +14846,18 @@
       <c r="B5" s="86" t="s">
         <v>598</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="175" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="174" t="s">
         <v>603</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="174" t="s">
         <v>904</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="175" t="s">
         <v>905</v>
       </c>
     </row>
@@ -15025,13 +14972,13 @@
       <c r="C4" s="82" t="s">
         <v>920</v>
       </c>
-      <c r="D4" s="180" t="n">
+      <c r="D4" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="180" t="n">
+      <c r="E4" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="177" t="s">
         <v>921</v>
       </c>
     </row>
@@ -15045,10 +14992,10 @@
       <c r="C5" s="82" t="s">
         <v>923</v>
       </c>
-      <c r="D5" s="180" t="n">
+      <c r="D5" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="180" t="n">
+      <c r="E5" s="176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15062,13 +15009,13 @@
       <c r="C6" s="82" t="s">
         <v>925</v>
       </c>
-      <c r="D6" s="180" t="n">
+      <c r="D6" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="180" t="n">
+      <c r="E6" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="177" t="s">
         <v>926</v>
       </c>
     </row>
@@ -15082,13 +15029,13 @@
       <c r="C7" s="82" t="s">
         <v>928</v>
       </c>
-      <c r="D7" s="180" t="n">
+      <c r="D7" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="180" t="n">
+      <c r="E7" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="177" t="s">
         <v>926</v>
       </c>
     </row>
@@ -15102,13 +15049,13 @@
       <c r="C8" s="82" t="s">
         <v>930</v>
       </c>
-      <c r="D8" s="180" t="n">
+      <c r="D8" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="180" t="n">
+      <c r="E8" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="181" t="s">
+      <c r="F8" s="177" t="s">
         <v>926</v>
       </c>
     </row>
@@ -15122,13 +15069,13 @@
       <c r="C9" s="39" t="s">
         <v>932</v>
       </c>
-      <c r="D9" s="180" t="n">
+      <c r="D9" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="180" t="n">
+      <c r="E9" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="177" t="s">
         <v>926</v>
       </c>
     </row>
@@ -15142,13 +15089,13 @@
       <c r="C10" s="82" t="s">
         <v>928</v>
       </c>
-      <c r="D10" s="180" t="n">
+      <c r="D10" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="180" t="n">
+      <c r="E10" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="181" t="s">
+      <c r="F10" s="177" t="s">
         <v>926</v>
       </c>
     </row>
@@ -15162,10 +15109,10 @@
       <c r="C11" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="D11" s="180" t="n">
+      <c r="D11" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="180" t="n">
+      <c r="E11" s="176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15179,10 +15126,10 @@
       <c r="C12" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="D12" s="180" t="n">
+      <c r="D12" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="180" t="n">
+      <c r="E12" s="176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15196,10 +15143,10 @@
       <c r="C13" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="D13" s="180" t="n">
+      <c r="D13" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="180" t="n">
+      <c r="E13" s="176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15213,10 +15160,10 @@
       <c r="C14" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="D14" s="180" t="n">
+      <c r="D14" s="176" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="180" t="n">
+      <c r="E14" s="176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15486,10 +15433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y21" activeCellId="0" sqref="Y21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15545,7 +15492,7 @@
       <c r="G1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="182" t="s">
+      <c r="H1" s="178" t="s">
         <v>945</v>
       </c>
       <c r="I1" s="23" t="s">
@@ -15557,16 +15504,16 @@
       <c r="K1" s="23" t="s">
         <v>947</v>
       </c>
-      <c r="L1" s="182" t="s">
+      <c r="L1" s="178" t="s">
         <v>948</v>
       </c>
-      <c r="M1" s="182" t="s">
+      <c r="M1" s="178" t="s">
         <v>949</v>
       </c>
-      <c r="N1" s="182" t="s">
+      <c r="N1" s="178" t="s">
         <v>950</v>
       </c>
-      <c r="O1" s="182" t="s">
+      <c r="O1" s="178" t="s">
         <v>951</v>
       </c>
       <c r="P1" s="42" t="s">
@@ -15599,7 +15546,7 @@
       <c r="Y1" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="Z1" s="182" t="s">
+      <c r="Z1" s="178" t="s">
         <v>958</v>
       </c>
       <c r="AA1" s="23" t="s">
@@ -15608,13 +15555,13 @@
       <c r="AB1" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="AC1" s="183" t="s">
+      <c r="AC1" s="179" t="s">
         <v>961</v>
       </c>
-      <c r="AD1" s="183" t="s">
+      <c r="AD1" s="179" t="s">
         <v>472</v>
       </c>
-      <c r="AE1" s="183"/>
+      <c r="AE1" s="179"/>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
@@ -15627,15 +15574,15 @@
       <c r="M2" s="128"/>
       <c r="N2" s="128"/>
       <c r="O2" s="128"/>
-      <c r="P2" s="184" t="s">
+      <c r="P2" s="180" t="s">
         <v>963</v>
       </c>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
       <c r="Z2" s="128"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
     </row>
     <row r="3" s="85" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="85" t="s">
@@ -15730,58 +15677,58 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="182" t="s">
         <v>984</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="183" t="s">
         <v>985</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="182" t="s">
         <v>986</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="183" t="s">
         <v>985</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F4" s="188" t="s">
+      <c r="F4" s="184" t="s">
         <v>897</v>
       </c>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="171" t="n">
+      <c r="H4" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="188" t="s">
+      <c r="I4" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="189" t="s">
+      <c r="J4" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K4" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="190" t="n">
+      <c r="L4" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="190" t="n">
+      <c r="M4" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="190" t="n">
+      <c r="N4" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O4" s="190" t="n">
+      <c r="O4" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="191" t="n">
+      <c r="P4" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="191" t="n">
+      <c r="Q4" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="191" t="n">
+      <c r="R4" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S4" s="42" t="n">
@@ -15796,74 +15743,74 @@
       <c r="V4" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="188"/>
-      <c r="X4" s="192"/>
-      <c r="Y4" s="192"/>
-      <c r="Z4" s="190" t="n">
+      <c r="W4" s="184"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA4" s="193" t="n">
+      <c r="AA4" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB4" s="193" t="n">
+      <c r="AB4" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="192"/>
-      <c r="AD4" s="192"/>
+      <c r="AC4" s="188"/>
+      <c r="AD4" s="188"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="182" t="s">
         <v>989</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="183" t="s">
         <v>990</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="182" t="s">
         <v>991</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="183" t="s">
         <v>990</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="184" t="s">
         <v>897</v>
       </c>
-      <c r="G5" s="188" t="s">
+      <c r="G5" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="171" t="n">
+      <c r="H5" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="188" t="s">
+      <c r="I5" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J5" s="189" t="s">
+      <c r="J5" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K5" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="190" t="n">
+      <c r="L5" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M5" s="190" t="n">
+      <c r="M5" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="190" t="n">
+      <c r="N5" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O5" s="190" t="n">
+      <c r="O5" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="191" t="n">
+      <c r="P5" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="191" t="n">
+      <c r="Q5" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="191" t="n">
+      <c r="R5" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S5" s="42" t="n">
@@ -15878,74 +15825,74 @@
       <c r="V5" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="188"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="190" t="n">
+      <c r="W5" s="184"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA5" s="193" t="n">
+      <c r="AA5" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" s="193" t="n">
+      <c r="AB5" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="192"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="182" t="s">
         <v>992</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="183" t="s">
         <v>993</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="182" t="s">
         <v>994</v>
       </c>
-      <c r="D6" s="187" t="s">
+      <c r="D6" s="183" t="s">
         <v>993</v>
       </c>
-      <c r="E6" s="188" t="s">
+      <c r="E6" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F6" s="188" t="s">
+      <c r="F6" s="184" t="s">
         <v>897</v>
       </c>
-      <c r="G6" s="188" t="s">
+      <c r="G6" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="171" t="n">
+      <c r="H6" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="188" t="s">
+      <c r="I6" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J6" s="189" t="s">
+      <c r="J6" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K6" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="190" t="n">
+      <c r="L6" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M6" s="190" t="n">
+      <c r="M6" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="190" t="n">
+      <c r="N6" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O6" s="190" t="n">
+      <c r="O6" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="191" t="n">
+      <c r="P6" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="191" t="n">
+      <c r="Q6" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="191" t="n">
+      <c r="R6" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S6" s="42" t="n">
@@ -15960,74 +15907,74 @@
       <c r="V6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W6" s="188"/>
-      <c r="X6" s="192"/>
-      <c r="Y6" s="192"/>
-      <c r="Z6" s="190" t="n">
+      <c r="W6" s="184"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA6" s="193" t="n">
+      <c r="AA6" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" s="193" t="n">
+      <c r="AB6" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="192"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="182" t="s">
         <v>995</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="183" t="s">
         <v>996</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="182" t="s">
         <v>997</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="183" t="s">
         <v>996</v>
       </c>
-      <c r="E7" s="188" t="s">
+      <c r="E7" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="184" t="s">
         <v>897</v>
       </c>
-      <c r="G7" s="188" t="s">
+      <c r="G7" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="171" t="n">
+      <c r="H7" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="188" t="s">
+      <c r="I7" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K7" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="190" t="n">
+      <c r="L7" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M7" s="190" t="n">
+      <c r="M7" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="190" t="n">
+      <c r="N7" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O7" s="190" t="n">
+      <c r="O7" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="191" t="n">
+      <c r="P7" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="191" t="n">
+      <c r="Q7" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="191" t="n">
+      <c r="R7" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S7" s="42" t="n">
@@ -16042,74 +15989,74 @@
       <c r="V7" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W7" s="188"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="190" t="n">
+      <c r="W7" s="184"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA7" s="193" t="n">
+      <c r="AA7" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB7" s="193" t="n">
+      <c r="AB7" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="182" t="s">
         <v>998</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="183" t="s">
         <v>999</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="182" t="s">
         <v>991</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="183" t="s">
         <v>999</v>
       </c>
-      <c r="E8" s="188" t="s">
+      <c r="E8" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="184" t="s">
         <v>897</v>
       </c>
-      <c r="G8" s="188" t="s">
+      <c r="G8" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="171" t="n">
+      <c r="H8" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="I8" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J8" s="189" t="s">
+      <c r="J8" s="185" t="s">
         <v>1000</v>
       </c>
       <c r="K8" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="190" t="n">
+      <c r="L8" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M8" s="190" t="n">
+      <c r="M8" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="190" t="n">
+      <c r="N8" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O8" s="190" t="n">
+      <c r="O8" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="191" t="n">
+      <c r="P8" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="191" t="n">
+      <c r="Q8" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="191" t="n">
+      <c r="R8" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S8" s="42" t="n">
@@ -16124,74 +16071,74 @@
       <c r="V8" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W8" s="188"/>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="190" t="n">
+      <c r="W8" s="184"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA8" s="193" t="n">
+      <c r="AA8" s="189" t="n">
         <v>1</v>
       </c>
-      <c r="AB8" s="193" t="n">
+      <c r="AB8" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="192"/>
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="182" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="183" t="s">
         <v>1002</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="182" t="s">
         <v>994</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D9" s="183" t="s">
         <v>1002</v>
       </c>
-      <c r="E9" s="188" t="s">
+      <c r="E9" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F9" s="188" t="s">
+      <c r="F9" s="184" t="s">
         <v>897</v>
       </c>
-      <c r="G9" s="188" t="s">
+      <c r="G9" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="171" t="n">
+      <c r="H9" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="188" t="s">
+      <c r="I9" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J9" s="189" t="s">
+      <c r="J9" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K9" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="190" t="n">
+      <c r="L9" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M9" s="190" t="n">
+      <c r="M9" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="190" t="n">
+      <c r="N9" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O9" s="190" t="n">
+      <c r="O9" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="191" t="n">
+      <c r="P9" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="191" t="n">
+      <c r="Q9" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="191" t="n">
+      <c r="R9" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S9" s="42" t="n">
@@ -16206,74 +16153,74 @@
       <c r="V9" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="188"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="190" t="n">
+      <c r="W9" s="184"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA9" s="193" t="n">
+      <c r="AA9" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="193" t="n">
+      <c r="AB9" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="192"/>
+      <c r="AC9" s="188"/>
+      <c r="AD9" s="188"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="182" t="s">
         <v>601</v>
       </c>
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="183" t="s">
         <v>1003</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="182" t="s">
         <v>1004</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="183" t="s">
         <v>1003</v>
       </c>
-      <c r="E10" s="188" t="s">
+      <c r="E10" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F10" s="188" t="s">
+      <c r="F10" s="184" t="s">
         <v>898</v>
       </c>
-      <c r="G10" s="188" t="s">
+      <c r="G10" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="H10" s="171" t="n">
+      <c r="H10" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="188" t="s">
+      <c r="I10" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J10" s="189" t="s">
+      <c r="J10" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K10" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="190" t="n">
+      <c r="L10" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M10" s="190" t="n">
+      <c r="M10" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="190" t="n">
+      <c r="N10" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O10" s="190" t="n">
+      <c r="O10" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="191" t="n">
+      <c r="P10" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="191" t="n">
+      <c r="Q10" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="191" t="n">
+      <c r="R10" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S10" s="42" t="n">
@@ -16288,74 +16235,74 @@
       <c r="V10" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W10" s="188"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="192"/>
-      <c r="Z10" s="190" t="n">
+      <c r="W10" s="184"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA10" s="193" t="n">
+      <c r="AA10" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" s="193" t="n">
+      <c r="AB10" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="192"/>
+      <c r="AC10" s="188"/>
+      <c r="AD10" s="188"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="182" t="s">
         <v>1005</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="183" t="s">
         <v>1006</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="C11" s="182" t="s">
         <v>1007</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="183" t="s">
         <v>1006</v>
       </c>
-      <c r="E11" s="188" t="s">
+      <c r="E11" s="184" t="s">
         <v>1008</v>
       </c>
-      <c r="F11" s="188" t="s">
+      <c r="F11" s="184" t="s">
         <v>898</v>
       </c>
-      <c r="G11" s="188" t="s">
+      <c r="G11" s="184" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="171" t="n">
+      <c r="H11" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="188" t="s">
+      <c r="I11" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="189" t="s">
+      <c r="J11" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K11" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="190" t="n">
+      <c r="L11" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M11" s="190" t="n">
+      <c r="M11" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="190" t="n">
+      <c r="N11" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O11" s="190" t="n">
+      <c r="O11" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="191" t="n">
+      <c r="P11" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="191" t="n">
+      <c r="Q11" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="191" t="n">
+      <c r="R11" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="42" t="n">
@@ -16370,74 +16317,74 @@
       <c r="V11" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W11" s="188"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="190" t="n">
+      <c r="W11" s="184"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA11" s="193" t="n">
+      <c r="AA11" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB11" s="193" t="n">
+      <c r="AB11" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="192"/>
+      <c r="AC11" s="188"/>
+      <c r="AD11" s="188"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="182" t="s">
         <v>1009</v>
       </c>
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="183" t="s">
         <v>1010</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="182" t="s">
         <v>1011</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="183" t="s">
         <v>1010</v>
       </c>
-      <c r="E12" s="188" t="s">
+      <c r="E12" s="184" t="s">
         <v>1008</v>
       </c>
-      <c r="F12" s="188" t="s">
+      <c r="F12" s="184" t="s">
         <v>898</v>
       </c>
-      <c r="G12" s="188" t="s">
+      <c r="G12" s="184" t="s">
         <v>211</v>
       </c>
-      <c r="H12" s="171" t="n">
+      <c r="H12" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="188" t="s">
+      <c r="I12" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J12" s="189" t="s">
+      <c r="J12" s="185" t="s">
         <v>988</v>
       </c>
       <c r="K12" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L12" s="190" t="n">
+      <c r="L12" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M12" s="190" t="n">
+      <c r="M12" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N12" s="190" t="n">
+      <c r="N12" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O12" s="190" t="n">
+      <c r="O12" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="191" t="n">
+      <c r="P12" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="191" t="n">
+      <c r="Q12" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="191" t="n">
+      <c r="R12" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S12" s="42" t="n">
@@ -16452,71 +16399,71 @@
       <c r="V12" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W12" s="188"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="192"/>
-      <c r="Z12" s="190" t="n">
+      <c r="W12" s="184"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
+      <c r="Z12" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA12" s="193" t="n">
+      <c r="AA12" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB12" s="193" t="n">
+      <c r="AB12" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
+      <c r="AC12" s="188"/>
+      <c r="AD12" s="188"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="182" t="s">
         <v>1012</v>
       </c>
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="182" t="s">
         <v>1013</v>
       </c>
-      <c r="D13" s="195" t="s">
+      <c r="D13" s="183" t="s">
         <v>1014</v>
       </c>
-      <c r="E13" s="188" t="s">
+      <c r="E13" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F13" s="188" t="s">
+      <c r="F13" s="184" t="s">
         <v>898</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="171" t="n">
+      <c r="H13" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="188" t="s">
+      <c r="I13" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J13" s="189" t="s">
+      <c r="J13" s="185" t="s">
         <v>1015</v>
       </c>
       <c r="K13" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="190" t="n">
+      <c r="L13" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M13" s="190" t="n">
+      <c r="M13" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="190" t="n">
+      <c r="N13" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O13" s="190" t="n">
+      <c r="O13" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="191" t="n">
+      <c r="P13" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="191" t="n">
+      <c r="Q13" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="191" t="n">
+      <c r="R13" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S13" s="42" t="n">
@@ -16529,80 +16476,80 @@
         <v>14</v>
       </c>
       <c r="V13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="184" t="s">
         <v>611</v>
       </c>
-      <c r="X13" s="192" t="s">
+      <c r="X13" s="188" t="s">
         <v>705</v>
       </c>
-      <c r="Y13" s="192"/>
-      <c r="Z13" s="190" t="n">
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA13" s="193" t="n">
+      <c r="AA13" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB13" s="193" t="n">
+      <c r="AB13" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="192"/>
+      <c r="AC13" s="188"/>
+      <c r="AD13" s="188"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="182" t="s">
         <v>1016</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="182" t="s">
         <v>608</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="D14" s="195" t="s">
+      <c r="D14" s="183" t="s">
         <v>1018</v>
       </c>
-      <c r="E14" s="188" t="s">
+      <c r="E14" s="184" t="s">
         <v>987</v>
       </c>
-      <c r="F14" s="188" t="s">
+      <c r="F14" s="184" t="s">
         <v>898</v>
       </c>
-      <c r="G14" s="188" t="s">
+      <c r="G14" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="171" t="n">
+      <c r="H14" s="167" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="188" t="s">
+      <c r="I14" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="J14" s="189" t="s">
+      <c r="J14" s="185" t="s">
         <v>1019</v>
       </c>
       <c r="K14" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="190" t="n">
+      <c r="L14" s="186" t="n">
         <v>7</v>
       </c>
-      <c r="M14" s="190" t="n">
+      <c r="M14" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="190" t="n">
+      <c r="N14" s="186" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O14" s="190" t="n">
+      <c r="O14" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="191" t="n">
+      <c r="P14" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="191" t="n">
+      <c r="Q14" s="187" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="191" t="n">
+      <c r="R14" s="187" t="n">
         <v>1</v>
       </c>
       <c r="S14" s="42" t="n">
@@ -16617,30 +16564,31 @@
       <c r="V14" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="W14" s="188" t="s">
+      <c r="W14" s="184" t="s">
         <v>608</v>
       </c>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="192" t="s">
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188" t="s">
         <v>610</v>
       </c>
-      <c r="Z14" s="190" t="n">
+      <c r="Z14" s="186" t="n">
         <v>10</v>
       </c>
-      <c r="AA14" s="193" t="n">
+      <c r="AA14" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AB14" s="193" t="n">
+      <c r="AB14" s="189" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" s="192"/>
-      <c r="AD14" s="192"/>
-    </row>
+      <c r="AC14" s="188"/>
+      <c r="AD14" s="188"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P2:R2"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="16">
     <dataValidation allowBlank="true" error="Please enter a whole number greater than or equal to 0" errorTitle="Invalid data" operator="greaterThanOrEqual" prompt="Please enter a whole number greater than or equal to 0" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P4:P14" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -16697,11 +16645,7 @@
       <formula1>Preservations!$A$4:$A$250</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="The unique keyword used to identify the analysis service in import files of bulk AR requests and results imports from instruments. It is also used to identify dependent analysis services in user defined results calculations" promptTitle="Unique Analysis Service keyword" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B4:B12 D4:D12" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="The unique keyword used to identify the analysis service in import files of bulk AR requests and results imports from instruments. It is also used to identify dependent analysis services in user defined results calculations" promptTitle="Unique Analysis Service keyword" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="D13:D14" type="none">
+    <dataValidation allowBlank="true" operator="equal" prompt="The unique keyword used to identify the analysis service in import files of bulk AR requests and results imports from instruments. It is also used to identify dependent analysis services in user defined results calculations" promptTitle="Unique Analysis Service keyword" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B4:B12 D4:D14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16941,151 +16885,151 @@
       <c r="B3" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="190" t="s">
         <v>1033</v>
       </c>
       <c r="AMJ3" s="83"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>1034</v>
       </c>
-      <c r="C4" s="198" t="n">
+      <c r="C4" s="192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>1035</v>
       </c>
-      <c r="C5" s="198" t="n">
+      <c r="C5" s="192" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>1036</v>
       </c>
-      <c r="C6" s="198" t="n">
+      <c r="C6" s="192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>1037</v>
       </c>
-      <c r="C7" s="198" t="n">
+      <c r="C7" s="192" t="n">
         <v>-2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>1034</v>
       </c>
-      <c r="C8" s="198" t="n">
+      <c r="C8" s="192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>1035</v>
       </c>
-      <c r="C9" s="198" t="n">
+      <c r="C9" s="192" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B10" s="86" t="s">
         <v>1036</v>
       </c>
-      <c r="C10" s="198" t="n">
+      <c r="C10" s="192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B11" s="86" t="s">
         <v>1037</v>
       </c>
-      <c r="C11" s="198" t="n">
+      <c r="C11" s="192" t="n">
         <v>-2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>1035</v>
       </c>
-      <c r="C12" s="198" t="n">
+      <c r="C12" s="192" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B13" s="86" t="s">
         <v>1034</v>
       </c>
-      <c r="C13" s="198" t="n">
+      <c r="C13" s="192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>1035</v>
       </c>
-      <c r="C14" s="198" t="n">
+      <c r="C14" s="192" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>1036</v>
       </c>
-      <c r="C15" s="198" t="n">
+      <c r="C15" s="192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>1037</v>
       </c>
-      <c r="C16" s="198" t="n">
+      <c r="C16" s="192" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -18212,7 +18156,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="191" t="s">
         <v>984</v>
       </c>
       <c r="B4" s="28" t="n">
@@ -18226,7 +18170,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="191" t="s">
         <v>984</v>
       </c>
       <c r="B5" s="28" t="n">
@@ -18240,7 +18184,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="191" t="s">
         <v>984</v>
       </c>
       <c r="B6" s="28" t="n">
@@ -18254,7 +18198,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="191" t="s">
         <v>984</v>
       </c>
       <c r="B7" s="28" t="n">
@@ -18268,7 +18212,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="191" t="s">
         <v>984</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -18282,7 +18226,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B9" s="28" t="n">
@@ -18296,7 +18240,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B10" s="28" t="n">
@@ -18310,7 +18254,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B11" s="28" t="n">
@@ -18324,7 +18268,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B12" s="28" t="n">
@@ -18338,7 +18282,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="191" t="s">
         <v>989</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -18352,7 +18296,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="191" t="s">
         <v>992</v>
       </c>
       <c r="B14" s="28" t="n">
@@ -18366,7 +18310,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="191" t="s">
         <v>992</v>
       </c>
       <c r="B15" s="28" t="n">
@@ -18380,7 +18324,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="191" t="s">
         <v>992</v>
       </c>
       <c r="B16" s="28" t="n">
@@ -18394,7 +18338,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="191" t="s">
         <v>992</v>
       </c>
       <c r="B17" s="28" t="n">
@@ -18408,7 +18352,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="197" t="s">
+      <c r="A18" s="191" t="s">
         <v>992</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -18422,7 +18366,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="191" t="s">
         <v>995</v>
       </c>
       <c r="B19" s="28" t="n">
@@ -18436,7 +18380,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="191" t="s">
         <v>995</v>
       </c>
       <c r="B20" s="28" t="n">
@@ -18450,7 +18394,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="191" t="s">
         <v>995</v>
       </c>
       <c r="B21" s="28" t="n">
@@ -18464,7 +18408,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="197" t="s">
+      <c r="A22" s="191" t="s">
         <v>995</v>
       </c>
       <c r="B22" s="28" t="n">
@@ -18478,7 +18422,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="191" t="s">
         <v>995</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -18492,7 +18436,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="197" t="s">
+      <c r="A24" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B24" s="28" t="n">
@@ -18506,7 +18450,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B25" s="28" t="n">
@@ -18520,7 +18464,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="197" t="s">
+      <c r="A26" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B26" s="28" t="n">
@@ -18534,7 +18478,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B27" s="28" t="n">
@@ -18548,7 +18492,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="197" t="s">
+      <c r="A28" s="191" t="s">
         <v>998</v>
       </c>
       <c r="B28" s="28" t="s">
@@ -18562,7 +18506,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="197" t="s">
+      <c r="A29" s="191" t="s">
         <v>1001</v>
       </c>
       <c r="B29" s="28" t="n">
@@ -18576,7 +18520,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="197" t="s">
+      <c r="A30" s="191" t="s">
         <v>1001</v>
       </c>
       <c r="B30" s="28" t="n">
@@ -18590,7 +18534,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="197" t="s">
+      <c r="A31" s="191" t="s">
         <v>1001</v>
       </c>
       <c r="B31" s="28" t="n">
@@ -18604,7 +18548,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="197" t="s">
+      <c r="A32" s="191" t="s">
         <v>1001</v>
       </c>
       <c r="B32" s="28" t="n">
@@ -18618,7 +18562,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="197" t="s">
+      <c r="A33" s="191" t="s">
         <v>1001</v>
       </c>
       <c r="B33" s="28" t="s">
@@ -18632,7 +18576,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="191" t="s">
         <v>601</v>
       </c>
       <c r="B34" s="28" t="n">
@@ -18646,7 +18590,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="197" t="s">
+      <c r="A35" s="191" t="s">
         <v>601</v>
       </c>
       <c r="B35" s="28" t="n">
@@ -18660,7 +18604,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="191" t="s">
         <v>601</v>
       </c>
       <c r="B36" s="28" t="n">
@@ -18674,7 +18618,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="197" t="s">
+      <c r="A37" s="191" t="s">
         <v>601</v>
       </c>
       <c r="B37" s="28" t="n">
@@ -18688,7 +18632,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="197" t="s">
+      <c r="A38" s="191" t="s">
         <v>601</v>
       </c>
       <c r="B38" s="28" t="s">
@@ -18702,7 +18646,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B39" s="28" t="n">
@@ -18716,7 +18660,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="197" t="s">
+      <c r="A40" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B40" s="28" t="n">
@@ -18730,7 +18674,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="197" t="s">
+      <c r="A41" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B41" s="28" t="n">
@@ -18744,7 +18688,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="197" t="s">
+      <c r="A42" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B42" s="28" t="n">
@@ -18758,7 +18702,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="191" t="s">
         <v>1005</v>
       </c>
       <c r="B43" s="28" t="s">
@@ -18772,7 +18716,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="197" t="s">
+      <c r="A44" s="191" t="s">
         <v>1009</v>
       </c>
       <c r="B44" s="28" t="n">
@@ -18786,7 +18730,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="197" t="s">
+      <c r="A45" s="191" t="s">
         <v>1009</v>
       </c>
       <c r="B45" s="28" t="n">
@@ -18800,7 +18744,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="197" t="s">
+      <c r="A46" s="191" t="s">
         <v>1009</v>
       </c>
       <c r="B46" s="28" t="n">
@@ -18814,7 +18758,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="197" t="s">
+      <c r="A47" s="191" t="s">
         <v>1009</v>
       </c>
       <c r="B47" s="28" t="n">
@@ -18828,7 +18772,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="197" t="s">
+      <c r="A48" s="191" t="s">
         <v>1009</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -18968,7 +18912,7 @@
       <c r="A3" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="193" t="s">
         <v>218</v>
       </c>
       <c r="C3" s="61" t="s">
@@ -18985,7 +18929,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="200"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="86" t="s">
         <v>897</v>
       </c>
@@ -18997,7 +18941,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="200"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="65" t="s">
         <v>1057</v>
       </c>
@@ -19009,7 +18953,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="200"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="65" t="s">
         <v>1060</v>
       </c>
@@ -19090,74 +19034,74 @@
       </c>
     </row>
     <row r="4" s="52" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="194" t="s">
         <v>897</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="195" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="194" t="s">
         <v>897</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="195" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="194" t="s">
         <v>897</v>
       </c>
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="195" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="194" t="s">
         <v>897</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="195" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="194" t="s">
         <v>897</v>
       </c>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="195" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="194" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="201" t="s">
+      <c r="B9" s="195" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="194" t="s">
         <v>1057</v>
       </c>
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="195" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="194" t="s">
         <v>1057</v>
       </c>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="195" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="194" t="s">
         <v>1060</v>
       </c>
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="195" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -19202,8 +19146,8 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19340,14 +19284,14 @@
       <c r="C7" s="104" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="195" t="s">
         <v>1016</v>
       </c>
       <c r="E7" s="86" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="86" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="86" t="n">
         <v>3</v>
@@ -19361,7 +19305,7 @@
       <c r="C8" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="195" t="s">
         <v>1012</v>
       </c>
       <c r="E8" s="86" t="n">
@@ -19382,7 +19326,7 @@
       <c r="C9" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="195" t="s">
         <v>1009</v>
       </c>
       <c r="E9" s="86" t="n">
@@ -19917,7 +19861,7 @@
       <c r="A6" s="104" t="s">
         <v>897</v>
       </c>
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="195" t="s">
         <v>992</v>
       </c>
       <c r="C6" s="104" t="s">
@@ -19928,7 +19872,7 @@
       <c r="A7" s="104" t="s">
         <v>897</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="195" t="s">
         <v>995</v>
       </c>
       <c r="C7" s="104" t="s">
@@ -19939,7 +19883,7 @@
       <c r="A8" s="104" t="s">
         <v>897</v>
       </c>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="195" t="s">
         <v>998</v>
       </c>
       <c r="C8" s="104" t="s">
@@ -19950,7 +19894,7 @@
       <c r="A9" s="104" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="201" t="s">
+      <c r="B9" s="195" t="s">
         <v>1001</v>
       </c>
       <c r="C9" s="104" t="s">
@@ -19961,7 +19905,7 @@
       <c r="A10" s="104" t="s">
         <v>1057</v>
       </c>
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="195" t="s">
         <v>601</v>
       </c>
       <c r="C10" s="104" t="s">
@@ -19972,7 +19916,7 @@
       <c r="A11" s="104" t="s">
         <v>1057</v>
       </c>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="195" t="s">
         <v>1005</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -19983,7 +19927,7 @@
       <c r="A12" s="104" t="s">
         <v>1057</v>
       </c>
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="195" t="s">
         <v>1009</v>
       </c>
       <c r="C12" s="104" t="s">
@@ -20170,10 +20114,10 @@
       <c r="D4" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="159" t="n">
+      <c r="E4" s="155" t="n">
         <v>41184</v>
       </c>
-      <c r="F4" s="159" t="n">
+      <c r="F4" s="155" t="n">
         <v>41914</v>
       </c>
     </row>
@@ -20190,10 +20134,10 @@
       <c r="D5" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="159" t="n">
+      <c r="E5" s="155" t="n">
         <v>41184</v>
       </c>
-      <c r="F5" s="159" t="n">
+      <c r="F5" s="155" t="n">
         <v>42279</v>
       </c>
     </row>
@@ -20210,10 +20154,10 @@
       <c r="D6" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="159" t="n">
+      <c r="E6" s="155" t="n">
         <v>41184</v>
       </c>
-      <c r="F6" s="159" t="n">
+      <c r="F6" s="155" t="n">
         <v>41914</v>
       </c>
     </row>
@@ -20321,7 +20265,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="104"/>
-      <c r="B4" s="201"/>
+      <c r="B4" s="195"/>
       <c r="C4" s="82"/>
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
@@ -20329,7 +20273,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="104"/>
-      <c r="B5" s="201"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
@@ -20337,7 +20281,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="104"/>
-      <c r="B6" s="201"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="82"/>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
@@ -20345,7 +20289,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="104"/>
-      <c r="B7" s="201"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -20353,7 +20297,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="104"/>
-      <c r="B8" s="201"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -20361,7 +20305,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="104"/>
-      <c r="B9" s="201"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="82"/>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
@@ -20369,7 +20313,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="104"/>
-      <c r="B10" s="201"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="82"/>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
@@ -20377,91 +20321,91 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="104"/>
-      <c r="B11" s="201"/>
+      <c r="B11" s="195"/>
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
       <c r="E11" s="82"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="104"/>
-      <c r="B12" s="201"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="82"/>
       <c r="D12" s="82"/>
       <c r="E12" s="82"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="104"/>
-      <c r="B13" s="201"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="104"/>
-      <c r="B14" s="201"/>
+      <c r="B14" s="195"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="104"/>
-      <c r="B15" s="201"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="104"/>
-      <c r="B16" s="201"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="104"/>
-      <c r="B17" s="201"/>
+      <c r="B17" s="195"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="104"/>
-      <c r="B18" s="201"/>
+      <c r="B18" s="195"/>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
       <c r="E18" s="82"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="104"/>
-      <c r="B19" s="201"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="82"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="104"/>
-      <c r="B20" s="201"/>
+      <c r="B20" s="195"/>
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="104"/>
-      <c r="B21" s="201"/>
+      <c r="B21" s="195"/>
       <c r="C21" s="82"/>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="104"/>
-      <c r="B22" s="201"/>
+      <c r="B22" s="195"/>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="104"/>
-      <c r="B23" s="201"/>
+      <c r="B23" s="195"/>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
@@ -20908,31 +20852,31 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="201"/>
+      <c r="B4" s="195"/>
       <c r="G4" s="42"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="201"/>
+      <c r="B5" s="195"/>
       <c r="G5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="201"/>
+      <c r="B6" s="195"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="201"/>
+      <c r="B7" s="195"/>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="201"/>
+      <c r="B8" s="195"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="201"/>
+      <c r="B9" s="195"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="201"/>
+      <c r="B10" s="195"/>
       <c r="G10" s="42"/>
     </row>
   </sheetData>
@@ -21064,32 +21008,32 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="201"/>
-      <c r="D4" s="201"/>
+      <c r="A4" s="195"/>
+      <c r="D4" s="195"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="201"/>
-      <c r="D5" s="201"/>
+      <c r="A5" s="195"/>
+      <c r="D5" s="195"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="201"/>
-      <c r="D6" s="201"/>
+      <c r="A6" s="195"/>
+      <c r="D6" s="195"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="201"/>
-      <c r="D7" s="201"/>
+      <c r="A7" s="195"/>
+      <c r="D7" s="195"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="A8" s="195"/>
+      <c r="D8" s="195"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="201"/>
-      <c r="D9" s="201"/>
+      <c r="A9" s="195"/>
+      <c r="D9" s="195"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="201"/>
-      <c r="D10" s="201"/>
+      <c r="A10" s="195"/>
+      <c r="D10" s="195"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -21349,7 +21293,7 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="196" t="s">
         <v>1171</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -21391,8 +21335,8 @@
       <c r="N3" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="AMI3" s="202"/>
-      <c r="AMJ3" s="202"/>
+      <c r="AMI3" s="196"/>
+      <c r="AMJ3" s="196"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -21658,63 +21602,63 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="104"/>
-      <c r="D4" s="201"/>
+      <c r="D4" s="195"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="104"/>
-      <c r="D5" s="201"/>
+      <c r="D5" s="195"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -22225,7 +22169,7 @@
       <c r="B1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="203" t="s">
+      <c r="C1" s="197" t="s">
         <v>54</v>
       </c>
     </row>
@@ -22233,7 +22177,7 @@
       <c r="B2" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="C2" s="204"/>
+      <c r="C2" s="198"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
@@ -22242,7 +22186,7 @@
       <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="197" t="s">
         <v>54</v>
       </c>
     </row>
@@ -22250,10 +22194,10 @@
       <c r="A4" s="12" t="s">
         <v>1228</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="199" t="s">
         <v>1229</v>
       </c>
-      <c r="C4" s="206" t="n">
+      <c r="C4" s="200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22261,10 +22205,10 @@
       <c r="A5" s="12" t="s">
         <v>1230</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="199" t="s">
         <v>1231</v>
       </c>
-      <c r="C5" s="206" t="n">
+      <c r="C5" s="200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22272,10 +22216,10 @@
       <c r="A6" s="12" t="s">
         <v>1232</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="199" t="s">
         <v>1232</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="200" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -22283,10 +22227,10 @@
       <c r="A7" s="12" t="s">
         <v>1234</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="199" t="s">
         <v>1235</v>
       </c>
-      <c r="C7" s="207" t="n">
+      <c r="C7" s="201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22294,10 +22238,10 @@
       <c r="A8" s="12" t="s">
         <v>1236</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="199" t="s">
         <v>1237</v>
       </c>
-      <c r="C8" s="207" t="n">
+      <c r="C8" s="201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22305,10 +22249,10 @@
       <c r="A9" s="12" t="s">
         <v>1238</v>
       </c>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="199" t="s">
         <v>1239</v>
       </c>
-      <c r="C9" s="206" t="n">
+      <c r="C9" s="200" t="n">
         <v>15</v>
       </c>
     </row>
@@ -22316,10 +22260,10 @@
       <c r="A10" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="199" t="s">
         <v>1240</v>
       </c>
-      <c r="C10" s="206" t="n">
+      <c r="C10" s="200" t="n">
         <v>14</v>
       </c>
     </row>
@@ -22327,10 +22271,10 @@
       <c r="A11" s="12" t="s">
         <v>1241</v>
       </c>
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="199" t="s">
         <v>1242</v>
       </c>
-      <c r="C11" s="206" t="n">
+      <c r="C11" s="200" t="n">
         <v>5</v>
       </c>
     </row>
@@ -22338,10 +22282,10 @@
       <c r="A12" s="12" t="s">
         <v>1243</v>
       </c>
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="199" t="s">
         <v>1244</v>
       </c>
-      <c r="C12" s="206" t="n">
+      <c r="C12" s="200" t="n">
         <v>5</v>
       </c>
     </row>
@@ -22349,10 +22293,10 @@
       <c r="A13" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="B13" s="205" t="s">
+      <c r="B13" s="199" t="s">
         <v>1246</v>
       </c>
-      <c r="C13" s="206" t="n">
+      <c r="C13" s="200" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22360,19 +22304,19 @@
       <c r="A14" s="12" t="s">
         <v>1247</v>
       </c>
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="199" t="s">
         <v>1248</v>
       </c>
-      <c r="C14" s="206"/>
+      <c r="C14" s="200"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
         <v>1249</v>
       </c>
-      <c r="B15" s="205" t="s">
+      <c r="B15" s="199" t="s">
         <v>1250</v>
       </c>
-      <c r="C15" s="207" t="n">
+      <c r="C15" s="201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22380,10 +22324,10 @@
       <c r="A16" s="12" t="s">
         <v>1251</v>
       </c>
-      <c r="B16" s="205" t="s">
+      <c r="B16" s="199" t="s">
         <v>1252</v>
       </c>
-      <c r="C16" s="207" t="n">
+      <c r="C16" s="201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22391,10 +22335,10 @@
       <c r="A17" s="12" t="s">
         <v>1253</v>
       </c>
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="199" t="s">
         <v>1254</v>
       </c>
-      <c r="C17" s="207" t="n">
+      <c r="C17" s="201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22402,34 +22346,34 @@
       <c r="A18" s="12" t="s">
         <v>1255</v>
       </c>
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="199" t="s">
         <v>1256</v>
       </c>
-      <c r="C18" s="208" t="s">
+      <c r="C18" s="202" t="s">
         <v>1257</v>
       </c>
-      <c r="D18" s="209"/>
+      <c r="D18" s="203"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
         <v>1258</v>
       </c>
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="199" t="s">
         <v>1259</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="204" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="209"/>
+      <c r="D19" s="203"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
         <v>1260</v>
       </c>
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="199" t="s">
         <v>1261</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="204" t="s">
         <v>313</v>
       </c>
     </row>
@@ -22437,10 +22381,10 @@
       <c r="A21" s="12" t="s">
         <v>1262</v>
       </c>
-      <c r="B21" s="205" t="s">
+      <c r="B21" s="199" t="s">
         <v>1263</v>
       </c>
-      <c r="C21" s="208" t="n">
+      <c r="C21" s="202" t="n">
         <v>30</v>
       </c>
     </row>
@@ -22448,10 +22392,10 @@
       <c r="A22" s="12" t="s">
         <v>1264</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="199" t="s">
         <v>1265</v>
       </c>
-      <c r="C22" s="208" t="n">
+      <c r="C22" s="202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22459,10 +22403,10 @@
       <c r="A23" s="12" t="s">
         <v>1266</v>
       </c>
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="199" t="s">
         <v>1267</v>
       </c>
-      <c r="C23" s="208" t="n">
+      <c r="C23" s="202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22470,22 +22414,22 @@
       <c r="A24" s="12" t="s">
         <v>1268</v>
       </c>
-      <c r="B24" s="205" t="s">
+      <c r="B24" s="199" t="s">
         <v>1269</v>
       </c>
-      <c r="C24" s="210" t="s">
+      <c r="C24" s="204" t="s">
         <v>1270</v>
       </c>
-      <c r="D24" s="211"/>
+      <c r="D24" s="205"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
         <v>1271</v>
       </c>
-      <c r="B25" s="205" t="s">
+      <c r="B25" s="199" t="s">
         <v>1272</v>
       </c>
-      <c r="C25" s="210" t="s">
+      <c r="C25" s="204" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -22493,10 +22437,10 @@
       <c r="A26" s="12" t="s">
         <v>1274</v>
       </c>
-      <c r="B26" s="205" t="s">
+      <c r="B26" s="199" t="s">
         <v>1275</v>
       </c>
-      <c r="C26" s="207" t="n">
+      <c r="C26" s="201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22504,10 +22448,10 @@
       <c r="A27" s="12" t="s">
         <v>1276</v>
       </c>
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="199" t="s">
         <v>1277</v>
       </c>
-      <c r="C27" s="206" t="s">
+      <c r="C27" s="200" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -22515,10 +22459,10 @@
       <c r="A28" s="12" t="s">
         <v>1279</v>
       </c>
-      <c r="B28" s="205" t="s">
+      <c r="B28" s="199" t="s">
         <v>1280</v>
       </c>
-      <c r="C28" s="206" t="n">
+      <c r="C28" s="200" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22526,10 +22470,10 @@
       <c r="A29" s="12" t="s">
         <v>1281</v>
       </c>
-      <c r="B29" s="205" t="s">
+      <c r="B29" s="199" t="s">
         <v>1282</v>
       </c>
-      <c r="C29" s="207" t="n">
+      <c r="C29" s="201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22537,19 +22481,19 @@
       <c r="A30" s="12" t="s">
         <v>1283</v>
       </c>
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="199" t="s">
         <v>1284</v>
       </c>
-      <c r="C30" s="206"/>
+      <c r="C30" s="200"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
         <v>1285</v>
       </c>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="199" t="s">
         <v>1286</v>
       </c>
-      <c r="C31" s="212" t="s">
+      <c r="C31" s="206" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -22686,10 +22630,10 @@
   </cols>
   <sheetData>
     <row r="1" s="92" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="207" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="93" t="s">
@@ -22704,7 +22648,7 @@
       <c r="F1" s="92" t="s">
         <v>1291</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="G1" s="208" t="s">
         <v>1292</v>
       </c>
       <c r="H1" s="93" t="s">
@@ -22728,31 +22672,31 @@
       <c r="B2" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="199" t="s">
         <v>1257</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="199" t="s">
         <v>1296</v>
       </c>
-      <c r="E2" s="215" t="s">
+      <c r="E2" s="209" t="s">
         <v>1297</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="199" t="s">
         <v>1298</v>
       </c>
-      <c r="G2" s="205" t="n">
+      <c r="G2" s="199" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="205" t="s">
+      <c r="H2" s="199" t="s">
         <v>1299</v>
       </c>
-      <c r="I2" s="205" t="s">
+      <c r="I2" s="199" t="s">
         <v>1300</v>
       </c>
-      <c r="J2" s="205" t="s">
+      <c r="J2" s="199" t="s">
         <v>1301</v>
       </c>
-      <c r="K2" s="205" t="s">
+      <c r="K2" s="199" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -22763,31 +22707,31 @@
       <c r="B3" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="205" t="s">
+      <c r="C3" s="199" t="s">
         <v>1303</v>
       </c>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="199" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="215" t="s">
+      <c r="E3" s="209" t="s">
         <v>1273</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="199" t="s">
         <v>1304</v>
       </c>
-      <c r="G3" s="205" t="n">
+      <c r="G3" s="199" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="199" t="s">
         <v>1305</v>
       </c>
-      <c r="I3" s="205" t="s">
+      <c r="I3" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="205" t="s">
+      <c r="J3" s="199" t="s">
         <v>1306</v>
       </c>
-      <c r="K3" s="205" t="s">
+      <c r="K3" s="199" t="s">
         <v>987</v>
       </c>
     </row>
@@ -22798,28 +22742,28 @@
       <c r="B4" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="199" t="s">
         <v>1308</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="199" t="s">
         <v>1309</v>
       </c>
-      <c r="F4" s="205" t="s">
+      <c r="F4" s="199" t="s">
         <v>1270</v>
       </c>
-      <c r="G4" s="215"/>
-      <c r="H4" s="205" t="s">
+      <c r="G4" s="209"/>
+      <c r="H4" s="199" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="199" t="s">
         <v>1311</v>
       </c>
-      <c r="G5" s="215"/>
+      <c r="G5" s="209"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
@@ -22828,16 +22772,16 @@
       <c r="B6" s="40" t="s">
         <v>1313</v>
       </c>
-      <c r="G6" s="215"/>
+      <c r="G6" s="209"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="199" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="215"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="s">
@@ -22846,56 +22790,56 @@
       <c r="B8" s="40" t="s">
         <v>1315</v>
       </c>
-      <c r="G8" s="215"/>
+      <c r="G8" s="209"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="215"/>
+      <c r="G9" s="209"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="215"/>
+      <c r="G10" s="209"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="215"/>
+      <c r="G11" s="209"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="215"/>
+      <c r="G12" s="209"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="215"/>
+      <c r="G13" s="209"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="215"/>
+      <c r="G14" s="209"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="215"/>
+      <c r="G15" s="209"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="215"/>
+      <c r="G16" s="209"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="215"/>
+      <c r="G17" s="209"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="215"/>
+      <c r="G18" s="209"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="215"/>
+      <c r="G19" s="209"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="216"/>
-      <c r="B20" s="216"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
-    </row>
-    <row r="21" s="219" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="210"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="210"/>
+    </row>
+    <row r="21" s="213" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="92" t="s">
         <v>1316</v>
       </c>
@@ -22908,7 +22852,7 @@
       <c r="D21" s="92" t="s">
         <v>1318</v>
       </c>
-      <c r="E21" s="218" t="s">
+      <c r="E21" s="212" t="s">
         <v>1319</v>
       </c>
       <c r="F21" s="92" t="s">
@@ -22925,999 +22869,999 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="214" t="s">
         <v>1324</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="199" t="s">
         <v>1325</v>
       </c>
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="199" t="s">
         <v>1091</v>
       </c>
-      <c r="D22" s="205" t="s">
+      <c r="D22" s="199" t="s">
         <v>1098</v>
       </c>
-      <c r="E22" s="215" t="s">
+      <c r="E22" s="209" t="s">
         <v>1326</v>
       </c>
-      <c r="F22" s="205" t="s">
+      <c r="F22" s="199" t="s">
         <v>1327</v>
       </c>
-      <c r="G22" s="205" t="s">
+      <c r="G22" s="199" t="s">
         <v>874</v>
       </c>
-      <c r="H22" s="205" t="s">
+      <c r="H22" s="199" t="s">
         <v>874</v>
       </c>
-      <c r="I22" s="205" t="s">
+      <c r="I22" s="199" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="199" t="s">
         <v>1328</v>
       </c>
-      <c r="C23" s="205" t="s">
+      <c r="C23" s="199" t="s">
         <v>1329</v>
       </c>
-      <c r="D23" s="205" t="s">
+      <c r="D23" s="199" t="s">
         <v>1330</v>
       </c>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="209" t="s">
         <v>1331</v>
       </c>
-      <c r="F23" s="205" t="s">
+      <c r="F23" s="199" t="s">
         <v>1332</v>
       </c>
-      <c r="G23" s="205" t="s">
+      <c r="G23" s="199" t="s">
         <v>1333</v>
       </c>
-      <c r="H23" s="205" t="s">
+      <c r="H23" s="199" t="s">
         <v>1333</v>
       </c>
-      <c r="I23" s="205" t="s">
+      <c r="I23" s="199" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="205" t="s">
+      <c r="B24" s="199" t="s">
         <v>1335</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="199" t="s">
         <v>1336</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="199" t="s">
         <v>1204</v>
       </c>
-      <c r="F24" s="205" t="s">
+      <c r="F24" s="199" t="s">
         <v>1337</v>
       </c>
-      <c r="G24" s="205" t="s">
+      <c r="G24" s="199" t="s">
         <v>878</v>
       </c>
-      <c r="H24" s="205" t="s">
+      <c r="H24" s="199" t="s">
         <v>878</v>
       </c>
-      <c r="I24" s="205" t="s">
+      <c r="I24" s="199" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="205" t="s">
+      <c r="B25" s="199" t="s">
         <v>1339</v>
       </c>
-      <c r="C25" s="205" t="s">
+      <c r="C25" s="199" t="s">
         <v>1340</v>
       </c>
-      <c r="D25" s="205" t="s">
+      <c r="D25" s="199" t="s">
         <v>1341</v>
       </c>
-      <c r="H25" s="205" t="s">
+      <c r="H25" s="199" t="s">
         <v>1342</v>
       </c>
-      <c r="I25" s="205" t="s">
+      <c r="I25" s="199" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="205" t="s">
+      <c r="B26" s="199" t="s">
         <v>1344</v>
       </c>
-      <c r="C26" s="205" t="s">
+      <c r="C26" s="199" t="s">
         <v>1345</v>
       </c>
-      <c r="H26" s="205" t="s">
+      <c r="H26" s="199" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="199" t="s">
         <v>1347</v>
       </c>
-      <c r="C27" s="205" t="s">
+      <c r="C27" s="199" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="205" t="s">
+      <c r="B28" s="199" t="s">
         <v>1349</v>
       </c>
-      <c r="C28" s="205" t="s">
+      <c r="C28" s="199" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="205" t="s">
+      <c r="B29" s="199" t="s">
         <v>1351</v>
       </c>
-      <c r="C29" s="205" t="s">
+      <c r="C29" s="199" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="199" t="s">
         <v>1353</v>
       </c>
-      <c r="C30" s="205" t="s">
+      <c r="C30" s="199" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="199" t="s">
         <v>1355</v>
       </c>
-      <c r="C31" s="205" t="s">
+      <c r="C31" s="199" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="205" t="s">
+      <c r="B32" s="199" t="s">
         <v>1357</v>
       </c>
-      <c r="C32" s="205" t="s">
+      <c r="C32" s="199" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="205" t="s">
+      <c r="B33" s="199" t="s">
         <v>1359</v>
       </c>
-      <c r="C33" s="205" t="s">
+      <c r="C33" s="199" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="205" t="s">
+      <c r="B34" s="199" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="205" t="s">
+      <c r="B35" s="199" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="199" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="205" t="s">
+      <c r="B37" s="199" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="199" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="199" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="205" t="s">
+      <c r="B40" s="199" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="199" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="199" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="205" t="s">
+      <c r="B43" s="199" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="199" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="199" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="205" t="s">
+      <c r="B46" s="199" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="205" t="s">
+      <c r="B47" s="199" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="205" t="s">
+      <c r="B48" s="199" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="205" t="s">
+      <c r="B49" s="199" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="205" t="s">
+      <c r="B50" s="199" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="205" t="s">
+      <c r="B51" s="199" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="205" t="s">
+      <c r="B52" s="199" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="205" t="s">
+      <c r="B53" s="199" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="205" t="s">
+      <c r="B54" s="199" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="205" t="s">
+      <c r="B55" s="199" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="205" t="s">
+      <c r="B56" s="199" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="205" t="s">
+      <c r="B57" s="199" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="205" t="s">
+      <c r="B58" s="199" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="205" t="s">
+      <c r="B59" s="199" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="205" t="s">
+      <c r="B60" s="199" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="205" t="s">
+      <c r="B61" s="199" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="205" t="s">
+      <c r="B62" s="199" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="205" t="s">
+      <c r="B63" s="199" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="205" t="s">
+      <c r="B64" s="199" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="205" t="s">
+      <c r="B65" s="199" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="205" t="s">
+      <c r="B66" s="199" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="205" t="s">
+      <c r="B67" s="199" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="205" t="s">
+      <c r="B68" s="199" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="205" t="s">
+      <c r="B69" s="199" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="205" t="s">
+      <c r="B70" s="199" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="205" t="s">
+      <c r="B71" s="199" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="205" t="s">
+      <c r="B72" s="199" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="205" t="s">
+      <c r="B73" s="199" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="205" t="s">
+      <c r="B74" s="199" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="205" t="s">
+      <c r="B75" s="199" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="205" t="s">
+      <c r="B76" s="199" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="205" t="s">
+      <c r="B77" s="199" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="205" t="s">
+      <c r="B78" s="199" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="205" t="s">
+      <c r="B79" s="199" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="205" t="s">
+      <c r="B80" s="199" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="199" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="205" t="s">
+      <c r="B82" s="199" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="205" t="s">
+      <c r="B83" s="199" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="205" t="s">
+      <c r="B84" s="199" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="205" t="s">
+      <c r="B85" s="199" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="205" t="s">
+      <c r="B86" s="199" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="205" t="s">
+      <c r="B87" s="199" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="205" t="s">
+      <c r="B88" s="199" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="205" t="s">
+      <c r="B89" s="199" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="205" t="s">
+      <c r="B90" s="199" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="205" t="s">
+      <c r="B91" s="199" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="205" t="s">
+      <c r="B92" s="199" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="205" t="s">
+      <c r="B93" s="199" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="205" t="s">
+      <c r="B94" s="199" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="205" t="s">
+      <c r="B95" s="199" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="205" t="s">
+      <c r="B96" s="199" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="205" t="s">
+      <c r="B97" s="199" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="205" t="s">
+      <c r="B98" s="199" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="205" t="s">
+      <c r="B99" s="199" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="205" t="s">
+      <c r="B100" s="199" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="205" t="s">
+      <c r="B101" s="199" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="205" t="s">
+      <c r="B102" s="199" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="205" t="s">
+      <c r="B103" s="199" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="205" t="s">
+      <c r="B104" s="199" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="205" t="s">
+      <c r="B105" s="199" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="205" t="s">
+      <c r="B106" s="199" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="205" t="s">
+      <c r="B107" s="199" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="205" t="s">
+      <c r="B108" s="199" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="205" t="s">
+      <c r="B109" s="199" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="205" t="s">
+      <c r="B110" s="199" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="205" t="s">
+      <c r="B111" s="199" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="205" t="s">
+      <c r="B112" s="199" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="205" t="s">
+      <c r="B113" s="199" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="205" t="s">
+      <c r="B114" s="199" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="205" t="s">
+      <c r="B115" s="199" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="205" t="s">
+      <c r="B116" s="199" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="205" t="s">
+      <c r="B117" s="199" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="205" t="s">
+      <c r="B118" s="199" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="205" t="s">
+      <c r="B119" s="199" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="205" t="s">
+      <c r="B120" s="199" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="205" t="s">
+      <c r="B121" s="199" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="205" t="s">
+      <c r="B122" s="199" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="205" t="s">
+      <c r="B123" s="199" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="205" t="s">
+      <c r="B124" s="199" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="205" t="s">
+      <c r="B125" s="199" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="205" t="s">
+      <c r="B126" s="199" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="205" t="s">
+      <c r="B127" s="199" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="205" t="s">
+      <c r="B128" s="199" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="205" t="s">
+      <c r="B129" s="199" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="205" t="s">
+      <c r="B130" s="199" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="205" t="s">
+      <c r="B131" s="199" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="205" t="s">
+      <c r="B132" s="199" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="205" t="s">
+      <c r="B133" s="199" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="205" t="s">
+      <c r="B134" s="199" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="205" t="s">
+      <c r="B135" s="199" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="205" t="s">
+      <c r="B136" s="199" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="205" t="s">
+      <c r="B137" s="199" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="205" t="s">
+      <c r="B138" s="199" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="205" t="s">
+      <c r="B139" s="199" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="205" t="s">
+      <c r="B140" s="199" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="205" t="s">
+      <c r="B141" s="199" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="205" t="s">
+      <c r="B142" s="199" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="205" t="s">
+      <c r="B143" s="199" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="205" t="s">
+      <c r="B144" s="199" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="205" t="s">
+      <c r="B145" s="199" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="205" t="s">
+      <c r="B146" s="199" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="205" t="s">
+      <c r="B147" s="199" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="205" t="s">
+      <c r="B148" s="199" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="205" t="s">
+      <c r="B149" s="199" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="205" t="s">
+      <c r="B150" s="199" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="205" t="s">
+      <c r="B151" s="199" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="205" t="s">
+      <c r="B152" s="199" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="205" t="s">
+      <c r="B153" s="199" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="205" t="s">
+      <c r="B154" s="199" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="205" t="s">
+      <c r="B155" s="199" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="205" t="s">
+      <c r="B156" s="199" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="205" t="s">
+      <c r="B157" s="199" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="205" t="s">
+      <c r="B158" s="199" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="205" t="s">
+      <c r="B159" s="199" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="205" t="s">
+      <c r="B160" s="199" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="205" t="s">
+      <c r="B161" s="199" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="205" t="s">
+      <c r="B162" s="199" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="205" t="s">
+      <c r="B163" s="199" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="205" t="s">
+      <c r="B164" s="199" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="205" t="s">
+      <c r="B165" s="199" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="205" t="s">
+      <c r="B166" s="199" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="205" t="s">
+      <c r="B167" s="199" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="205" t="s">
+      <c r="B168" s="199" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="205" t="s">
+      <c r="B169" s="199" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="205" t="s">
+      <c r="B170" s="199" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="205" t="s">
+      <c r="B171" s="199" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="205" t="s">
+      <c r="B172" s="199" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="205" t="s">
+      <c r="B173" s="199" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="205" t="s">
+      <c r="B174" s="199" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="205" t="s">
+      <c r="B175" s="199" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="205" t="s">
+      <c r="B176" s="199" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="205" t="s">
+      <c r="B177" s="199" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="205" t="s">
+      <c r="B178" s="199" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="205" t="s">
+      <c r="B179" s="199" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="205" t="s">
+      <c r="B180" s="199" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="205" t="s">
+      <c r="B181" s="199" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="205" t="s">
+      <c r="B182" s="199" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="205" t="s">
+      <c r="B183" s="199" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="205" t="s">
+      <c r="B184" s="199" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="205" t="s">
+      <c r="B185" s="199" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="205" t="s">
+      <c r="B186" s="199" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="205" t="s">
+      <c r="B187" s="199" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="205" t="s">
+      <c r="B188" s="199" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="205" t="s">
+      <c r="B189" s="199" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="205" t="s">
+      <c r="B190" s="199" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="205" t="s">
+      <c r="B191" s="199" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="205" t="s">
+      <c r="B192" s="199" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="205" t="s">
+      <c r="B193" s="199" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="205" t="s">
+      <c r="B194" s="199" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="205" t="s">
+      <c r="B195" s="199" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="205" t="s">
+      <c r="B196" s="199" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="205" t="s">
+      <c r="B197" s="199" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="205" t="s">
+      <c r="B198" s="199" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="205" t="s">
+      <c r="B199" s="199" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="205" t="s">
+      <c r="B200" s="199" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -23945,24 +23889,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="221" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="221" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="221" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="221" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="221" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="140" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="140" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="140" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="140" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="140" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="215" t="s">
         <v>1527</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="215" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="215" t="s">
         <v>1528</v>
       </c>
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="215" t="s">
         <v>151</v>
       </c>
     </row>
@@ -25000,7 +24944,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="223" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="216" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="117" t="n">
         <v>248</v>
       </c>

--- a/bika/sanbi/setupdata/test/test.xlsx
+++ b/bika/sanbi/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="701" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="701" firstSheet="0" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,11 +64,10 @@
     <sheet name="Analysis Requests" sheetId="54" state="visible" r:id="rId55"/>
     <sheet name="Analyses" sheetId="55" state="visible" r:id="rId56"/>
     <sheet name="Analysis Interims" sheetId="56" state="visible" r:id="rId57"/>
-    <sheet name="Product Categories" sheetId="57" state="visible" r:id="rId58"/>
-    <sheet name="Storage Types" sheetId="58" state="visible" r:id="rId59"/>
-    <sheet name="Setup" sheetId="59" state="visible" r:id="rId60"/>
-    <sheet name="Constants" sheetId="60" state="visible" r:id="rId61"/>
-    <sheet name="Countries" sheetId="61" state="visible" r:id="rId62"/>
+    <sheet name="Storage Types" sheetId="57" state="visible" r:id="rId58"/>
+    <sheet name="Setup" sheetId="58" state="visible" r:id="rId59"/>
+    <sheet name="Constants" sheetId="59" state="visible" r:id="rId60"/>
+    <sheet name="Countries" sheetId="60" state="visible" r:id="rId61"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -186,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="2225">
   <si>
     <t>Instructions</t>
   </si>
@@ -3757,45 +3756,6 @@
   </si>
   <si>
     <t>Analysis</t>
-  </si>
-  <si>
-    <t>Product Categories</t>
-  </si>
-  <si>
-    <t>Sampling kit</t>
-  </si>
-  <si>
-    <t>Kit used for storing and transporting sampling equipment</t>
-  </si>
-  <si>
-    <t>Kit component</t>
-  </si>
-  <si>
-    <t>Components inside sampling kits</t>
-  </si>
-  <si>
-    <t>Sampling container</t>
-  </si>
-  <si>
-    <t>Container for storing collected samples</t>
-  </si>
-  <si>
-    <t>Analysis kit</t>
-  </si>
-  <si>
-    <t>Kit used for storing analysis equipment</t>
-  </si>
-  <si>
-    <t>Printer consumable</t>
-  </si>
-  <si>
-    <t>Consumables used for printing</t>
-  </si>
-  <si>
-    <t>Chemical</t>
-  </si>
-  <si>
-    <t>Chemicals used for analysis</t>
   </si>
   <si>
     <t>Storage Types</t>
@@ -13574,7 +13534,7 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14313,8 +14273,8 @@
   </sheetPr>
   <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14488,7 +14448,7 @@
         <v>42005</v>
       </c>
       <c r="F6" s="163" t="n">
-        <v>42735</v>
+        <v>43465</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>884</v>
@@ -14517,7 +14477,7 @@
         <v>42125</v>
       </c>
       <c r="F7" s="163" t="n">
-        <v>42735</v>
+        <v>43465</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>884</v>
@@ -14546,7 +14506,7 @@
         <v>42005</v>
       </c>
       <c r="F8" s="163" t="n">
-        <v>42735</v>
+        <v>43465</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>884</v>
@@ -17656,7 +17616,7 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -21615,113 +21575,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="11.9392712550607"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="6.01214574898785"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.5748987854251"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="12" customFormat="true" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="47" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -21749,7 +21602,7 @@
     </row>
     <row r="2" s="47" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -21767,34 +21620,34 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21810,7 +21663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21845,7 +21698,7 @@
     </row>
     <row r="2" s="13" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="C2" s="199"/>
     </row>
@@ -21862,10 +21715,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="B4" s="200" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="C4" s="201" t="n">
         <v>0</v>
@@ -21873,10 +21726,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="B5" s="200" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="201" t="n">
         <v>0</v>
@@ -21884,21 +21737,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="B6" s="200" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="201" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="B7" s="200" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="C7" s="202" t="n">
         <v>0</v>
@@ -21906,10 +21759,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="B8" s="200" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="C8" s="202" t="n">
         <v>1</v>
@@ -21917,10 +21770,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="B9" s="200" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C9" s="201" t="n">
         <v>15</v>
@@ -21931,7 +21784,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="200" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="C10" s="201" t="n">
         <v>14</v>
@@ -21939,10 +21792,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="B11" s="200" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="C11" s="201" t="n">
         <v>5</v>
@@ -21950,10 +21803,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="B12" s="200" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="C12" s="201" t="n">
         <v>5</v>
@@ -21961,10 +21814,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="B13" s="200" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="C13" s="201" t="n">
         <v>4</v>
@@ -21972,19 +21825,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="B14" s="200" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="C14" s="201"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="B15" s="200" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="C15" s="202" t="n">
         <v>0</v>
@@ -21992,10 +21845,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="B16" s="200" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="C16" s="202" t="n">
         <v>0</v>
@@ -22003,10 +21856,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="B17" s="200" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="202" t="n">
         <v>1</v>
@@ -22014,22 +21867,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="B18" s="200" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="C18" s="203" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="D18" s="204"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="B19" s="200" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="C19" s="205" t="s">
         <v>320</v>
@@ -22038,10 +21891,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="B20" s="200" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="C20" s="205" t="s">
         <v>320</v>
@@ -22049,10 +21902,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="B21" s="200" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="C21" s="203" t="n">
         <v>30</v>
@@ -22060,10 +21913,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="B22" s="200" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="C22" s="203" t="n">
         <v>0</v>
@@ -22071,10 +21924,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="B23" s="200" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="C23" s="203" t="n">
         <v>0</v>
@@ -22082,33 +21935,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="B24" s="200" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="C24" s="205" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="D24" s="206"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="B25" s="200" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="C25" s="205" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="B26" s="200" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="C26" s="202" t="n">
         <v>0</v>
@@ -22116,21 +21969,21 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="B27" s="200" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="C27" s="201" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B28" s="200" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="C28" s="201" t="n">
         <v>2</v>
@@ -22138,10 +21991,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B29" s="200" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="C29" s="202" t="n">
         <v>0</v>
@@ -22149,22 +22002,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B30" s="200" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="C30" s="201"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="B31" s="200" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="C31" s="207" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -22275,169 +22128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1174089068826"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="51" width="8.21052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="11.9392712550607"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="6.01214574898785"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="51" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.5748987854251"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="12" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" s="47" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="51" t="n">
-        <v>14</v>
-      </c>
-      <c r="F4" s="51" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="51" t="n">
-        <v>14</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>599.66</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="51" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" s="51" t="n">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="51" t="n">
-        <v>14</v>
-      </c>
-      <c r="F7" s="51" t="n">
-        <v>10.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -22469,28 +22160,28 @@
         <v>134</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="G1" s="209" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="H1" s="93" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="J1" s="93" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="K1" s="93" t="s">
         <v>946</v>
@@ -22505,28 +22196,28 @@
         <v>200</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="D2" s="200" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="E2" s="210" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="F2" s="200" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="G2" s="200" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="200" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="I2" s="200" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="J2" s="200" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="K2" s="200" t="s">
         <v>989</v>
@@ -22534,34 +22225,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>186</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="D3" s="200" t="s">
         <v>320</v>
       </c>
       <c r="E3" s="210" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="F3" s="200" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="G3" s="200" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="200" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="I3" s="200" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="200" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="K3" s="200" t="s">
         <v>968</v>
@@ -22569,19 +22260,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>164</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="F4" s="200" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="G4" s="210"/>
       <c r="H4" s="200" t="s">
@@ -22590,19 +22281,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="200" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="B5" s="200" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="G5" s="210"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="G6" s="210"/>
     </row>
@@ -22617,10 +22308,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="G8" s="210"/>
     </row>
@@ -22673,39 +22364,39 @@
     </row>
     <row r="21" s="214" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="92" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="E21" s="213" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="215" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="B22" s="200" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="C22" s="200" t="s">
         <v>1072</v>
@@ -22714,10 +22405,10 @@
         <v>1079</v>
       </c>
       <c r="E22" s="210" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="F22" s="200" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="G22" s="200" t="s">
         <v>898</v>
@@ -22731,42 +22422,42 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="200" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="C23" s="200" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="D23" s="200" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="E23" s="210" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="F23" s="200" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="G23" s="200" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="H23" s="200" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="I23" s="200" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="200" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="C24" s="200" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="D24" s="200" t="s">
         <v>1185</v>
       </c>
       <c r="F24" s="200" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="G24" s="200" t="s">
         <v>902</v>
@@ -22775,926 +22466,926 @@
         <v>902</v>
       </c>
       <c r="I24" s="200" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="200" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="C25" s="200" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="D25" s="200" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="H25" s="200" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="I25" s="200" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="200" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="C26" s="200" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="H26" s="200" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="200" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="C27" s="200" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="200" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="C28" s="200" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="200" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="C29" s="200" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="200" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="C30" s="200" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="200" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="C31" s="200" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="200" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="C32" s="200" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="200" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="C33" s="200" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="200" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="200" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="200" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="200" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="200" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="200" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="200" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="200" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="200" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="200" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="200" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="200" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="200" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="200" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="200" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="200" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="200" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="200" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="200" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="200" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="200" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="200" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="200" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="200" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="200" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="200" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="200" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="200" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="200" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="200" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="200" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="200" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="200" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="200" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="200" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="200" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="200" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="200" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="200" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="200" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="200" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="200" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="200" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="200" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="200" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="200" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="200" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="200" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="200" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="200" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="200" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="200" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="200" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="200" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="200" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="200" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="200" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="200" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="200" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="200" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="200" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="200" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="200" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="200" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="200" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="200" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="200" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="200" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="200" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="200" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="200" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="200" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="200" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="200" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="200" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="200" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="200" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="200" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="200" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="200" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="200" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="200" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="200" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="200" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="200" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="200" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="200" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="200" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="200" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="200" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="200" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="200" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="200" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="200" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="200" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="200" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="200" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="200" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="200" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="200" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="200" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="200" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="200" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="200" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="200" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="200" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="200" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="200" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="200" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="200" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="200" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="200" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="200" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="200" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="200" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="200" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="200" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="200" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="200" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="200" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="200" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="200" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="200" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="200" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="200" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="200" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="200" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="200" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="200" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="200" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="200" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="200" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="200" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="200" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="200" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="200" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="200" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="200" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="200" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="200" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="200" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="200" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="200" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="200" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="200" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="200" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="200" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="200" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="200" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="200" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="200" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="200" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="200" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="200" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="200" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="200" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="200" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="200" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="200" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="200" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="200" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="200" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="200" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="200" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="200" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="200" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="200" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
@@ -23708,7 +23399,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1174089068826"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="51" width="8.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="11.9392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="6.01214574898785"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="51" width="8.09716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="12" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" s="47" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" s="13" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" s="51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="51" t="n">
+        <v>599.66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" s="51" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="51" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -23730,13 +23583,13 @@
   <sheetData>
     <row r="1" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="216" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="B1" s="216" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="216" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="D1" s="216" t="s">
         <v>151</v>
@@ -23747,13 +23600,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="C2" s="125" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
@@ -24781,13 +24634,13 @@
         <v>248</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24795,13 +24648,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="C4" s="125" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24809,13 +24662,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24823,13 +24676,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24837,13 +24690,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24851,13 +24704,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="C8" s="125" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24865,13 +24718,13 @@
         <v>660</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="C9" s="125" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24879,13 +24732,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24893,13 +24746,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24907,13 +24760,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="C12" s="125" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24921,13 +24774,13 @@
         <v>51</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24935,13 +24788,13 @@
         <v>533</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24949,13 +24802,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="C15" s="125" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24963,13 +24816,13 @@
         <v>40</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="C16" s="125" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24977,13 +24830,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24991,13 +24844,13 @@
         <v>44</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25005,13 +24858,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25019,13 +24872,13 @@
         <v>50</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25033,13 +24886,13 @@
         <v>52</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25047,13 +24900,13 @@
         <v>112</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25061,13 +24914,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="C23" s="125" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25075,13 +24928,13 @@
         <v>84</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25089,13 +24942,13 @@
         <v>204</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25103,13 +24956,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25117,13 +24970,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="C27" s="125" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25131,13 +24984,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25145,13 +24998,13 @@
         <v>535</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25159,13 +25012,13 @@
         <v>70</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25173,13 +25026,13 @@
         <v>72</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25187,13 +25040,13 @@
         <v>74</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25201,13 +25054,13 @@
         <v>76</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25215,13 +25068,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25229,13 +25082,13 @@
         <v>96</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25243,13 +25096,13 @@
         <v>100</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25257,13 +25110,13 @@
         <v>854</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>1613</v>
+        <v>1600</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25271,13 +25124,13 @@
         <v>108</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25285,13 +25138,13 @@
         <v>116</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25299,13 +25152,13 @@
         <v>120</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="D40" s="83" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25313,13 +25166,13 @@
         <v>124</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25327,13 +25180,13 @@
         <v>132</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25341,13 +25194,13 @@
         <v>136</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25355,13 +25208,13 @@
         <v>140</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25369,13 +25222,13 @@
         <v>148</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25383,13 +25236,13 @@
         <v>152</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="C46" s="125" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25397,13 +25250,13 @@
         <v>156</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="C47" s="125" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25411,13 +25264,13 @@
         <v>162</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25425,13 +25278,13 @@
         <v>166</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="C49" s="125" t="s">
         <v>543</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25439,13 +25292,13 @@
         <v>170</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="C50" s="125" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25453,13 +25306,13 @@
         <v>174</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25467,13 +25320,13 @@
         <v>178</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="D52" s="83" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25481,13 +25334,13 @@
         <v>180</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25495,13 +25348,13 @@
         <v>184</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25509,13 +25362,13 @@
         <v>188</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25523,13 +25376,13 @@
         <v>384</v>
       </c>
       <c r="B56" s="83" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="D56" s="83" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25537,13 +25390,13 @@
         <v>191</v>
       </c>
       <c r="B57" s="83" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="C57" s="125" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="D57" s="83" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25551,13 +25404,13 @@
         <v>192</v>
       </c>
       <c r="B58" s="83" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="C58" s="125" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="D58" s="83" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25565,13 +25418,13 @@
         <v>531</v>
       </c>
       <c r="B59" s="83" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="D59" s="83" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25579,13 +25432,13 @@
         <v>196</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="C60" s="125" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="D60" s="83" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25593,13 +25446,13 @@
         <v>203</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="C61" s="125" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25607,13 +25460,13 @@
         <v>208</v>
       </c>
       <c r="B62" s="83" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="C62" s="125" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="D62" s="83" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25621,13 +25474,13 @@
         <v>262</v>
       </c>
       <c r="B63" s="83" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="C63" s="125" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25635,13 +25488,13 @@
         <v>212</v>
       </c>
       <c r="B64" s="83" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
       <c r="C64" s="125" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25649,13 +25502,13 @@
         <v>214</v>
       </c>
       <c r="B65" s="83" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="C65" s="125" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="D65" s="83" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25663,13 +25516,13 @@
         <v>218</v>
       </c>
       <c r="B66" s="83" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="C66" s="125" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="D66" s="83" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25677,13 +25530,13 @@
         <v>818</v>
       </c>
       <c r="B67" s="83" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="C67" s="125" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="D67" s="83" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25691,13 +25544,13 @@
         <v>222</v>
       </c>
       <c r="B68" s="83" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="C68" s="125" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25705,13 +25558,13 @@
         <v>226</v>
       </c>
       <c r="B69" s="83" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="C69" s="125" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="D69" s="83" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25719,13 +25572,13 @@
         <v>232</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="C70" s="125" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="D70" s="83" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25733,13 +25586,13 @@
         <v>233</v>
       </c>
       <c r="B71" s="83" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="C71" s="125" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="D71" s="83" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25747,13 +25600,13 @@
         <v>231</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="D72" s="83" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25761,13 +25614,13 @@
         <v>238</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="D73" s="83" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25775,13 +25628,13 @@
         <v>234</v>
       </c>
       <c r="B74" s="83" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="D74" s="83" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25789,13 +25642,13 @@
         <v>242</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25803,13 +25656,13 @@
         <v>246</v>
       </c>
       <c r="B76" s="83" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="D76" s="83" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25820,10 +25673,10 @@
         <v>670</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="D77" s="83" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25831,13 +25684,13 @@
         <v>254</v>
       </c>
       <c r="B78" s="83" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="C78" s="125" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25845,13 +25698,13 @@
         <v>258</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="C79" s="125" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="D79" s="83" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25859,13 +25712,13 @@
         <v>260</v>
       </c>
       <c r="B80" s="83" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="C80" s="125" t="s">
         <v>618</v>
       </c>
       <c r="D80" s="83" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25873,13 +25726,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="83" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="C81" s="125" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="D81" s="83" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25887,13 +25740,13 @@
         <v>270</v>
       </c>
       <c r="B82" s="83" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="C82" s="125" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25901,13 +25754,13 @@
         <v>268</v>
       </c>
       <c r="B83" s="83" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="C83" s="125" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="D83" s="83" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25915,13 +25768,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="D84" s="83" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25929,13 +25782,13 @@
         <v>288</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="D85" s="83" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25943,13 +25796,13 @@
         <v>292</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="D86" s="83" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25957,13 +25810,13 @@
         <v>300</v>
       </c>
       <c r="B87" s="83" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="C87" s="125" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="D87" s="83" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25971,13 +25824,13 @@
         <v>304</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="C88" s="125" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="D88" s="83" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25985,13 +25838,13 @@
         <v>308</v>
       </c>
       <c r="B89" s="83" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="C89" s="125" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="D89" s="83" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25999,13 +25852,13 @@
         <v>312</v>
       </c>
       <c r="B90" s="83" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="C90" s="125" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="D90" s="83" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26013,13 +25866,13 @@
         <v>316</v>
       </c>
       <c r="B91" s="83" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="C91" s="125" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="D91" s="83" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26027,13 +25880,13 @@
         <v>320</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="C92" s="125" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="D92" s="83" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26041,13 +25894,13 @@
         <v>831</v>
       </c>
       <c r="B93" s="83" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="C93" s="125" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
       <c r="D93" s="83" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26055,13 +25908,13 @@
         <v>324</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
       <c r="C94" s="125" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
       <c r="D94" s="83" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26069,13 +25922,13 @@
         <v>624</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="C95" s="125" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
       <c r="D95" s="83" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26083,13 +25936,13 @@
         <v>328</v>
       </c>
       <c r="B96" s="83" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="C96" s="125" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
       <c r="D96" s="83" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26097,13 +25950,13 @@
         <v>332</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
       <c r="D97" s="83" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26111,13 +25964,13 @@
         <v>334</v>
       </c>
       <c r="B98" s="83" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="C98" s="125" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
       <c r="D98" s="83" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26125,13 +25978,13 @@
         <v>336</v>
       </c>
       <c r="B99" s="83" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="C99" s="125" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="D99" s="83" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26139,13 +25992,13 @@
         <v>340</v>
       </c>
       <c r="B100" s="83" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
       <c r="C100" s="125" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
       <c r="D100" s="83" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26153,13 +26006,13 @@
         <v>344</v>
       </c>
       <c r="B101" s="83" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
       <c r="D101" s="83" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26167,13 +26020,13 @@
         <v>348</v>
       </c>
       <c r="B102" s="83" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
       <c r="C102" s="125" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
       <c r="D102" s="83" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26181,13 +26034,13 @@
         <v>352</v>
       </c>
       <c r="B103" s="83" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
       <c r="C103" s="125" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
       <c r="D103" s="83" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26195,13 +26048,13 @@
         <v>356</v>
       </c>
       <c r="B104" s="83" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
       <c r="D104" s="83" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26209,13 +26062,13 @@
         <v>360</v>
       </c>
       <c r="B105" s="83" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
       <c r="C105" s="125" t="s">
-        <v>1815</v>
+        <v>1802</v>
       </c>
       <c r="D105" s="83" t="s">
-        <v>1816</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26223,13 +26076,13 @@
         <v>364</v>
       </c>
       <c r="B106" s="83" t="s">
-        <v>1817</v>
+        <v>1804</v>
       </c>
       <c r="C106" s="125" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="D106" s="83" t="s">
-        <v>1819</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26237,13 +26090,13 @@
         <v>368</v>
       </c>
       <c r="B107" s="83" t="s">
-        <v>1820</v>
+        <v>1807</v>
       </c>
       <c r="C107" s="125" t="s">
-        <v>1821</v>
+        <v>1808</v>
       </c>
       <c r="D107" s="83" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26251,13 +26104,13 @@
         <v>372</v>
       </c>
       <c r="B108" s="83" t="s">
-        <v>1823</v>
+        <v>1810</v>
       </c>
       <c r="C108" s="125" t="s">
-        <v>1824</v>
+        <v>1811</v>
       </c>
       <c r="D108" s="83" t="s">
-        <v>1825</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26265,13 +26118,13 @@
         <v>833</v>
       </c>
       <c r="B109" s="83" t="s">
-        <v>1826</v>
+        <v>1813</v>
       </c>
       <c r="C109" s="125" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
       <c r="D109" s="83" t="s">
-        <v>1828</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26279,13 +26132,13 @@
         <v>376</v>
       </c>
       <c r="B110" s="83" t="s">
-        <v>1829</v>
+        <v>1816</v>
       </c>
       <c r="C110" s="125" t="s">
-        <v>1830</v>
+        <v>1817</v>
       </c>
       <c r="D110" s="83" t="s">
-        <v>1831</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26293,13 +26146,13 @@
         <v>380</v>
       </c>
       <c r="B111" s="83" t="s">
-        <v>1832</v>
+        <v>1819</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="D111" s="83" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26307,13 +26160,13 @@
         <v>388</v>
       </c>
       <c r="B112" s="83" t="s">
-        <v>1835</v>
+        <v>1822</v>
       </c>
       <c r="C112" s="125" t="s">
-        <v>1836</v>
+        <v>1823</v>
       </c>
       <c r="D112" s="83" t="s">
-        <v>1837</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26321,13 +26174,13 @@
         <v>392</v>
       </c>
       <c r="B113" s="83" t="s">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="C113" s="125" t="s">
-        <v>1839</v>
+        <v>1826</v>
       </c>
       <c r="D113" s="83" t="s">
-        <v>1840</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26335,13 +26188,13 @@
         <v>832</v>
       </c>
       <c r="B114" s="83" t="s">
-        <v>1841</v>
+        <v>1828</v>
       </c>
       <c r="C114" s="125" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="D114" s="83" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26349,13 +26202,13 @@
         <v>400</v>
       </c>
       <c r="B115" s="83" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
       <c r="C115" s="125" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
       <c r="D115" s="83" t="s">
-        <v>1846</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26363,13 +26216,13 @@
         <v>398</v>
       </c>
       <c r="B116" s="83" t="s">
-        <v>1847</v>
+        <v>1834</v>
       </c>
       <c r="C116" s="125" t="s">
-        <v>1848</v>
+        <v>1835</v>
       </c>
       <c r="D116" s="83" t="s">
-        <v>1849</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26377,13 +26230,13 @@
         <v>404</v>
       </c>
       <c r="B117" s="83" t="s">
-        <v>1850</v>
+        <v>1837</v>
       </c>
       <c r="C117" s="125" t="s">
-        <v>1851</v>
+        <v>1838</v>
       </c>
       <c r="D117" s="83" t="s">
-        <v>1852</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26391,13 +26244,13 @@
         <v>296</v>
       </c>
       <c r="B118" s="83" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="C118" s="125" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="D118" s="83" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26405,13 +26258,13 @@
         <v>408</v>
       </c>
       <c r="B119" s="83" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="C119" s="125" t="s">
-        <v>1857</v>
+        <v>1844</v>
       </c>
       <c r="D119" s="83" t="s">
-        <v>1858</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26419,13 +26272,13 @@
         <v>410</v>
       </c>
       <c r="B120" s="83" t="s">
-        <v>1859</v>
+        <v>1846</v>
       </c>
       <c r="C120" s="125" t="s">
-        <v>1860</v>
+        <v>1847</v>
       </c>
       <c r="D120" s="83" t="s">
-        <v>1861</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26433,13 +26286,13 @@
         <v>414</v>
       </c>
       <c r="B121" s="83" t="s">
-        <v>1862</v>
+        <v>1849</v>
       </c>
       <c r="C121" s="125" t="s">
-        <v>1863</v>
+        <v>1850</v>
       </c>
       <c r="D121" s="83" t="s">
-        <v>1864</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26447,13 +26300,13 @@
         <v>417</v>
       </c>
       <c r="B122" s="83" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
       <c r="C122" s="125" t="s">
-        <v>1866</v>
+        <v>1853</v>
       </c>
       <c r="D122" s="83" t="s">
-        <v>1867</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26461,13 +26314,13 @@
         <v>418</v>
       </c>
       <c r="B123" s="83" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
       <c r="C123" s="125" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="D123" s="83" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26475,13 +26328,13 @@
         <v>428</v>
       </c>
       <c r="B124" s="83" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="C124" s="125" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
       <c r="D124" s="83" t="s">
-        <v>1873</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26489,13 +26342,13 @@
         <v>422</v>
       </c>
       <c r="B125" s="83" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="C125" s="125" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="D125" s="83" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26503,13 +26356,13 @@
         <v>426</v>
       </c>
       <c r="B126" s="83" t="s">
-        <v>1877</v>
+        <v>1864</v>
       </c>
       <c r="C126" s="125" t="s">
-        <v>1878</v>
+        <v>1865</v>
       </c>
       <c r="D126" s="83" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26517,13 +26370,13 @@
         <v>430</v>
       </c>
       <c r="B127" s="83" t="s">
-        <v>1880</v>
+        <v>1867</v>
       </c>
       <c r="C127" s="125" t="s">
-        <v>1881</v>
+        <v>1868</v>
       </c>
       <c r="D127" s="83" t="s">
-        <v>1882</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26531,13 +26384,13 @@
         <v>434</v>
       </c>
       <c r="B128" s="83" t="s">
-        <v>1883</v>
+        <v>1870</v>
       </c>
       <c r="C128" s="125" t="s">
-        <v>1884</v>
+        <v>1871</v>
       </c>
       <c r="D128" s="83" t="s">
-        <v>1885</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26545,13 +26398,13 @@
         <v>438</v>
       </c>
       <c r="B129" s="83" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
       <c r="C129" s="125" t="s">
-        <v>1887</v>
+        <v>1874</v>
       </c>
       <c r="D129" s="83" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26559,13 +26412,13 @@
         <v>440</v>
       </c>
       <c r="B130" s="83" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="C130" s="125" t="s">
-        <v>1890</v>
+        <v>1877</v>
       </c>
       <c r="D130" s="83" t="s">
-        <v>1891</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26573,13 +26426,13 @@
         <v>442</v>
       </c>
       <c r="B131" s="83" t="s">
-        <v>1892</v>
+        <v>1879</v>
       </c>
       <c r="C131" s="125" t="s">
-        <v>1893</v>
+        <v>1880</v>
       </c>
       <c r="D131" s="83" t="s">
-        <v>1894</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26587,13 +26440,13 @@
         <v>446</v>
       </c>
       <c r="B132" s="83" t="s">
-        <v>1895</v>
+        <v>1882</v>
       </c>
       <c r="C132" s="125" t="s">
-        <v>1896</v>
+        <v>1883</v>
       </c>
       <c r="D132" s="83" t="s">
-        <v>1897</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26601,13 +26454,13 @@
         <v>807</v>
       </c>
       <c r="B133" s="83" t="s">
-        <v>1898</v>
+        <v>1885</v>
       </c>
       <c r="C133" s="125" t="s">
-        <v>1899</v>
+        <v>1886</v>
       </c>
       <c r="D133" s="83" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26615,13 +26468,13 @@
         <v>450</v>
       </c>
       <c r="B134" s="83" t="s">
-        <v>1901</v>
+        <v>1888</v>
       </c>
       <c r="C134" s="125" t="s">
-        <v>1902</v>
+        <v>1889</v>
       </c>
       <c r="D134" s="83" t="s">
-        <v>1903</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26629,13 +26482,13 @@
         <v>454</v>
       </c>
       <c r="B135" s="83" t="s">
-        <v>1904</v>
+        <v>1891</v>
       </c>
       <c r="C135" s="125" t="s">
-        <v>1905</v>
+        <v>1892</v>
       </c>
       <c r="D135" s="83" t="s">
-        <v>1906</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26643,13 +26496,13 @@
         <v>458</v>
       </c>
       <c r="B136" s="83" t="s">
-        <v>1907</v>
+        <v>1894</v>
       </c>
       <c r="C136" s="125" t="s">
-        <v>1908</v>
+        <v>1895</v>
       </c>
       <c r="D136" s="83" t="s">
-        <v>1909</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26657,13 +26510,13 @@
         <v>462</v>
       </c>
       <c r="B137" s="83" t="s">
-        <v>1910</v>
+        <v>1897</v>
       </c>
       <c r="C137" s="125" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="D137" s="83" t="s">
-        <v>1912</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26671,13 +26524,13 @@
         <v>466</v>
       </c>
       <c r="B138" s="83" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
       <c r="C138" s="125" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="D138" s="83" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26685,13 +26538,13 @@
         <v>470</v>
       </c>
       <c r="B139" s="83" t="s">
-        <v>1916</v>
+        <v>1903</v>
       </c>
       <c r="C139" s="125" t="s">
-        <v>1917</v>
+        <v>1904</v>
       </c>
       <c r="D139" s="83" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26699,13 +26552,13 @@
         <v>584</v>
       </c>
       <c r="B140" s="83" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
       <c r="C140" s="125" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="D140" s="83" t="s">
-        <v>1921</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26713,13 +26566,13 @@
         <v>474</v>
       </c>
       <c r="B141" s="83" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
       <c r="C141" s="125" t="s">
-        <v>1923</v>
+        <v>1910</v>
       </c>
       <c r="D141" s="83" t="s">
-        <v>1924</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26727,13 +26580,13 @@
         <v>478</v>
       </c>
       <c r="B142" s="83" t="s">
-        <v>1925</v>
+        <v>1912</v>
       </c>
       <c r="C142" s="125" t="s">
-        <v>1926</v>
+        <v>1913</v>
       </c>
       <c r="D142" s="83" t="s">
-        <v>1927</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26741,13 +26594,13 @@
         <v>480</v>
       </c>
       <c r="B143" s="83" t="s">
-        <v>1928</v>
+        <v>1915</v>
       </c>
       <c r="C143" s="125" t="s">
-        <v>1929</v>
+        <v>1916</v>
       </c>
       <c r="D143" s="83" t="s">
-        <v>1930</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26755,13 +26608,13 @@
         <v>175</v>
       </c>
       <c r="B144" s="83" t="s">
-        <v>1931</v>
+        <v>1918</v>
       </c>
       <c r="C144" s="125" t="s">
-        <v>1932</v>
+        <v>1919</v>
       </c>
       <c r="D144" s="83" t="s">
-        <v>1933</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26769,13 +26622,13 @@
         <v>484</v>
       </c>
       <c r="B145" s="83" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="C145" s="125" t="s">
-        <v>1935</v>
+        <v>1922</v>
       </c>
       <c r="D145" s="83" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26783,13 +26636,13 @@
         <v>583</v>
       </c>
       <c r="B146" s="83" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
       <c r="C146" s="125" t="s">
-        <v>1938</v>
+        <v>1925</v>
       </c>
       <c r="D146" s="83" t="s">
-        <v>1939</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26797,13 +26650,13 @@
         <v>498</v>
       </c>
       <c r="B147" s="83" t="s">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="C147" s="125" t="s">
-        <v>1941</v>
+        <v>1928</v>
       </c>
       <c r="D147" s="83" t="s">
-        <v>1942</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26811,13 +26664,13 @@
         <v>492</v>
       </c>
       <c r="B148" s="83" t="s">
-        <v>1943</v>
+        <v>1930</v>
       </c>
       <c r="C148" s="125" t="s">
-        <v>1944</v>
+        <v>1931</v>
       </c>
       <c r="D148" s="83" t="s">
-        <v>1945</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26825,13 +26678,13 @@
         <v>496</v>
       </c>
       <c r="B149" s="83" t="s">
-        <v>1946</v>
+        <v>1933</v>
       </c>
       <c r="C149" s="125" t="s">
         <v>1042</v>
       </c>
       <c r="D149" s="83" t="s">
-        <v>1947</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26839,13 +26692,13 @@
         <v>499</v>
       </c>
       <c r="B150" s="83" t="s">
-        <v>1948</v>
+        <v>1935</v>
       </c>
       <c r="C150" s="125" t="s">
-        <v>1949</v>
+        <v>1936</v>
       </c>
       <c r="D150" s="83" t="s">
-        <v>1950</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26853,13 +26706,13 @@
         <v>500</v>
       </c>
       <c r="B151" s="83" t="s">
-        <v>1951</v>
+        <v>1938</v>
       </c>
       <c r="C151" s="125" t="s">
-        <v>1952</v>
+        <v>1939</v>
       </c>
       <c r="D151" s="83" t="s">
-        <v>1953</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26867,13 +26720,13 @@
         <v>504</v>
       </c>
       <c r="B152" s="83" t="s">
-        <v>1954</v>
+        <v>1941</v>
       </c>
       <c r="C152" s="125" t="s">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="D152" s="83" t="s">
-        <v>1956</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26881,13 +26734,13 @@
         <v>508</v>
       </c>
       <c r="B153" s="83" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="C153" s="125" t="s">
-        <v>1958</v>
+        <v>1945</v>
       </c>
       <c r="D153" s="83" t="s">
-        <v>1959</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26895,13 +26748,13 @@
         <v>104</v>
       </c>
       <c r="B154" s="83" t="s">
-        <v>1960</v>
+        <v>1947</v>
       </c>
       <c r="C154" s="125" t="s">
-        <v>1961</v>
+        <v>1948</v>
       </c>
       <c r="D154" s="83" t="s">
-        <v>1962</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26909,13 +26762,13 @@
         <v>516</v>
       </c>
       <c r="B155" s="83" t="s">
-        <v>1963</v>
+        <v>1950</v>
       </c>
       <c r="C155" s="125" t="s">
-        <v>1964</v>
+        <v>1951</v>
       </c>
       <c r="D155" s="83" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26923,13 +26776,13 @@
         <v>520</v>
       </c>
       <c r="B156" s="83" t="s">
-        <v>1966</v>
+        <v>1953</v>
       </c>
       <c r="C156" s="125" t="s">
-        <v>1967</v>
+        <v>1954</v>
       </c>
       <c r="D156" s="83" t="s">
-        <v>1968</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26937,13 +26790,13 @@
         <v>524</v>
       </c>
       <c r="B157" s="83" t="s">
-        <v>1969</v>
+        <v>1956</v>
       </c>
       <c r="C157" s="125" t="s">
-        <v>1970</v>
+        <v>1957</v>
       </c>
       <c r="D157" s="83" t="s">
-        <v>1971</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26951,13 +26804,13 @@
         <v>528</v>
       </c>
       <c r="B158" s="83" t="s">
-        <v>1972</v>
+        <v>1959</v>
       </c>
       <c r="C158" s="125" t="s">
-        <v>1973</v>
+        <v>1960</v>
       </c>
       <c r="D158" s="83" t="s">
-        <v>1974</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26965,13 +26818,13 @@
         <v>540</v>
       </c>
       <c r="B159" s="83" t="s">
-        <v>1975</v>
+        <v>1962</v>
       </c>
       <c r="C159" s="125" t="s">
-        <v>1976</v>
+        <v>1963</v>
       </c>
       <c r="D159" s="83" t="s">
-        <v>1977</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26979,13 +26832,13 @@
         <v>554</v>
       </c>
       <c r="B160" s="83" t="s">
-        <v>1978</v>
+        <v>1965</v>
       </c>
       <c r="C160" s="125" t="s">
-        <v>1979</v>
+        <v>1966</v>
       </c>
       <c r="D160" s="83" t="s">
-        <v>1980</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26993,13 +26846,13 @@
         <v>558</v>
       </c>
       <c r="B161" s="83" t="s">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="C161" s="125" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="D161" s="83" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27007,13 +26860,13 @@
         <v>562</v>
       </c>
       <c r="B162" s="83" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="C162" s="125" t="s">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="D162" s="83" t="s">
-        <v>1986</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27021,13 +26874,13 @@
         <v>566</v>
       </c>
       <c r="B163" s="83" t="s">
-        <v>1987</v>
+        <v>1974</v>
       </c>
       <c r="C163" s="125" t="s">
-        <v>1988</v>
+        <v>1975</v>
       </c>
       <c r="D163" s="83" t="s">
-        <v>1989</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27035,13 +26888,13 @@
         <v>570</v>
       </c>
       <c r="B164" s="83" t="s">
-        <v>1990</v>
+        <v>1977</v>
       </c>
       <c r="C164" s="125" t="s">
-        <v>1991</v>
+        <v>1978</v>
       </c>
       <c r="D164" s="83" t="s">
-        <v>1992</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27049,13 +26902,13 @@
         <v>574</v>
       </c>
       <c r="B165" s="83" t="s">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="C165" s="125" t="s">
-        <v>1994</v>
+        <v>1981</v>
       </c>
       <c r="D165" s="83" t="s">
-        <v>1995</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27063,13 +26916,13 @@
         <v>580</v>
       </c>
       <c r="B166" s="83" t="s">
-        <v>1996</v>
+        <v>1983</v>
       </c>
       <c r="C166" s="125" t="s">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="D166" s="83" t="s">
-        <v>1998</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27077,13 +26930,13 @@
         <v>578</v>
       </c>
       <c r="B167" s="83" t="s">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="C167" s="125" t="s">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="D167" s="83" t="s">
-        <v>2001</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27091,13 +26944,13 @@
         <v>512</v>
       </c>
       <c r="B168" s="83" t="s">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="C168" s="125" t="s">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="D168" s="83" t="s">
-        <v>2004</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27105,13 +26958,13 @@
         <v>586</v>
       </c>
       <c r="B169" s="83" t="s">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="C169" s="125" t="s">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="D169" s="83" t="s">
-        <v>2007</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27119,13 +26972,13 @@
         <v>585</v>
       </c>
       <c r="B170" s="83" t="s">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="C170" s="125" t="s">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="D170" s="83" t="s">
-        <v>2010</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27133,13 +26986,13 @@
         <v>275</v>
       </c>
       <c r="B171" s="83" t="s">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="C171" s="125" t="s">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="D171" s="83" t="s">
-        <v>2013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27147,13 +27000,13 @@
         <v>591</v>
       </c>
       <c r="B172" s="83" t="s">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="C172" s="125" t="s">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="D172" s="83" t="s">
-        <v>2016</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27161,13 +27014,13 @@
         <v>598</v>
       </c>
       <c r="B173" s="83" t="s">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C173" s="125" t="s">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="D173" s="83" t="s">
-        <v>2019</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27175,13 +27028,13 @@
         <v>600</v>
       </c>
       <c r="B174" s="83" t="s">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="C174" s="125" t="s">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="D174" s="83" t="s">
-        <v>2022</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27189,13 +27042,13 @@
         <v>604</v>
       </c>
       <c r="B175" s="83" t="s">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="C175" s="125" t="s">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="D175" s="83" t="s">
-        <v>2025</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27203,13 +27056,13 @@
         <v>608</v>
       </c>
       <c r="B176" s="83" t="s">
-        <v>2026</v>
+        <v>2013</v>
       </c>
       <c r="C176" s="125" t="s">
-        <v>2027</v>
+        <v>2014</v>
       </c>
       <c r="D176" s="83" t="s">
-        <v>2028</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27217,13 +27070,13 @@
         <v>612</v>
       </c>
       <c r="B177" s="83" t="s">
-        <v>2029</v>
+        <v>2016</v>
       </c>
       <c r="C177" s="125" t="s">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="D177" s="83" t="s">
-        <v>2031</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27231,13 +27084,13 @@
         <v>616</v>
       </c>
       <c r="B178" s="83" t="s">
-        <v>2032</v>
+        <v>2019</v>
       </c>
       <c r="C178" s="125" t="s">
         <v>502</v>
       </c>
       <c r="D178" s="83" t="s">
-        <v>2033</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27245,13 +27098,13 @@
         <v>620</v>
       </c>
       <c r="B179" s="83" t="s">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="C179" s="125" t="s">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="D179" s="83" t="s">
-        <v>2036</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27259,13 +27112,13 @@
         <v>630</v>
       </c>
       <c r="B180" s="83" t="s">
-        <v>2037</v>
+        <v>2024</v>
       </c>
       <c r="C180" s="125" t="s">
-        <v>2038</v>
+        <v>2025</v>
       </c>
       <c r="D180" s="83" t="s">
-        <v>2039</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27273,13 +27126,13 @@
         <v>634</v>
       </c>
       <c r="B181" s="83" t="s">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="C181" s="125" t="s">
-        <v>2041</v>
+        <v>2028</v>
       </c>
       <c r="D181" s="83" t="s">
-        <v>2042</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27287,13 +27140,13 @@
         <v>638</v>
       </c>
       <c r="B182" s="83" t="s">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="C182" s="125" t="s">
-        <v>2044</v>
+        <v>2031</v>
       </c>
       <c r="D182" s="83" t="s">
-        <v>2045</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27301,13 +27154,13 @@
         <v>642</v>
       </c>
       <c r="B183" s="83" t="s">
-        <v>2046</v>
+        <v>2033</v>
       </c>
       <c r="C183" s="125" t="s">
-        <v>2047</v>
+        <v>2034</v>
       </c>
       <c r="D183" s="83" t="s">
-        <v>2048</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27315,13 +27168,13 @@
         <v>643</v>
       </c>
       <c r="B184" s="83" t="s">
-        <v>2049</v>
+        <v>2036</v>
       </c>
       <c r="C184" s="125" t="s">
-        <v>2050</v>
+        <v>2037</v>
       </c>
       <c r="D184" s="83" t="s">
-        <v>2051</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27329,13 +27182,13 @@
         <v>646</v>
       </c>
       <c r="B185" s="83" t="s">
-        <v>2052</v>
+        <v>2039</v>
       </c>
       <c r="C185" s="125" t="s">
-        <v>2053</v>
+        <v>2040</v>
       </c>
       <c r="D185" s="83" t="s">
-        <v>2054</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27343,13 +27196,13 @@
         <v>652</v>
       </c>
       <c r="B186" s="83" t="s">
-        <v>2055</v>
+        <v>2042</v>
       </c>
       <c r="C186" s="125" t="s">
-        <v>2056</v>
+        <v>2043</v>
       </c>
       <c r="D186" s="83" t="s">
-        <v>2057</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27357,13 +27210,13 @@
         <v>654</v>
       </c>
       <c r="B187" s="83" t="s">
-        <v>2058</v>
+        <v>2045</v>
       </c>
       <c r="C187" s="125" t="s">
-        <v>2059</v>
+        <v>2046</v>
       </c>
       <c r="D187" s="83" t="s">
-        <v>2060</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27371,13 +27224,13 @@
         <v>659</v>
       </c>
       <c r="B188" s="83" t="s">
-        <v>2061</v>
+        <v>2048</v>
       </c>
       <c r="C188" s="125" t="s">
-        <v>2062</v>
+        <v>2049</v>
       </c>
       <c r="D188" s="83" t="s">
-        <v>2063</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27385,13 +27238,13 @@
         <v>662</v>
       </c>
       <c r="B189" s="83" t="s">
-        <v>2064</v>
+        <v>2051</v>
       </c>
       <c r="C189" s="125" t="s">
-        <v>2065</v>
+        <v>2052</v>
       </c>
       <c r="D189" s="83" t="s">
-        <v>2066</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27399,13 +27252,13 @@
         <v>663</v>
       </c>
       <c r="B190" s="83" t="s">
-        <v>2067</v>
+        <v>2054</v>
       </c>
       <c r="C190" s="125" t="s">
-        <v>2068</v>
+        <v>2055</v>
       </c>
       <c r="D190" s="83" t="s">
-        <v>2069</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27413,13 +27266,13 @@
         <v>666</v>
       </c>
       <c r="B191" s="83" t="s">
-        <v>2070</v>
+        <v>2057</v>
       </c>
       <c r="C191" s="125" t="s">
-        <v>2071</v>
+        <v>2058</v>
       </c>
       <c r="D191" s="83" t="s">
-        <v>2072</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27427,13 +27280,13 @@
         <v>670</v>
       </c>
       <c r="B192" s="83" t="s">
-        <v>2073</v>
+        <v>2060</v>
       </c>
       <c r="C192" s="125" t="s">
-        <v>2074</v>
+        <v>2061</v>
       </c>
       <c r="D192" s="83" t="s">
-        <v>2075</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27441,13 +27294,13 @@
         <v>882</v>
       </c>
       <c r="B193" s="83" t="s">
-        <v>2076</v>
+        <v>2063</v>
       </c>
       <c r="C193" s="125" t="s">
         <v>37</v>
       </c>
       <c r="D193" s="83" t="s">
-        <v>2077</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27455,13 +27308,13 @@
         <v>674</v>
       </c>
       <c r="B194" s="83" t="s">
-        <v>2078</v>
+        <v>2065</v>
       </c>
       <c r="C194" s="125" t="s">
         <v>627</v>
       </c>
       <c r="D194" s="83" t="s">
-        <v>2079</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27469,13 +27322,13 @@
         <v>678</v>
       </c>
       <c r="B195" s="83" t="s">
-        <v>2080</v>
+        <v>2067</v>
       </c>
       <c r="C195" s="125" t="s">
         <v>509</v>
       </c>
       <c r="D195" s="83" t="s">
-        <v>2081</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27483,13 +27336,13 @@
         <v>682</v>
       </c>
       <c r="B196" s="83" t="s">
-        <v>2082</v>
+        <v>2069</v>
       </c>
       <c r="C196" s="125" t="s">
         <v>48</v>
       </c>
       <c r="D196" s="83" t="s">
-        <v>2083</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27497,13 +27350,13 @@
         <v>686</v>
       </c>
       <c r="B197" s="83" t="s">
-        <v>2084</v>
+        <v>2071</v>
       </c>
       <c r="C197" s="125" t="s">
-        <v>2085</v>
+        <v>2072</v>
       </c>
       <c r="D197" s="83" t="s">
-        <v>2086</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27511,13 +27364,13 @@
         <v>688</v>
       </c>
       <c r="B198" s="83" t="s">
-        <v>2087</v>
+        <v>2074</v>
       </c>
       <c r="C198" s="125" t="s">
-        <v>2088</v>
+        <v>2075</v>
       </c>
       <c r="D198" s="83" t="s">
-        <v>2089</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27525,13 +27378,13 @@
         <v>690</v>
       </c>
       <c r="B199" s="83" t="s">
-        <v>2090</v>
+        <v>2077</v>
       </c>
       <c r="C199" s="125" t="s">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="D199" s="83" t="s">
-        <v>2092</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27539,13 +27392,13 @@
         <v>694</v>
       </c>
       <c r="B200" s="83" t="s">
-        <v>2093</v>
+        <v>2080</v>
       </c>
       <c r="C200" s="125" t="s">
         <v>515</v>
       </c>
       <c r="D200" s="83" t="s">
-        <v>2094</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27553,13 +27406,13 @@
         <v>702</v>
       </c>
       <c r="B201" s="83" t="s">
-        <v>2095</v>
+        <v>2082</v>
       </c>
       <c r="C201" s="125" t="s">
-        <v>2096</v>
+        <v>2083</v>
       </c>
       <c r="D201" s="83" t="s">
-        <v>2097</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27567,13 +27420,13 @@
         <v>534</v>
       </c>
       <c r="B202" s="83" t="s">
-        <v>2098</v>
+        <v>2085</v>
       </c>
       <c r="C202" s="125" t="s">
-        <v>2099</v>
+        <v>2086</v>
       </c>
       <c r="D202" s="83" t="s">
-        <v>2100</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27581,13 +27434,13 @@
         <v>703</v>
       </c>
       <c r="B203" s="83" t="s">
-        <v>2101</v>
+        <v>2088</v>
       </c>
       <c r="C203" s="125" t="s">
-        <v>2102</v>
+        <v>2089</v>
       </c>
       <c r="D203" s="83" t="s">
-        <v>2103</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27595,13 +27448,13 @@
         <v>705</v>
       </c>
       <c r="B204" s="83" t="s">
-        <v>2104</v>
+        <v>2091</v>
       </c>
       <c r="C204" s="125" t="s">
-        <v>2105</v>
+        <v>2092</v>
       </c>
       <c r="D204" s="83" t="s">
-        <v>2106</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27609,13 +27462,13 @@
         <v>90</v>
       </c>
       <c r="B205" s="83" t="s">
-        <v>2107</v>
+        <v>2094</v>
       </c>
       <c r="C205" s="125" t="s">
-        <v>2108</v>
+        <v>2095</v>
       </c>
       <c r="D205" s="83" t="s">
-        <v>2109</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27623,13 +27476,13 @@
         <v>706</v>
       </c>
       <c r="B206" s="83" t="s">
-        <v>2110</v>
+        <v>2097</v>
       </c>
       <c r="C206" s="125" t="s">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="D206" s="83" t="s">
-        <v>2112</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27640,10 +27493,10 @@
         <v>102</v>
       </c>
       <c r="C207" s="125" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="D207" s="83" t="s">
-        <v>2113</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27651,13 +27504,13 @@
         <v>239</v>
       </c>
       <c r="B208" s="83" t="s">
-        <v>2114</v>
+        <v>2101</v>
       </c>
       <c r="C208" s="125" t="s">
-        <v>2115</v>
+        <v>2102</v>
       </c>
       <c r="D208" s="83" t="s">
-        <v>2116</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27665,13 +27518,13 @@
         <v>728</v>
       </c>
       <c r="B209" s="83" t="s">
-        <v>2117</v>
+        <v>2104</v>
       </c>
       <c r="C209" s="125" t="s">
-        <v>2118</v>
+        <v>2105</v>
       </c>
       <c r="D209" s="83" t="s">
-        <v>2119</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27679,13 +27532,13 @@
         <v>724</v>
       </c>
       <c r="B210" s="83" t="s">
-        <v>2120</v>
+        <v>2107</v>
       </c>
       <c r="C210" s="125" t="s">
-        <v>2121</v>
+        <v>2108</v>
       </c>
       <c r="D210" s="83" t="s">
-        <v>2122</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27693,13 +27546,13 @@
         <v>144</v>
       </c>
       <c r="B211" s="83" t="s">
-        <v>2123</v>
+        <v>2110</v>
       </c>
       <c r="C211" s="125" t="s">
-        <v>2124</v>
+        <v>2111</v>
       </c>
       <c r="D211" s="83" t="s">
-        <v>2125</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27707,13 +27560,13 @@
         <v>729</v>
       </c>
       <c r="B212" s="83" t="s">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="C212" s="125" t="s">
-        <v>2127</v>
+        <v>2114</v>
       </c>
       <c r="D212" s="83" t="s">
-        <v>2128</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27721,13 +27574,13 @@
         <v>740</v>
       </c>
       <c r="B213" s="83" t="s">
-        <v>2129</v>
+        <v>2116</v>
       </c>
       <c r="C213" s="125" t="s">
-        <v>2130</v>
+        <v>2117</v>
       </c>
       <c r="D213" s="83" t="s">
-        <v>2131</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27735,13 +27588,13 @@
         <v>744</v>
       </c>
       <c r="B214" s="83" t="s">
-        <v>2132</v>
+        <v>2119</v>
       </c>
       <c r="C214" s="125" t="s">
-        <v>2133</v>
+        <v>2120</v>
       </c>
       <c r="D214" s="83" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27749,13 +27602,13 @@
         <v>748</v>
       </c>
       <c r="B215" s="83" t="s">
-        <v>2135</v>
+        <v>2122</v>
       </c>
       <c r="C215" s="125" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="D215" s="83" t="s">
-        <v>2137</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27763,13 +27616,13 @@
         <v>752</v>
       </c>
       <c r="B216" s="83" t="s">
-        <v>2138</v>
+        <v>2125</v>
       </c>
       <c r="C216" s="125" t="s">
         <v>505</v>
       </c>
       <c r="D216" s="83" t="s">
-        <v>2139</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27777,13 +27630,13 @@
         <v>756</v>
       </c>
       <c r="B217" s="83" t="s">
-        <v>2140</v>
+        <v>2127</v>
       </c>
       <c r="C217" s="125" t="s">
-        <v>2141</v>
+        <v>2128</v>
       </c>
       <c r="D217" s="83" t="s">
-        <v>2142</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27791,13 +27644,13 @@
         <v>760</v>
       </c>
       <c r="B218" s="83" t="s">
-        <v>2143</v>
+        <v>2130</v>
       </c>
       <c r="C218" s="125" t="s">
-        <v>2144</v>
+        <v>2131</v>
       </c>
       <c r="D218" s="83" t="s">
-        <v>2145</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27805,13 +27658,13 @@
         <v>158</v>
       </c>
       <c r="B219" s="83" t="s">
-        <v>2146</v>
+        <v>2133</v>
       </c>
       <c r="C219" s="125" t="s">
-        <v>2147</v>
+        <v>2134</v>
       </c>
       <c r="D219" s="83" t="s">
-        <v>2148</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27819,13 +27672,13 @@
         <v>762</v>
       </c>
       <c r="B220" s="83" t="s">
-        <v>2149</v>
+        <v>2136</v>
       </c>
       <c r="C220" s="125" t="s">
-        <v>2150</v>
+        <v>2137</v>
       </c>
       <c r="D220" s="83" t="s">
-        <v>2151</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27833,13 +27686,13 @@
         <v>834</v>
       </c>
       <c r="B221" s="83" t="s">
-        <v>2152</v>
+        <v>2139</v>
       </c>
       <c r="C221" s="125" t="s">
-        <v>2153</v>
+        <v>2140</v>
       </c>
       <c r="D221" s="83" t="s">
-        <v>2154</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27847,13 +27700,13 @@
         <v>764</v>
       </c>
       <c r="B222" s="83" t="s">
-        <v>2155</v>
+        <v>2142</v>
       </c>
       <c r="C222" s="125" t="s">
-        <v>2156</v>
+        <v>2143</v>
       </c>
       <c r="D222" s="83" t="s">
-        <v>2157</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27861,13 +27714,13 @@
         <v>626</v>
       </c>
       <c r="B223" s="83" t="s">
-        <v>2158</v>
+        <v>2145</v>
       </c>
       <c r="C223" s="125" t="s">
-        <v>2159</v>
+        <v>2146</v>
       </c>
       <c r="D223" s="83" t="s">
-        <v>2160</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27875,13 +27728,13 @@
         <v>768</v>
       </c>
       <c r="B224" s="83" t="s">
-        <v>2161</v>
+        <v>2148</v>
       </c>
       <c r="C224" s="125" t="s">
-        <v>2162</v>
+        <v>2149</v>
       </c>
       <c r="D224" s="83" t="s">
-        <v>2163</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27889,13 +27742,13 @@
         <v>772</v>
       </c>
       <c r="B225" s="83" t="s">
-        <v>2164</v>
+        <v>2151</v>
       </c>
       <c r="C225" s="125" t="s">
-        <v>2165</v>
+        <v>2152</v>
       </c>
       <c r="D225" s="83" t="s">
-        <v>2166</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27903,13 +27756,13 @@
         <v>776</v>
       </c>
       <c r="B226" s="83" t="s">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="C226" s="125" t="s">
-        <v>2168</v>
+        <v>2155</v>
       </c>
       <c r="D226" s="83" t="s">
-        <v>2169</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27920,10 +27773,10 @@
         <v>684</v>
       </c>
       <c r="C227" s="125" t="s">
-        <v>2170</v>
+        <v>2157</v>
       </c>
       <c r="D227" s="83" t="s">
-        <v>2171</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27931,13 +27784,13 @@
         <v>788</v>
       </c>
       <c r="B228" s="83" t="s">
-        <v>2172</v>
+        <v>2159</v>
       </c>
       <c r="C228" s="125" t="s">
-        <v>2173</v>
+        <v>2160</v>
       </c>
       <c r="D228" s="83" t="s">
-        <v>2174</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27945,13 +27798,13 @@
         <v>792</v>
       </c>
       <c r="B229" s="83" t="s">
-        <v>2175</v>
+        <v>2162</v>
       </c>
       <c r="C229" s="125" t="s">
-        <v>2176</v>
+        <v>2163</v>
       </c>
       <c r="D229" s="83" t="s">
-        <v>2177</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27959,13 +27812,13 @@
         <v>795</v>
       </c>
       <c r="B230" s="83" t="s">
-        <v>2178</v>
+        <v>2165</v>
       </c>
       <c r="C230" s="125" t="s">
-        <v>2179</v>
+        <v>2166</v>
       </c>
       <c r="D230" s="83" t="s">
-        <v>2180</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27973,13 +27826,13 @@
         <v>796</v>
       </c>
       <c r="B231" s="83" t="s">
-        <v>2181</v>
+        <v>2168</v>
       </c>
       <c r="C231" s="125" t="s">
-        <v>2182</v>
+        <v>2169</v>
       </c>
       <c r="D231" s="83" t="s">
-        <v>2183</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27987,13 +27840,13 @@
         <v>798</v>
       </c>
       <c r="B232" s="83" t="s">
-        <v>2184</v>
+        <v>2171</v>
       </c>
       <c r="C232" s="125" t="s">
         <v>615</v>
       </c>
       <c r="D232" s="83" t="s">
-        <v>2185</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28001,13 +27854,13 @@
         <v>800</v>
       </c>
       <c r="B233" s="83" t="s">
-        <v>2186</v>
+        <v>2173</v>
       </c>
       <c r="C233" s="125" t="s">
-        <v>2187</v>
+        <v>2174</v>
       </c>
       <c r="D233" s="83" t="s">
-        <v>2188</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28015,13 +27868,13 @@
         <v>804</v>
       </c>
       <c r="B234" s="83" t="s">
-        <v>2189</v>
+        <v>2176</v>
       </c>
       <c r="C234" s="125" t="s">
-        <v>2190</v>
+        <v>2177</v>
       </c>
       <c r="D234" s="83" t="s">
-        <v>2191</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28029,13 +27882,13 @@
         <v>784</v>
       </c>
       <c r="B235" s="83" t="s">
-        <v>2192</v>
+        <v>2179</v>
       </c>
       <c r="C235" s="125" t="s">
-        <v>2193</v>
+        <v>2180</v>
       </c>
       <c r="D235" s="83" t="s">
-        <v>2194</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28046,10 +27899,10 @@
         <v>704</v>
       </c>
       <c r="C236" s="125" t="s">
-        <v>2195</v>
+        <v>2182</v>
       </c>
       <c r="D236" s="83" t="s">
-        <v>2196</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28060,10 +27913,10 @@
         <v>677</v>
       </c>
       <c r="C237" s="125" t="s">
-        <v>2197</v>
+        <v>2184</v>
       </c>
       <c r="D237" s="83" t="s">
-        <v>2198</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28071,13 +27924,13 @@
         <v>581</v>
       </c>
       <c r="B238" s="83" t="s">
-        <v>2199</v>
+        <v>2186</v>
       </c>
       <c r="C238" s="125" t="s">
-        <v>2200</v>
+        <v>2187</v>
       </c>
       <c r="D238" s="83" t="s">
-        <v>2201</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28085,13 +27938,13 @@
         <v>858</v>
       </c>
       <c r="B239" s="83" t="s">
-        <v>2202</v>
+        <v>2189</v>
       </c>
       <c r="C239" s="125" t="s">
-        <v>2203</v>
+        <v>2190</v>
       </c>
       <c r="D239" s="83" t="s">
-        <v>2204</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28099,13 +27952,13 @@
         <v>860</v>
       </c>
       <c r="B240" s="83" t="s">
-        <v>2205</v>
+        <v>2192</v>
       </c>
       <c r="C240" s="125" t="s">
-        <v>2206</v>
+        <v>2193</v>
       </c>
       <c r="D240" s="83" t="s">
-        <v>2207</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28113,13 +27966,13 @@
         <v>548</v>
       </c>
       <c r="B241" s="83" t="s">
-        <v>2208</v>
+        <v>2195</v>
       </c>
       <c r="C241" s="125" t="s">
-        <v>2209</v>
+        <v>2196</v>
       </c>
       <c r="D241" s="83" t="s">
-        <v>2210</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28127,13 +27980,13 @@
         <v>862</v>
       </c>
       <c r="B242" s="83" t="s">
-        <v>2211</v>
+        <v>2198</v>
       </c>
       <c r="C242" s="125" t="s">
-        <v>2212</v>
+        <v>2199</v>
       </c>
       <c r="D242" s="83" t="s">
-        <v>2213</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28141,13 +27994,13 @@
         <v>704</v>
       </c>
       <c r="B243" s="83" t="s">
-        <v>2214</v>
+        <v>2201</v>
       </c>
       <c r="C243" s="125" t="s">
-        <v>2215</v>
+        <v>2202</v>
       </c>
       <c r="D243" s="83" t="s">
-        <v>2216</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28155,13 +28008,13 @@
         <v>92</v>
       </c>
       <c r="B244" s="83" t="s">
-        <v>2217</v>
+        <v>2204</v>
       </c>
       <c r="C244" s="125" t="s">
-        <v>2218</v>
+        <v>2205</v>
       </c>
       <c r="D244" s="83" t="s">
-        <v>2219</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28169,13 +28022,13 @@
         <v>850</v>
       </c>
       <c r="B245" s="83" t="s">
-        <v>2220</v>
+        <v>2207</v>
       </c>
       <c r="C245" s="125" t="s">
-        <v>2221</v>
+        <v>2208</v>
       </c>
       <c r="D245" s="83" t="s">
-        <v>2222</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28183,13 +28036,13 @@
         <v>876</v>
       </c>
       <c r="B246" s="83" t="s">
-        <v>2223</v>
+        <v>2210</v>
       </c>
       <c r="C246" s="125" t="s">
-        <v>2224</v>
+        <v>2211</v>
       </c>
       <c r="D246" s="83" t="s">
-        <v>2225</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28197,13 +28050,13 @@
         <v>732</v>
       </c>
       <c r="B247" s="83" t="s">
-        <v>2226</v>
+        <v>2213</v>
       </c>
       <c r="C247" s="125" t="s">
-        <v>2227</v>
+        <v>2214</v>
       </c>
       <c r="D247" s="83" t="s">
-        <v>2228</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28211,13 +28064,13 @@
         <v>887</v>
       </c>
       <c r="B248" s="83" t="s">
-        <v>2229</v>
+        <v>2216</v>
       </c>
       <c r="C248" s="125" t="s">
-        <v>2230</v>
+        <v>2217</v>
       </c>
       <c r="D248" s="83" t="s">
-        <v>2231</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28225,13 +28078,13 @@
         <v>894</v>
       </c>
       <c r="B249" s="83" t="s">
-        <v>2232</v>
+        <v>2219</v>
       </c>
       <c r="C249" s="125" t="s">
-        <v>2233</v>
+        <v>2220</v>
       </c>
       <c r="D249" s="83" t="s">
-        <v>2234</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28239,13 +28092,13 @@
         <v>716</v>
       </c>
       <c r="B250" s="83" t="s">
-        <v>2235</v>
+        <v>2222</v>
       </c>
       <c r="C250" s="125" t="s">
-        <v>2236</v>
+        <v>2223</v>
       </c>
       <c r="D250" s="83" t="s">
-        <v>2237</v>
+        <v>2224</v>
       </c>
     </row>
   </sheetData>
